--- a/Data/in/input.xlsx
+++ b/Data/in/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acuna\Documents\Gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B68CBD-3F1A-4EB9-BED2-2E05ACA5F11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7F0352-372F-44A6-931E-861F35DDECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="268">
   <si>
     <t>Saline d1</t>
   </si>
@@ -841,9 +841,6 @@
   </si>
   <si>
     <t>t52</t>
-  </si>
-  <si>
-    <t>CFA d7 NS</t>
   </si>
 </sst>
 </file>
@@ -1349,42 +1346,42 @@
   <dimension ref="A1:AF226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A184" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI184" sqref="AI176:AI184"/>
+      <selection activeCell="N220" sqref="N220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="14" width="7.6640625" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" customWidth="1"/>
-    <col min="16" max="17" width="8.109375" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" customWidth="1"/>
+    <col min="16" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" customWidth="1"/>
-    <col min="24" max="25" width="12.44140625" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" customWidth="1"/>
+    <col min="20" max="20" width="8.28515625" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" customWidth="1"/>
+    <col min="24" max="25" width="12.42578125" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" customWidth="1"/>
-    <col min="29" max="29" width="8.6640625" customWidth="1"/>
-    <col min="30" max="30" width="5.6640625" customWidth="1"/>
-    <col min="31" max="31" width="11.6640625" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" customWidth="1"/>
+    <col min="30" max="30" width="5.7109375" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1482,7 +1479,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>50</v>
       </c>
@@ -1580,7 +1577,7 @@
         <v>4.2187999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>50</v>
       </c>
@@ -1678,7 +1675,7 @@
         <v>3.1875</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>51</v>
       </c>
@@ -1776,7 +1773,7 @@
         <v>1.1561999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1872,7 +1869,7 @@
         <v>3.5937999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1968,7 +1965,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>53</v>
       </c>
@@ -2066,7 +2063,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2162,7 +2159,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -2260,7 +2257,7 @@
         <v>2.2187999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>54</v>
       </c>
@@ -2358,7 +2355,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>54</v>
       </c>
@@ -2456,7 +2453,7 @@
         <v>4.1875</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>54</v>
       </c>
@@ -2552,7 +2549,7 @@
         <v>6.125</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2650,7 +2647,7 @@
         <v>2.9687999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2748,7 +2745,7 @@
         <v>4.3849999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2844,7 +2841,7 @@
         <v>4.4974999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2942,7 +2939,7 @@
         <v>4.1562000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -3040,7 +3037,7 @@
         <v>3.0312000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -3138,7 +3135,7 @@
         <v>2.8125</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -3234,7 +3231,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3330,7 +3327,7 @@
         <v>8.9687999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>56</v>
       </c>
@@ -3428,7 +3425,7 @@
         <v>2.9062000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>56</v>
       </c>
@@ -3520,7 +3517,7 @@
         <v>8.5937999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>56</v>
       </c>
@@ -3618,7 +3615,7 @@
         <v>5.1562000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>56</v>
       </c>
@@ -3714,7 +3711,7 @@
         <v>9.875</v>
       </c>
     </row>
-    <row r="25" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>56</v>
       </c>
@@ -3812,7 +3809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>56</v>
       </c>
@@ -3910,7 +3907,7 @@
         <v>4.625</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -4008,7 +4005,7 @@
         <v>4.8437999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -4106,7 +4103,7 @@
         <v>5.8437999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4198,7 +4195,7 @@
         <v>2.6562000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -4291,7 +4288,7 @@
         <v>1.5938000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -4389,7 +4386,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -4487,7 +4484,7 @@
         <v>7.6875</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -4585,7 +4582,7 @@
         <v>11.406000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -4681,7 +4678,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -4779,7 +4776,7 @@
         <v>3.6562000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -4877,7 +4874,7 @@
         <v>5.6562000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -4975,7 +4972,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -5073,7 +5070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5171,7 +5168,7 @@
         <v>3.4375</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -5269,7 +5266,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -5367,7 +5364,7 @@
         <v>1.4375</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -5463,7 +5460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -5561,7 +5558,7 @@
         <v>1.385</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -5657,7 +5654,7 @@
         <v>4.8437999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -5752,7 +5749,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -5847,7 +5844,7 @@
         <v>3.2812000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -5942,7 +5939,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -6035,7 +6032,7 @@
         <v>0.59375</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -6128,7 +6125,7 @@
         <v>7.4062000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -6223,7 +6220,7 @@
         <v>2.875</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -6318,7 +6315,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -6413,7 +6410,7 @@
         <v>6.1875</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -6506,7 +6503,7 @@
         <v>1.9375</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -6601,7 +6598,7 @@
         <v>1.5625</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -6690,7 +6687,7 @@
         <v>7.5937999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -6788,7 +6785,7 @@
         <v>8.4687999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -6883,7 +6880,7 @@
         <v>3.0625</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6978,7 +6975,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -7073,7 +7070,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -7168,7 +7165,7 @@
         <v>2.3437999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -7263,7 +7260,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -7358,7 +7355,7 @@
         <v>3.8125</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -7453,7 +7450,7 @@
         <v>8.4062000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -7548,7 +7545,7 @@
         <v>0.71875</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -7643,7 +7640,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -7736,7 +7733,7 @@
         <v>4.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -7831,7 +7828,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -7926,7 +7923,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -8022,7 +8019,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -8115,7 +8112,7 @@
         <v>6.9062000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -8210,7 +8207,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -8303,7 +8300,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -8399,7 +8396,7 @@
         <v>2.4062000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -8497,7 +8494,7 @@
         <v>1.9688000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -8592,7 +8589,7 @@
         <v>3.0312000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -8687,7 +8684,7 @@
         <v>1.0938000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -8780,7 +8777,7 @@
         <v>6.5625</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -8875,7 +8872,7 @@
         <v>1.0311999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -8964,7 +8961,7 @@
         <v>0.96875</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -9059,7 +9056,7 @@
         <v>2.0937999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -9154,7 +9151,7 @@
         <v>2.625</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -9249,7 +9246,7 @@
         <v>1.7188000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -9344,7 +9341,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -9439,7 +9436,7 @@
         <v>-1.8125</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -9532,7 +9529,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -9627,7 +9624,7 @@
         <v>1.6875</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -9722,7 +9719,7 @@
         <v>5.0312000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -9817,7 +9814,7 @@
         <v>4.4687999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -9912,7 +9909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -10007,7 +10004,7 @@
         <v>2.4375</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>86</v>
       </c>
@@ -10102,7 +10099,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -10197,7 +10194,7 @@
         <v>1.0625</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -10292,7 +10289,7 @@
         <v>4.9687999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -10387,7 +10384,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -10480,7 +10477,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -10566,7 +10563,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -10661,7 +10658,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -10750,7 +10747,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>90</v>
       </c>
@@ -10845,7 +10842,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -10940,7 +10937,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>90</v>
       </c>
@@ -11035,7 +11032,7 @@
         <v>2.9062000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>90</v>
       </c>
@@ -11130,7 +11127,7 @@
         <v>3.0625</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -11225,7 +11222,7 @@
         <v>1.7188000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -11320,7 +11317,7 @@
         <v>13.688000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>93</v>
       </c>
@@ -11413,7 +11410,7 @@
         <v>2.4375</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>94</v>
       </c>
@@ -11508,7 +11505,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>94</v>
       </c>
@@ -11603,7 +11600,7 @@
         <v>2.2812000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>95</v>
       </c>
@@ -11698,7 +11695,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -11793,7 +11790,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -11888,7 +11885,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>97</v>
       </c>
@@ -11983,7 +11980,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>97</v>
       </c>
@@ -12078,7 +12075,7 @@
         <v>3.4062000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>98</v>
       </c>
@@ -12173,7 +12170,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -12268,7 +12265,7 @@
         <v>1.9061999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>29</v>
       </c>
@@ -12363,7 +12360,7 @@
         <v>2.6274999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -12458,7 +12455,7 @@
         <v>1.8438000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>29</v>
       </c>
@@ -12553,7 +12550,7 @@
         <v>3.6562000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>29</v>
       </c>
@@ -12648,7 +12645,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="119" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
         <v>30</v>
       </c>
@@ -12743,7 +12740,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="120" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
         <v>29</v>
       </c>
@@ -12838,7 +12835,7 @@
         <v>3.8125</v>
       </c>
     </row>
-    <row r="121" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
         <v>29</v>
       </c>
@@ -12933,7 +12930,7 @@
         <v>3.1562000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
         <v>29</v>
       </c>
@@ -13028,7 +13025,7 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="123" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
         <v>29</v>
       </c>
@@ -13123,7 +13120,7 @@
         <v>2.9687999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
         <v>29</v>
       </c>
@@ -13218,7 +13215,7 @@
         <v>4.8125</v>
       </c>
     </row>
-    <row r="125" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
         <v>29</v>
       </c>
@@ -13313,7 +13310,7 @@
         <v>3.8437999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
         <v>29</v>
       </c>
@@ -13408,7 +13405,7 @@
         <v>10.906000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>29</v>
       </c>
@@ -13503,7 +13500,7 @@
         <v>3.3437999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
         <v>29</v>
       </c>
@@ -13598,7 +13595,7 @@
         <v>3.6875</v>
       </c>
     </row>
-    <row r="129" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
         <v>29</v>
       </c>
@@ -13693,7 +13690,7 @@
         <v>11.093999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>29</v>
       </c>
@@ -13788,7 +13785,7 @@
         <v>5.5937999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>30</v>
       </c>
@@ -13883,7 +13880,7 @@
         <v>1.8438000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
         <v>30</v>
       </c>
@@ -13978,7 +13975,7 @@
         <v>-6.25E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
         <v>29</v>
       </c>
@@ -14073,7 +14070,7 @@
         <v>6.0937999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="s">
         <v>30</v>
       </c>
@@ -14168,7 +14165,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="135" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="s">
         <v>30</v>
       </c>
@@ -14263,7 +14260,7 @@
         <v>1.0311999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22" t="s">
         <v>29</v>
       </c>
@@ -14358,7 +14355,7 @@
         <v>3.4687999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="s">
         <v>29</v>
       </c>
@@ -14453,7 +14450,7 @@
         <v>6.125</v>
       </c>
     </row>
-    <row r="138" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="s">
         <v>29</v>
       </c>
@@ -14548,7 +14545,7 @@
         <v>2.9062000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="s">
         <v>30</v>
       </c>
@@ -14643,7 +14640,7 @@
         <v>1.6561999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
         <v>29</v>
       </c>
@@ -14738,7 +14735,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="141" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="s">
         <v>29</v>
       </c>
@@ -14833,7 +14830,7 @@
         <v>4.5625</v>
       </c>
     </row>
-    <row r="142" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="22" t="s">
         <v>29</v>
       </c>
@@ -14910,7 +14907,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>29</v>
       </c>
@@ -15005,7 +15002,7 @@
         <v>3.4687999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -15100,7 +15097,7 @@
         <v>3.1562000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>29</v>
       </c>
@@ -15195,7 +15192,7 @@
         <v>2.625</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>29</v>
       </c>
@@ -15290,7 +15287,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>49</v>
       </c>
@@ -15388,7 +15385,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>29</v>
       </c>
@@ -15438,7 +15435,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>30818</v>
       </c>
@@ -15485,7 +15482,7 @@
         <v>2.625</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>30818</v>
       </c>
@@ -15532,7 +15529,7 @@
         <v>4.6562000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>30818</v>
       </c>
@@ -15579,7 +15576,7 @@
         <v>4.9687999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>30818</v>
       </c>
@@ -15626,7 +15623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>30818</v>
       </c>
@@ -15673,7 +15670,7 @@
         <v>4.0937999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>30818</v>
       </c>
@@ -15718,7 +15715,7 @@
         <v>2.625</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>30818</v>
       </c>
@@ -15765,7 +15762,7 @@
         <v>2.1562000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>30818</v>
       </c>
@@ -15812,7 +15809,7 @@
         <v>2.6875</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>30818</v>
       </c>
@@ -15856,7 +15853,7 @@
         <v>-0.28125</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>60818</v>
       </c>
@@ -15903,7 +15900,7 @@
         <v>6.9062000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>60818</v>
       </c>
@@ -15950,7 +15947,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>60818</v>
       </c>
@@ -15997,10 +15994,10 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="161" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:32" x14ac:dyDescent="0.25">
       <c r="E161" s="22"/>
     </row>
-    <row r="162" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>60818</v>
       </c>
@@ -16047,7 +16044,7 @@
         <v>9.0937999999999999</v>
       </c>
     </row>
-    <row r="163" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>60818</v>
       </c>
@@ -16094,7 +16091,7 @@
         <v>5.0937999999999999</v>
       </c>
     </row>
-    <row r="164" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>60818</v>
       </c>
@@ -16141,7 +16138,7 @@
         <v>0.96850000000000003</v>
       </c>
     </row>
-    <row r="165" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>60818</v>
       </c>
@@ -16188,7 +16185,7 @@
         <v>3.5312000000000001</v>
       </c>
     </row>
-    <row r="166" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>70818</v>
       </c>
@@ -16235,7 +16232,7 @@
         <v>1.8438000000000001</v>
       </c>
     </row>
-    <row r="167" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>70818</v>
       </c>
@@ -16282,7 +16279,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="168" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>70818</v>
       </c>
@@ -16329,7 +16326,7 @@
         <v>2.7812000000000001</v>
       </c>
     </row>
-    <row r="169" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>70818</v>
       </c>
@@ -16376,7 +16373,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="170" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>70818</v>
       </c>
@@ -16423,7 +16420,7 @@
         <v>2.1850000000000001</v>
       </c>
     </row>
-    <row r="171" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>70818</v>
       </c>
@@ -16470,7 +16467,7 @@
         <v>3.7187999999999999</v>
       </c>
     </row>
-    <row r="172" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>70818</v>
       </c>
@@ -16514,7 +16511,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="173" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>70818</v>
       </c>
@@ -16561,7 +16558,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="174" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>70818</v>
       </c>
@@ -16608,7 +16605,7 @@
         <v>9.3125</v>
       </c>
     </row>
-    <row r="175" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>140818</v>
       </c>
@@ -16652,7 +16649,7 @@
         <v>3.9687999999999999</v>
       </c>
     </row>
-    <row r="176" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>140818</v>
       </c>
@@ -16699,7 +16696,7 @@
         <v>3.4687999999999999</v>
       </c>
     </row>
-    <row r="177" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>140818</v>
       </c>
@@ -16746,7 +16743,7 @@
         <v>5.7187999999999999</v>
       </c>
     </row>
-    <row r="178" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>140818</v>
       </c>
@@ -16793,7 +16790,7 @@
         <v>-0.125</v>
       </c>
     </row>
-    <row r="179" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>140818</v>
       </c>
@@ -16837,7 +16834,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="180" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>140818</v>
       </c>
@@ -16881,7 +16878,7 @@
         <v>1.4061999999999999</v>
       </c>
     </row>
-    <row r="181" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>300518</v>
       </c>
@@ -16928,7 +16925,7 @@
         <v>4.1875</v>
       </c>
     </row>
-    <row r="182" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>300518</v>
       </c>
@@ -16975,7 +16972,7 @@
         <v>4.4375</v>
       </c>
     </row>
-    <row r="183" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>300518</v>
       </c>
@@ -17022,7 +17019,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="184" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>300518</v>
       </c>
@@ -17069,7 +17066,7 @@
         <v>1.4337500000000001</v>
       </c>
     </row>
-    <row r="185" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>300518</v>
       </c>
@@ -17116,7 +17113,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="186" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>300518</v>
       </c>
@@ -17163,7 +17160,7 @@
         <v>3.5937999999999999</v>
       </c>
     </row>
-    <row r="187" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>300518</v>
       </c>
@@ -17210,7 +17207,7 @@
         <v>3.2812000000000001</v>
       </c>
     </row>
-    <row r="188" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>300518</v>
       </c>
@@ -17255,7 +17252,7 @@
         <v>3.4375</v>
       </c>
     </row>
-    <row r="189" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>70618</v>
       </c>
@@ -17302,7 +17299,7 @@
         <v>-1.0311999999999999</v>
       </c>
     </row>
-    <row r="190" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>70618</v>
       </c>
@@ -17349,7 +17346,7 @@
         <v>3.7187999999999999</v>
       </c>
     </row>
-    <row r="191" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>70618</v>
       </c>
@@ -17396,7 +17393,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="192" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>70618</v>
       </c>
@@ -17443,7 +17440,7 @@
         <v>2.6440000000000001</v>
       </c>
     </row>
-    <row r="193" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>70618</v>
       </c>
@@ -17490,7 +17487,7 @@
         <v>5.1562000000000001</v>
       </c>
     </row>
-    <row r="194" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>70618</v>
       </c>
@@ -17537,7 +17534,7 @@
         <v>2.0937999999999999</v>
       </c>
     </row>
-    <row r="195" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>70618</v>
       </c>
@@ -17584,7 +17581,7 @@
         <v>3.5312000000000001</v>
       </c>
     </row>
-    <row r="196" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>70618</v>
       </c>
@@ -17631,7 +17628,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="197" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>70618</v>
       </c>
@@ -17678,7 +17675,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="198" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>70618</v>
       </c>
@@ -17725,7 +17722,7 @@
         <v>1.9375</v>
       </c>
     </row>
-    <row r="199" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>70618</v>
       </c>
@@ -17772,7 +17769,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="200" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>80618</v>
       </c>
@@ -17819,7 +17816,7 @@
         <v>2.7187999999999999</v>
       </c>
     </row>
-    <row r="201" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>80618</v>
       </c>
@@ -17866,7 +17863,7 @@
         <v>3.9687999999999999</v>
       </c>
     </row>
-    <row r="202" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>80618</v>
       </c>
@@ -17913,7 +17910,7 @@
         <v>3.875</v>
       </c>
     </row>
-    <row r="203" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>80618</v>
       </c>
@@ -17960,7 +17957,7 @@
         <v>2.5937999999999999</v>
       </c>
     </row>
-    <row r="204" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>80618</v>
       </c>
@@ -18007,7 +18004,7 @@
         <v>-0.125</v>
       </c>
     </row>
-    <row r="205" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>80618</v>
       </c>
@@ -18054,7 +18051,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="206" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>251018</v>
       </c>
@@ -18101,7 +18098,7 @@
         <v>4.2187999999999999</v>
       </c>
     </row>
-    <row r="207" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>251018</v>
       </c>
@@ -18148,7 +18145,7 @@
         <v>2.0312000000000001</v>
       </c>
     </row>
-    <row r="208" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>251018</v>
       </c>
@@ -18195,7 +18192,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="209" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>261018</v>
       </c>
@@ -18242,7 +18239,7 @@
         <v>3.8125</v>
       </c>
     </row>
-    <row r="210" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>261018</v>
       </c>
@@ -18289,7 +18286,7 @@
         <v>3.4062000000000001</v>
       </c>
     </row>
-    <row r="211" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>261018</v>
       </c>
@@ -18336,7 +18333,7 @@
         <v>3.6875</v>
       </c>
     </row>
-    <row r="212" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>261018</v>
       </c>
@@ -18380,7 +18377,7 @@
         <v>9.4062000000000001</v>
       </c>
     </row>
-    <row r="213" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>220519</v>
       </c>
@@ -18427,7 +18424,7 @@
         <v>8.6861999999999995</v>
       </c>
     </row>
-    <row r="214" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>220519</v>
       </c>
@@ -18471,7 +18468,7 @@
         <v>4.0620000000000003</v>
       </c>
     </row>
-    <row r="215" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>220519</v>
       </c>
@@ -18518,7 +18515,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="216" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>220519</v>
       </c>
@@ -18565,7 +18562,7 @@
         <v>5.1875</v>
       </c>
     </row>
-    <row r="217" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>40918</v>
       </c>
@@ -18609,7 +18606,7 @@
         <v>4.5320999999999998</v>
       </c>
     </row>
-    <row r="218" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>40918</v>
       </c>
@@ -18653,12 +18650,12 @@
         <v>3.3125</v>
       </c>
     </row>
-    <row r="219" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>11018</v>
       </c>
       <c r="C219" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="D219">
         <v>2</v>
@@ -18700,12 +18697,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>11018</v>
       </c>
       <c r="C220" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="D220">
         <v>2</v>
@@ -18747,12 +18744,12 @@
         <v>5.9687999999999999</v>
       </c>
     </row>
-    <row r="221" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>21018</v>
       </c>
       <c r="C221" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="D221">
         <v>2</v>
@@ -18791,12 +18788,12 @@
         <v>0.21875</v>
       </c>
     </row>
-    <row r="222" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>21018</v>
       </c>
       <c r="C222" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="D222">
         <v>2</v>
@@ -18838,12 +18835,12 @@
         <v>1.1875</v>
       </c>
     </row>
-    <row r="223" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>270319</v>
       </c>
       <c r="C223" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="E223" s="22" t="s">
         <v>28</v>
@@ -18883,12 +18880,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="224" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>270319</v>
       </c>
       <c r="C224" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="E224" s="22" t="s">
         <v>47</v>
@@ -18927,12 +18924,12 @@
         <v>4.1224999999999996</v>
       </c>
     </row>
-    <row r="225" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>270319</v>
       </c>
       <c r="C225" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="E225" s="22" t="s">
         <v>35</v>
@@ -18969,12 +18966,12 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="226" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>270320</v>
       </c>
       <c r="C226" t="s">
-        <v>268</v>
+        <v>107</v>
       </c>
       <c r="E226" s="22" t="s">
         <v>44</v>
@@ -19031,13 +19028,13 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
@@ -19056,7 +19053,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -19071,7 +19068,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
@@ -19090,7 +19087,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -19107,7 +19104,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
@@ -19120,7 +19117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>21</v>
       </c>
@@ -19139,7 +19136,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
@@ -19158,7 +19155,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
@@ -19177,7 +19174,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
@@ -19196,7 +19193,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
@@ -19215,7 +19212,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
@@ -19234,7 +19231,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>27</v>
       </c>
@@ -19255,7 +19252,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -19274,7 +19271,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K20" s="8" t="s">
         <v>16</v>
       </c>
@@ -19285,7 +19282,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -19299,43 +19296,43 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>

--- a/Data/in/input.xlsx
+++ b/Data/in/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acuna\Documents\Gini\Data\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7F0352-372F-44A6-931E-861F35DDECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2988EA3-A7BD-40A5-9E79-D573DD5E2D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="272">
   <si>
     <t>Saline d1</t>
   </si>
@@ -841,6 +841,18 @@
   </si>
   <si>
     <t>t52</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>ReboundD</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>L2/3</t>
   </si>
 </sst>
 </file>
@@ -870,7 +882,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,6 +892,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,6 +1047,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1345,43 +1364,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C04A2-646C-44CE-A1DE-AE1439B22FF5}">
   <dimension ref="A1:AF226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N220" sqref="N220"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" customWidth="1"/>
-    <col min="16" max="17" width="8.140625" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="13" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="4.6640625" customWidth="1"/>
+    <col min="16" max="17" width="8.109375" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="8.28515625" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" customWidth="1"/>
-    <col min="24" max="25" width="12.42578125" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" customWidth="1"/>
+    <col min="24" max="25" width="12.44140625" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" customWidth="1"/>
-    <col min="29" max="29" width="8.7109375" customWidth="1"/>
-    <col min="30" max="30" width="5.7109375" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="30" width="5.6640625" customWidth="1"/>
+    <col min="31" max="31" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1467,7 +1486,7 @@
         <v>248</v>
       </c>
       <c r="AC1" s="16" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>250</v>
@@ -1476,10 +1495,10 @@
         <v>253</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>50</v>
       </c>
@@ -1577,7 +1596,7 @@
         <v>4.2187999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>50</v>
       </c>
@@ -1675,7 +1694,7 @@
         <v>3.1875</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>51</v>
       </c>
@@ -1773,7 +1792,7 @@
         <v>1.1561999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1869,7 +1888,7 @@
         <v>3.5937999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1965,7 +1984,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>53</v>
       </c>
@@ -2063,7 +2082,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2159,7 +2178,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -2257,7 +2276,7 @@
         <v>2.2187999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>54</v>
       </c>
@@ -2355,7 +2374,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>54</v>
       </c>
@@ -2453,7 +2472,7 @@
         <v>4.1875</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>54</v>
       </c>
@@ -2549,7 +2568,7 @@
         <v>6.125</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2647,7 +2666,7 @@
         <v>2.9687999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -2745,7 +2764,7 @@
         <v>4.3849999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2841,7 +2860,7 @@
         <v>4.4974999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2939,7 +2958,7 @@
         <v>4.1562000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -3037,7 +3056,7 @@
         <v>3.0312000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -3135,7 +3154,7 @@
         <v>2.8125</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -3231,7 +3250,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3327,7 +3346,7 @@
         <v>8.9687999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>56</v>
       </c>
@@ -3425,7 +3444,7 @@
         <v>2.9062000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>56</v>
       </c>
@@ -3517,7 +3536,7 @@
         <v>8.5937999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>56</v>
       </c>
@@ -3615,7 +3634,7 @@
         <v>5.1562000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>56</v>
       </c>
@@ -3711,7 +3730,7 @@
         <v>9.875</v>
       </c>
     </row>
-    <row r="25" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>56</v>
       </c>
@@ -3809,7 +3828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>56</v>
       </c>
@@ -3907,7 +3926,7 @@
         <v>4.625</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -4005,7 +4024,7 @@
         <v>4.8437999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -4103,7 +4122,7 @@
         <v>5.8437999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4195,7 +4214,7 @@
         <v>2.6562000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -4288,7 +4307,7 @@
         <v>1.5938000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -4386,7 +4405,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -4484,7 +4503,7 @@
         <v>7.6875</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -4582,7 +4601,7 @@
         <v>11.406000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -4678,7 +4697,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -4776,7 +4795,7 @@
         <v>3.6562000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -4874,7 +4893,7 @@
         <v>5.6562000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -4972,7 +4991,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -5070,7 +5089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5168,7 +5187,7 @@
         <v>3.4375</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -5266,7 +5285,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -5364,7 +5383,7 @@
         <v>1.4375</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -5460,7 +5479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -5558,7 +5577,7 @@
         <v>1.385</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -5654,7 +5673,7 @@
         <v>4.8437999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -5749,7 +5768,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -5844,7 +5863,7 @@
         <v>3.2812000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -5939,7 +5958,7 @@
         <v>1.875</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -6032,7 +6051,7 @@
         <v>0.59375</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -6125,7 +6144,7 @@
         <v>7.4062000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -6220,7 +6239,7 @@
         <v>2.875</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -6315,7 +6334,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>70</v>
       </c>
@@ -6410,7 +6429,7 @@
         <v>6.1875</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -6503,7 +6522,7 @@
         <v>1.9375</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>70</v>
       </c>
@@ -6598,7 +6617,7 @@
         <v>1.5625</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -6687,7 +6706,7 @@
         <v>7.5937999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -6785,7 +6804,7 @@
         <v>8.4687999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -6880,7 +6899,7 @@
         <v>3.0625</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6975,7 +6994,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -7070,7 +7089,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -7165,7 +7184,7 @@
         <v>2.3437999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -7260,7 +7279,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -7355,7 +7374,7 @@
         <v>3.8125</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -7450,7 +7469,7 @@
         <v>8.4062000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -7545,7 +7564,7 @@
         <v>0.71875</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -7640,7 +7659,7 @@
         <v>4.6875</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -7733,7 +7752,7 @@
         <v>4.4375</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -7828,7 +7847,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -7923,7 +7942,7 @@
         <v>2.1875</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -8019,7 +8038,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -8112,7 +8131,7 @@
         <v>6.9062000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>76</v>
       </c>
@@ -8207,7 +8226,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -8300,7 +8319,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -8396,7 +8415,7 @@
         <v>2.4062000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -8494,7 +8513,7 @@
         <v>1.9688000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -8589,7 +8608,7 @@
         <v>3.0312000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -8684,7 +8703,7 @@
         <v>1.0938000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -8777,7 +8796,7 @@
         <v>6.5625</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -8872,7 +8891,7 @@
         <v>1.0311999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -8961,7 +8980,7 @@
         <v>0.96875</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -9056,7 +9075,7 @@
         <v>2.0937999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -9151,7 +9170,7 @@
         <v>2.625</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -9246,7 +9265,7 @@
         <v>1.7188000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -9341,7 +9360,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -9436,7 +9455,7 @@
         <v>-1.8125</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -9529,7 +9548,7 @@
         <v>0.15625</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -9624,7 +9643,7 @@
         <v>1.6875</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -9719,7 +9738,7 @@
         <v>5.0312000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -9814,7 +9833,7 @@
         <v>4.4687999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -9909,7 +9928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -10004,7 +10023,7 @@
         <v>2.4375</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>86</v>
       </c>
@@ -10099,7 +10118,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>86</v>
       </c>
@@ -10194,7 +10213,7 @@
         <v>1.0625</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -10289,7 +10308,7 @@
         <v>4.9687999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>86</v>
       </c>
@@ -10384,7 +10403,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -10477,7 +10496,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -10563,7 +10582,7 @@
         <v>9.375E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -10658,7 +10677,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -10747,7 +10766,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>90</v>
       </c>
@@ -10842,7 +10861,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>90</v>
       </c>
@@ -10937,7 +10956,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>90</v>
       </c>
@@ -11032,7 +11051,7 @@
         <v>2.9062000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>90</v>
       </c>
@@ -11127,7 +11146,7 @@
         <v>3.0625</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -11222,7 +11241,7 @@
         <v>1.7188000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -11317,7 +11336,7 @@
         <v>13.688000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>93</v>
       </c>
@@ -11410,7 +11429,7 @@
         <v>2.4375</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>94</v>
       </c>
@@ -11505,7 +11524,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>94</v>
       </c>
@@ -11600,7 +11619,7 @@
         <v>2.2812000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>95</v>
       </c>
@@ -11695,7 +11714,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>96</v>
       </c>
@@ -11790,7 +11809,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>96</v>
       </c>
@@ -11885,7 +11904,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>97</v>
       </c>
@@ -11980,7 +11999,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>97</v>
       </c>
@@ -12075,7 +12094,7 @@
         <v>3.4062000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>98</v>
       </c>
@@ -12170,7 +12189,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>98</v>
       </c>
@@ -12265,7 +12284,7 @@
         <v>1.9061999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>29</v>
       </c>
@@ -12360,7 +12379,7 @@
         <v>2.6274999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -12455,7 +12474,7 @@
         <v>1.8438000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>29</v>
       </c>
@@ -12550,7 +12569,7 @@
         <v>3.6562000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>29</v>
       </c>
@@ -12645,7 +12664,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="119" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="22" t="s">
         <v>30</v>
       </c>
@@ -12740,7 +12759,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="120" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="22" t="s">
         <v>29</v>
       </c>
@@ -12835,7 +12854,7 @@
         <v>3.8125</v>
       </c>
     </row>
-    <row r="121" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="22" t="s">
         <v>29</v>
       </c>
@@ -12930,7 +12949,7 @@
         <v>3.1562000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="22" t="s">
         <v>29</v>
       </c>
@@ -13025,7 +13044,7 @@
         <v>3.375</v>
       </c>
     </row>
-    <row r="123" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="22" t="s">
         <v>29</v>
       </c>
@@ -13120,7 +13139,7 @@
         <v>2.9687999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="22" t="s">
         <v>29</v>
       </c>
@@ -13215,7 +13234,7 @@
         <v>4.8125</v>
       </c>
     </row>
-    <row r="125" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="22" t="s">
         <v>29</v>
       </c>
@@ -13310,7 +13329,7 @@
         <v>3.8437999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
         <v>29</v>
       </c>
@@ -13405,7 +13424,7 @@
         <v>10.906000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="22" t="s">
         <v>29</v>
       </c>
@@ -13500,7 +13519,7 @@
         <v>3.3437999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
         <v>29</v>
       </c>
@@ -13595,7 +13614,7 @@
         <v>3.6875</v>
       </c>
     </row>
-    <row r="129" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
         <v>29</v>
       </c>
@@ -13690,7 +13709,7 @@
         <v>11.093999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="22" t="s">
         <v>29</v>
       </c>
@@ -13785,7 +13804,7 @@
         <v>5.5937999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
         <v>30</v>
       </c>
@@ -13880,7 +13899,7 @@
         <v>1.8438000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
         <v>30</v>
       </c>
@@ -13975,7 +13994,7 @@
         <v>-6.25E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="22" t="s">
         <v>29</v>
       </c>
@@ -14070,7 +14089,7 @@
         <v>6.0937999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
         <v>30</v>
       </c>
@@ -14165,7 +14184,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="135" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="22" t="s">
         <v>30</v>
       </c>
@@ -14260,7 +14279,7 @@
         <v>1.0311999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="22" t="s">
         <v>29</v>
       </c>
@@ -14355,7 +14374,7 @@
         <v>3.4687999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="22" t="s">
         <v>29</v>
       </c>
@@ -14450,7 +14469,7 @@
         <v>6.125</v>
       </c>
     </row>
-    <row r="138" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="22" t="s">
         <v>29</v>
       </c>
@@ -14545,7 +14564,7 @@
         <v>2.9062000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="22" t="s">
         <v>30</v>
       </c>
@@ -14640,7 +14659,7 @@
         <v>1.6561999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="22" t="s">
         <v>29</v>
       </c>
@@ -14735,7 +14754,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="141" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="22" t="s">
         <v>29</v>
       </c>
@@ -14830,7 +14849,7 @@
         <v>4.5625</v>
       </c>
     </row>
-    <row r="142" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="22" t="s">
         <v>29</v>
       </c>
@@ -14907,7 +14926,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>29</v>
       </c>
@@ -15002,7 +15021,7 @@
         <v>3.4687999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>30</v>
       </c>
@@ -15097,7 +15116,7 @@
         <v>3.1562000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>29</v>
       </c>
@@ -15192,7 +15211,7 @@
         <v>2.625</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>29</v>
       </c>
@@ -15287,7 +15306,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>49</v>
       </c>
@@ -15385,7 +15404,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>29</v>
       </c>
@@ -15435,7 +15454,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B149">
         <v>30818</v>
       </c>
@@ -15482,7 +15501,7 @@
         <v>2.625</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B150">
         <v>30818</v>
       </c>
@@ -15529,7 +15548,7 @@
         <v>4.6562000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B151">
         <v>30818</v>
       </c>
@@ -15576,7 +15595,7 @@
         <v>4.9687999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B152">
         <v>30818</v>
       </c>
@@ -15623,7 +15642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B153">
         <v>30818</v>
       </c>
@@ -15670,7 +15689,7 @@
         <v>4.0937999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B154">
         <v>30818</v>
       </c>
@@ -15715,7 +15734,7 @@
         <v>2.625</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B155">
         <v>30818</v>
       </c>
@@ -15762,7 +15781,7 @@
         <v>2.1562000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B156">
         <v>30818</v>
       </c>
@@ -15809,7 +15828,7 @@
         <v>2.6875</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B157">
         <v>30818</v>
       </c>
@@ -15853,7 +15872,7 @@
         <v>-0.28125</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B158">
         <v>60818</v>
       </c>
@@ -15900,7 +15919,7 @@
         <v>6.9062000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B159">
         <v>60818</v>
       </c>
@@ -15947,7 +15966,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B160">
         <v>60818</v>
       </c>
@@ -15994,10 +16013,10 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="161" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:32" x14ac:dyDescent="0.3">
       <c r="E161" s="22"/>
     </row>
-    <row r="162" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B162">
         <v>60818</v>
       </c>
@@ -16044,7 +16063,7 @@
         <v>9.0937999999999999</v>
       </c>
     </row>
-    <row r="163" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B163">
         <v>60818</v>
       </c>
@@ -16091,7 +16110,7 @@
         <v>5.0937999999999999</v>
       </c>
     </row>
-    <row r="164" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B164">
         <v>60818</v>
       </c>
@@ -16138,7 +16157,7 @@
         <v>0.96850000000000003</v>
       </c>
     </row>
-    <row r="165" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B165">
         <v>60818</v>
       </c>
@@ -16185,7 +16204,7 @@
         <v>3.5312000000000001</v>
       </c>
     </row>
-    <row r="166" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B166">
         <v>70818</v>
       </c>
@@ -16232,7 +16251,7 @@
         <v>1.8438000000000001</v>
       </c>
     </row>
-    <row r="167" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B167">
         <v>70818</v>
       </c>
@@ -16279,7 +16298,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="168" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B168">
         <v>70818</v>
       </c>
@@ -16326,7 +16345,7 @@
         <v>2.7812000000000001</v>
       </c>
     </row>
-    <row r="169" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B169">
         <v>70818</v>
       </c>
@@ -16373,7 +16392,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="170" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B170">
         <v>70818</v>
       </c>
@@ -16420,7 +16439,7 @@
         <v>2.1850000000000001</v>
       </c>
     </row>
-    <row r="171" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B171">
         <v>70818</v>
       </c>
@@ -16467,7 +16486,7 @@
         <v>3.7187999999999999</v>
       </c>
     </row>
-    <row r="172" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B172">
         <v>70818</v>
       </c>
@@ -16511,7 +16530,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="173" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B173">
         <v>70818</v>
       </c>
@@ -16558,7 +16577,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="174" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B174">
         <v>70818</v>
       </c>
@@ -16605,7 +16624,7 @@
         <v>9.3125</v>
       </c>
     </row>
-    <row r="175" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B175">
         <v>140818</v>
       </c>
@@ -16649,7 +16668,7 @@
         <v>3.9687999999999999</v>
       </c>
     </row>
-    <row r="176" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B176">
         <v>140818</v>
       </c>
@@ -16696,7 +16715,7 @@
         <v>3.4687999999999999</v>
       </c>
     </row>
-    <row r="177" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B177">
         <v>140818</v>
       </c>
@@ -16743,7 +16762,7 @@
         <v>5.7187999999999999</v>
       </c>
     </row>
-    <row r="178" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B178">
         <v>140818</v>
       </c>
@@ -16790,7 +16809,7 @@
         <v>-0.125</v>
       </c>
     </row>
-    <row r="179" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B179">
         <v>140818</v>
       </c>
@@ -16834,7 +16853,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="180" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B180">
         <v>140818</v>
       </c>
@@ -16878,7 +16897,7 @@
         <v>1.4061999999999999</v>
       </c>
     </row>
-    <row r="181" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B181">
         <v>300518</v>
       </c>
@@ -16925,7 +16944,7 @@
         <v>4.1875</v>
       </c>
     </row>
-    <row r="182" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B182">
         <v>300518</v>
       </c>
@@ -16972,7 +16991,7 @@
         <v>4.4375</v>
       </c>
     </row>
-    <row r="183" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B183">
         <v>300518</v>
       </c>
@@ -17019,7 +17038,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="184" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B184">
         <v>300518</v>
       </c>
@@ -17066,7 +17085,7 @@
         <v>1.4337500000000001</v>
       </c>
     </row>
-    <row r="185" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B185">
         <v>300518</v>
       </c>
@@ -17113,7 +17132,7 @@
         <v>2.5625</v>
       </c>
     </row>
-    <row r="186" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B186">
         <v>300518</v>
       </c>
@@ -17160,7 +17179,7 @@
         <v>3.5937999999999999</v>
       </c>
     </row>
-    <row r="187" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B187">
         <v>300518</v>
       </c>
@@ -17207,7 +17226,7 @@
         <v>3.2812000000000001</v>
       </c>
     </row>
-    <row r="188" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B188">
         <v>300518</v>
       </c>
@@ -17252,7 +17271,7 @@
         <v>3.4375</v>
       </c>
     </row>
-    <row r="189" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B189">
         <v>70618</v>
       </c>
@@ -17299,7 +17318,7 @@
         <v>-1.0311999999999999</v>
       </c>
     </row>
-    <row r="190" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B190">
         <v>70618</v>
       </c>
@@ -17346,7 +17365,7 @@
         <v>3.7187999999999999</v>
       </c>
     </row>
-    <row r="191" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B191">
         <v>70618</v>
       </c>
@@ -17393,7 +17412,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="192" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B192">
         <v>70618</v>
       </c>
@@ -17440,7 +17459,7 @@
         <v>2.6440000000000001</v>
       </c>
     </row>
-    <row r="193" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B193">
         <v>70618</v>
       </c>
@@ -17487,7 +17506,7 @@
         <v>5.1562000000000001</v>
       </c>
     </row>
-    <row r="194" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B194">
         <v>70618</v>
       </c>
@@ -17534,7 +17553,7 @@
         <v>2.0937999999999999</v>
       </c>
     </row>
-    <row r="195" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B195">
         <v>70618</v>
       </c>
@@ -17581,7 +17600,7 @@
         <v>3.5312000000000001</v>
       </c>
     </row>
-    <row r="196" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B196">
         <v>70618</v>
       </c>
@@ -17628,7 +17647,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="197" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B197">
         <v>70618</v>
       </c>
@@ -17675,7 +17694,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="198" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B198">
         <v>70618</v>
       </c>
@@ -17722,7 +17741,7 @@
         <v>1.9375</v>
       </c>
     </row>
-    <row r="199" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B199">
         <v>70618</v>
       </c>
@@ -17769,7 +17788,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="200" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B200">
         <v>80618</v>
       </c>
@@ -17816,7 +17835,7 @@
         <v>2.7187999999999999</v>
       </c>
     </row>
-    <row r="201" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B201">
         <v>80618</v>
       </c>
@@ -17863,7 +17882,7 @@
         <v>3.9687999999999999</v>
       </c>
     </row>
-    <row r="202" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B202">
         <v>80618</v>
       </c>
@@ -17910,7 +17929,7 @@
         <v>3.875</v>
       </c>
     </row>
-    <row r="203" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B203">
         <v>80618</v>
       </c>
@@ -17957,7 +17976,7 @@
         <v>2.5937999999999999</v>
       </c>
     </row>
-    <row r="204" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B204">
         <v>80618</v>
       </c>
@@ -18004,7 +18023,7 @@
         <v>-0.125</v>
       </c>
     </row>
-    <row r="205" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B205">
         <v>80618</v>
       </c>
@@ -18051,148 +18070,157 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="206" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B206">
+    <row r="206" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B206" s="30">
         <v>251018</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="30">
         <v>2</v>
       </c>
-      <c r="E206" s="22" t="s">
+      <c r="E206" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="U206" s="22">
+      <c r="U206" s="30">
         <v>1.2152690863579474</v>
       </c>
-      <c r="V206" s="22">
+      <c r="V206" s="30">
         <v>5.375</v>
       </c>
-      <c r="W206" s="22">
+      <c r="W206" s="30">
         <v>78.697916666666657</v>
       </c>
-      <c r="X206" s="22">
+      <c r="X206" s="30">
         <v>-63.671875</v>
       </c>
-      <c r="Y206" s="22">
+      <c r="Y206" s="30">
         <v>27.869647994896596</v>
       </c>
-      <c r="Z206" s="22">
+      <c r="Z206" s="30">
         <v>11</v>
       </c>
-      <c r="AA206" s="22">
+      <c r="AA206" s="30">
         <v>100.640625</v>
       </c>
-      <c r="AB206" s="22">
+      <c r="AB206" s="30">
         <v>1.1500702911890528</v>
       </c>
-      <c r="AC206" s="22">
+      <c r="AC206" s="30">
         <v>3.125</v>
       </c>
-      <c r="AE206" s="22">
+      <c r="AE206" s="30">
         <v>18.333333333333336</v>
       </c>
-      <c r="AF206" s="22">
+      <c r="AF206" s="30">
         <v>4.2187999999999999</v>
       </c>
     </row>
-    <row r="207" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B207">
+    <row r="207" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B207" s="30">
         <v>251018</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="30">
         <v>2</v>
       </c>
-      <c r="E207" s="22" t="s">
+      <c r="E207" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="U207" s="22">
+      <c r="U207" s="30">
         <v>1.1186440677966101</v>
       </c>
-      <c r="V207" s="22">
+      <c r="V207" s="30">
         <v>2.625</v>
       </c>
-      <c r="W207" s="22">
+      <c r="W207" s="30">
         <v>73.802083333333329</v>
       </c>
-      <c r="X207" s="22">
+      <c r="X207" s="30">
         <v>-67.140625</v>
       </c>
-      <c r="Y207" s="22">
+      <c r="Y207" s="30">
         <v>112.30166439348518</v>
       </c>
-      <c r="Z207" s="22">
+      <c r="Z207" s="30">
         <v>7</v>
       </c>
-      <c r="AA207" s="22">
+      <c r="AA207" s="30">
         <v>105.265625</v>
       </c>
-      <c r="AB207" s="22">
+      <c r="AB207" s="30">
         <v>1.0540531448269519</v>
       </c>
-      <c r="AC207" s="22">
+      <c r="AC207" s="30">
         <v>2.40625</v>
       </c>
-      <c r="AE207" s="22">
+      <c r="AE207" s="30">
         <v>11.666666666666668</v>
       </c>
-      <c r="AF207" s="22">
+      <c r="AF207" s="30">
         <v>2.0312000000000001</v>
       </c>
     </row>
-    <row r="208" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B208">
+    <row r="208" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B208" s="30">
         <v>251018</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="30">
         <v>2</v>
       </c>
-      <c r="E208" s="22" t="s">
+      <c r="E208" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U208" s="22">
+      <c r="U208" s="30">
         <v>1.0717749757516974</v>
       </c>
-      <c r="V208" s="22">
+      <c r="V208" s="30">
         <v>2.3125</v>
       </c>
-      <c r="W208" s="22">
+      <c r="W208" s="30">
         <v>104.21874999999999</v>
       </c>
-      <c r="X208" s="22">
+      <c r="X208" s="30">
         <v>-75.203125</v>
       </c>
-      <c r="Y208" s="22">
+      <c r="Y208" s="30">
         <v>47.975891792519235</v>
       </c>
-      <c r="Z208" s="22">
+      <c r="Z208" s="30">
         <v>25</v>
       </c>
-      <c r="AA208" s="22">
+      <c r="AA208" s="30">
         <v>116.078125</v>
       </c>
-      <c r="AB208" s="22">
+      <c r="AB208" s="30">
         <v>1.0647968517550623</v>
       </c>
-      <c r="AC208" s="22">
+      <c r="AC208" s="30">
         <v>1.5</v>
       </c>
-      <c r="AE208" s="22">
+      <c r="AE208" s="30">
         <v>25</v>
       </c>
-      <c r="AF208" s="22">
+      <c r="AF208" s="30">
         <v>0.65625</v>
       </c>
     </row>
-    <row r="209" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B209">
         <v>261018</v>
       </c>
@@ -18205,6 +18233,51 @@
       <c r="E209" s="22" t="s">
         <v>45</v>
       </c>
+      <c r="F209">
+        <v>414.041</v>
+      </c>
+      <c r="G209">
+        <v>259.35399999999998</v>
+      </c>
+      <c r="H209">
+        <v>7.08</v>
+      </c>
+      <c r="I209">
+        <v>52.914000000000001</v>
+      </c>
+      <c r="J209">
+        <v>161.73099999999999</v>
+      </c>
+      <c r="K209">
+        <v>4.0759999999999996</v>
+      </c>
+      <c r="L209">
+        <v>11.571</v>
+      </c>
+      <c r="M209">
+        <v>196.845</v>
+      </c>
+      <c r="N209">
+        <v>67.869</v>
+      </c>
+      <c r="O209">
+        <v>5</v>
+      </c>
+      <c r="P209">
+        <v>106.378</v>
+      </c>
+      <c r="Q209">
+        <v>113.18</v>
+      </c>
+      <c r="R209">
+        <v>32.945999999999998</v>
+      </c>
+      <c r="S209">
+        <v>4</v>
+      </c>
+      <c r="T209">
+        <v>9</v>
+      </c>
       <c r="U209">
         <v>1.1413043478260869</v>
       </c>
@@ -18239,7 +18312,7 @@
         <v>3.8125</v>
       </c>
     </row>
-    <row r="210" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B210">
         <v>261018</v>
       </c>
@@ -18252,6 +18325,51 @@
       <c r="E210" s="22" t="s">
         <v>38</v>
       </c>
+      <c r="F210">
+        <v>443.61500000000001</v>
+      </c>
+      <c r="G210">
+        <v>313.976</v>
+      </c>
+      <c r="H210">
+        <v>25.640999999999998</v>
+      </c>
+      <c r="I210">
+        <v>51.963000000000001</v>
+      </c>
+      <c r="J210">
+        <v>196.66499999999999</v>
+      </c>
+      <c r="K210">
+        <v>3.0329999999999999</v>
+      </c>
+      <c r="L210">
+        <v>10.048999999999999</v>
+      </c>
+      <c r="M210">
+        <v>139.09800000000001</v>
+      </c>
+      <c r="N210">
+        <v>78.587000000000003</v>
+      </c>
+      <c r="O210">
+        <v>5</v>
+      </c>
+      <c r="P210">
+        <v>198.49700000000001</v>
+      </c>
+      <c r="Q210">
+        <v>181.428</v>
+      </c>
+      <c r="R210">
+        <v>28.158000000000001</v>
+      </c>
+      <c r="S210">
+        <v>5</v>
+      </c>
+      <c r="T210">
+        <v>6</v>
+      </c>
       <c r="U210">
         <v>1.1631901840490797</v>
       </c>
@@ -18286,7 +18404,7 @@
         <v>3.4062000000000001</v>
       </c>
     </row>
-    <row r="211" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B211">
         <v>261018</v>
       </c>
@@ -18299,6 +18417,51 @@
       <c r="E211" s="22" t="s">
         <v>31</v>
       </c>
+      <c r="F211">
+        <v>416.31799999999998</v>
+      </c>
+      <c r="G211">
+        <v>221.81899999999999</v>
+      </c>
+      <c r="H211">
+        <v>9.1869999999999994</v>
+      </c>
+      <c r="I211">
+        <v>55.000999999999998</v>
+      </c>
+      <c r="J211">
+        <v>205.72200000000001</v>
+      </c>
+      <c r="K211">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="L211">
+        <v>12.135</v>
+      </c>
+      <c r="M211">
+        <v>133.119</v>
+      </c>
+      <c r="N211">
+        <v>84.174000000000007</v>
+      </c>
+      <c r="O211">
+        <v>4</v>
+      </c>
+      <c r="P211">
+        <v>154.697</v>
+      </c>
+      <c r="Q211">
+        <v>180.98699999999999</v>
+      </c>
+      <c r="R211">
+        <v>13.093</v>
+      </c>
+      <c r="S211">
+        <v>4</v>
+      </c>
+      <c r="T211">
+        <v>8</v>
+      </c>
       <c r="U211">
         <v>1.1590214067278288</v>
       </c>
@@ -18333,7 +18496,7 @@
         <v>3.6875</v>
       </c>
     </row>
-    <row r="212" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B212">
         <v>261018</v>
       </c>
@@ -18346,6 +18509,51 @@
       <c r="E212" s="22" t="s">
         <v>126</v>
       </c>
+      <c r="F212">
+        <v>440.20499999999998</v>
+      </c>
+      <c r="G212">
+        <v>319.649</v>
+      </c>
+      <c r="H212">
+        <v>10.677</v>
+      </c>
+      <c r="I212">
+        <v>48.277999999999999</v>
+      </c>
+      <c r="J212">
+        <v>161.73099999999999</v>
+      </c>
+      <c r="K212">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="L212">
+        <v>9.1020000000000003</v>
+      </c>
+      <c r="M212">
+        <v>145.59700000000001</v>
+      </c>
+      <c r="N212">
+        <v>105.02800000000001</v>
+      </c>
+      <c r="O212">
+        <v>6</v>
+      </c>
+      <c r="P212">
+        <v>176.32300000000001</v>
+      </c>
+      <c r="Q212">
+        <v>126.265</v>
+      </c>
+      <c r="R212">
+        <v>43.423000000000002</v>
+      </c>
+      <c r="S212">
+        <v>5</v>
+      </c>
+      <c r="T212">
+        <v>4</v>
+      </c>
       <c r="U212">
         <v>1.2628571428571429</v>
       </c>
@@ -18377,7 +18585,7 @@
         <v>9.4062000000000001</v>
       </c>
     </row>
-    <row r="213" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B213">
         <v>220519</v>
       </c>
@@ -18424,7 +18632,7 @@
         <v>8.6861999999999995</v>
       </c>
     </row>
-    <row r="214" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B214">
         <v>220519</v>
       </c>
@@ -18468,7 +18676,7 @@
         <v>4.0620000000000003</v>
       </c>
     </row>
-    <row r="215" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B215">
         <v>220519</v>
       </c>
@@ -18515,7 +18723,7 @@
         <v>0.84375</v>
       </c>
     </row>
-    <row r="216" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B216">
         <v>220519</v>
       </c>
@@ -18562,7 +18770,7 @@
         <v>5.1875</v>
       </c>
     </row>
-    <row r="217" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B217">
         <v>40918</v>
       </c>
@@ -18606,7 +18814,7 @@
         <v>4.5320999999999998</v>
       </c>
     </row>
-    <row r="218" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B218">
         <v>40918</v>
       </c>
@@ -18650,54 +18858,57 @@
         <v>3.3125</v>
       </c>
     </row>
-    <row r="219" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B219">
+    <row r="219" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B219" s="30">
         <v>11018</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="30">
         <v>2</v>
       </c>
-      <c r="E219" s="22" t="s">
+      <c r="E219" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="U219">
+      <c r="U219" s="30">
         <v>1.1166464155528555</v>
       </c>
-      <c r="V219">
+      <c r="V219" s="30">
         <v>3</v>
       </c>
-      <c r="W219">
+      <c r="W219" s="30">
         <v>83.406249999999972</v>
       </c>
-      <c r="X219">
+      <c r="X219" s="30">
         <v>-65.759375000000006</v>
       </c>
-      <c r="Y219">
+      <c r="Y219" s="30">
         <v>20.380017688410859</v>
       </c>
-      <c r="Z219" s="22">
+      <c r="Z219" s="30">
         <v>17</v>
       </c>
-      <c r="AA219">
+      <c r="AA219" s="30">
         <v>112.94687500000001</v>
       </c>
-      <c r="AB219">
+      <c r="AB219" s="30">
         <v>1.0032131299494864</v>
       </c>
-      <c r="AC219">
+      <c r="AC219" s="30">
         <v>2.25</v>
       </c>
-      <c r="AE219">
+      <c r="AE219" s="30">
         <v>28.333333333333336</v>
       </c>
-      <c r="AF219" s="22">
+      <c r="AF219" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B220">
         <v>11018</v>
       </c>
@@ -18710,6 +18921,51 @@
       <c r="E220" s="22" t="s">
         <v>35</v>
       </c>
+      <c r="F220">
+        <v>385.31</v>
+      </c>
+      <c r="G220">
+        <v>185.31200000000001</v>
+      </c>
+      <c r="H220">
+        <v>15.185</v>
+      </c>
+      <c r="I220">
+        <v>44.673000000000002</v>
+      </c>
+      <c r="J220">
+        <v>139.946</v>
+      </c>
+      <c r="K220">
+        <v>2.7280000000000002</v>
+      </c>
+      <c r="L220">
+        <v>13.61</v>
+      </c>
+      <c r="M220">
+        <v>148.85599999999999</v>
+      </c>
+      <c r="N220">
+        <v>116.83</v>
+      </c>
+      <c r="O220">
+        <v>6</v>
+      </c>
+      <c r="P220">
+        <v>243.947</v>
+      </c>
+      <c r="Q220">
+        <v>185.489</v>
+      </c>
+      <c r="R220">
+        <v>42.658999999999999</v>
+      </c>
+      <c r="S220">
+        <v>4</v>
+      </c>
+      <c r="T220">
+        <v>6</v>
+      </c>
       <c r="U220">
         <v>1.2399497487437185</v>
       </c>
@@ -18744,51 +19000,54 @@
         <v>5.9687999999999999</v>
       </c>
     </row>
-    <row r="221" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B221">
+    <row r="221" spans="1:32" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B221" s="30">
         <v>21018</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="30">
         <v>2</v>
       </c>
-      <c r="E221" s="22" t="s">
+      <c r="E221" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="U221" s="22">
+      <c r="U221" s="30">
         <v>1.058457711442786</v>
       </c>
-      <c r="V221" s="22">
+      <c r="V221" s="30">
         <v>1.46875</v>
       </c>
-      <c r="W221" s="22">
+      <c r="W221" s="30">
         <v>80.968750000000014</v>
       </c>
-      <c r="X221" s="22">
+      <c r="X221" s="30">
         <v>-67.240624999999994</v>
       </c>
-      <c r="Y221" s="22">
+      <c r="Y221" s="30">
         <v>103.98393335187315</v>
       </c>
-      <c r="Z221" s="22">
+      <c r="Z221" s="30">
         <v>14</v>
       </c>
-      <c r="AA221" s="22">
+      <c r="AA221" s="30">
         <v>110.74062499999999</v>
       </c>
-      <c r="AB221" s="22">
+      <c r="AB221" s="30">
         <v>1.0290353798435561</v>
       </c>
-      <c r="AE221" s="22">
+      <c r="AE221" s="30">
         <v>23.333333333333336</v>
       </c>
-      <c r="AF221" s="22">
+      <c r="AF221" s="30">
         <v>0.21875</v>
       </c>
     </row>
-    <row r="222" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B222">
         <v>21018</v>
       </c>
@@ -18801,6 +19060,51 @@
       <c r="E222" s="22" t="s">
         <v>32</v>
       </c>
+      <c r="F222">
+        <v>342.95400000000001</v>
+      </c>
+      <c r="G222">
+        <v>200.45099999999999</v>
+      </c>
+      <c r="H222">
+        <v>11.521000000000001</v>
+      </c>
+      <c r="I222">
+        <v>40.996000000000002</v>
+      </c>
+      <c r="J222">
+        <v>113.411</v>
+      </c>
+      <c r="K222">
+        <v>1.744</v>
+      </c>
+      <c r="L222">
+        <v>9.6910000000000007</v>
+      </c>
+      <c r="M222">
+        <v>113.45699999999999</v>
+      </c>
+      <c r="N222">
+        <v>64.356999999999999</v>
+      </c>
+      <c r="O222">
+        <v>5</v>
+      </c>
+      <c r="P222">
+        <v>120.851</v>
+      </c>
+      <c r="Q222">
+        <v>133.298</v>
+      </c>
+      <c r="R222">
+        <v>27.148</v>
+      </c>
+      <c r="S222">
+        <v>4</v>
+      </c>
+      <c r="T222">
+        <v>3</v>
+      </c>
       <c r="U222" s="22">
         <v>1.1147036181678214</v>
       </c>
@@ -18835,15 +19139,63 @@
         <v>1.1875</v>
       </c>
     </row>
-    <row r="223" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B223">
         <v>270319</v>
       </c>
       <c r="C223" t="s">
         <v>107</v>
       </c>
+      <c r="D223" s="30">
+        <v>2</v>
+      </c>
       <c r="E223" s="22" t="s">
         <v>28</v>
+      </c>
+      <c r="F223">
+        <v>451.137</v>
+      </c>
+      <c r="G223">
+        <v>325.56900000000002</v>
+      </c>
+      <c r="H223">
+        <v>12.055</v>
+      </c>
+      <c r="I223">
+        <v>48.258000000000003</v>
+      </c>
+      <c r="J223">
+        <v>159.155</v>
+      </c>
+      <c r="K223">
+        <v>2.3690000000000002</v>
+      </c>
+      <c r="L223">
+        <v>11.589</v>
+      </c>
+      <c r="M223">
+        <v>167.91399999999999</v>
+      </c>
+      <c r="N223">
+        <v>92.045000000000002</v>
+      </c>
+      <c r="O223">
+        <v>4</v>
+      </c>
+      <c r="P223">
+        <v>186.37100000000001</v>
+      </c>
+      <c r="Q223">
+        <v>124.443</v>
+      </c>
+      <c r="R223">
+        <v>77.769000000000005</v>
+      </c>
+      <c r="S223">
+        <v>4</v>
+      </c>
+      <c r="T223">
+        <v>4</v>
       </c>
       <c r="U223" s="22">
         <v>1.1842496285289748</v>
@@ -18880,16 +19232,64 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="224" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B224">
         <v>270319</v>
       </c>
       <c r="C224" t="s">
         <v>107</v>
       </c>
+      <c r="D224">
+        <v>3</v>
+      </c>
       <c r="E224" s="22" t="s">
         <v>47</v>
       </c>
+      <c r="F224">
+        <v>488.06900000000002</v>
+      </c>
+      <c r="G224">
+        <v>309.09100000000001</v>
+      </c>
+      <c r="H224">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="I224">
+        <v>49.122</v>
+      </c>
+      <c r="J224">
+        <v>143.66</v>
+      </c>
+      <c r="K224">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="L224">
+        <v>13.068</v>
+      </c>
+      <c r="M224">
+        <v>89.772999999999996</v>
+      </c>
+      <c r="N224">
+        <v>81.501000000000005</v>
+      </c>
+      <c r="O224">
+        <v>4</v>
+      </c>
+      <c r="P224">
+        <v>146.59100000000001</v>
+      </c>
+      <c r="Q224">
+        <v>112.501</v>
+      </c>
+      <c r="R224">
+        <v>38.253999999999998</v>
+      </c>
+      <c r="S224">
+        <v>5</v>
+      </c>
+      <c r="T224">
+        <v>4</v>
+      </c>
       <c r="U224" s="22">
         <v>1.1585106382978723</v>
       </c>
@@ -18924,15 +19324,63 @@
         <v>4.1224999999999996</v>
       </c>
     </row>
-    <row r="225" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B225">
         <v>270319</v>
       </c>
       <c r="C225" t="s">
         <v>107</v>
       </c>
+      <c r="D225" s="30">
+        <v>3</v>
+      </c>
       <c r="E225" s="22" t="s">
         <v>35</v>
+      </c>
+      <c r="F225">
+        <v>553.15</v>
+      </c>
+      <c r="G225">
+        <v>388.49599999999998</v>
+      </c>
+      <c r="H225">
+        <v>46.121000000000002</v>
+      </c>
+      <c r="I225">
+        <v>43.274000000000001</v>
+      </c>
+      <c r="J225">
+        <v>115.51900000000001</v>
+      </c>
+      <c r="K225">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="L225">
+        <v>15.782</v>
+      </c>
+      <c r="M225">
+        <v>95.480999999999995</v>
+      </c>
+      <c r="N225">
+        <v>61.338000000000001</v>
+      </c>
+      <c r="O225">
+        <v>5</v>
+      </c>
+      <c r="P225">
+        <v>185.809</v>
+      </c>
+      <c r="Q225">
+        <v>165.83199999999999</v>
+      </c>
+      <c r="R225">
+        <v>26.248999999999999</v>
+      </c>
+      <c r="S225">
+        <v>2</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
       </c>
       <c r="U225" s="22">
         <v>1.0929203539823009</v>
@@ -18966,7 +19414,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="226" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B226">
         <v>270320</v>
       </c>
@@ -19028,13 +19476,13 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
@@ -19053,7 +19501,7 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -19068,7 +19516,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
@@ -19087,7 +19535,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -19104,7 +19552,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
@@ -19117,7 +19565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>21</v>
       </c>
@@ -19136,7 +19584,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
@@ -19155,7 +19603,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
@@ -19174,7 +19622,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>24</v>
       </c>
@@ -19193,7 +19641,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>25</v>
       </c>
@@ -19212,7 +19660,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
@@ -19231,7 +19679,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>27</v>
       </c>
@@ -19252,7 +19700,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -19271,7 +19719,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="K20" s="8" t="s">
         <v>16</v>
       </c>
@@ -19282,7 +19730,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -19296,43 +19744,43 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>

--- a/Data/in/input.xlsx
+++ b/Data/in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A0769-8EE5-497D-B424-D8580D4F0CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC26021-A4A5-4E5A-83BF-D1BD5DB58C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26895" yWindow="1860" windowWidth="21330" windowHeight="13485" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C04A2-646C-44CE-A1DE-AE1439B22FF5}">
   <dimension ref="A1:AK226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W61" sqref="W61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7779,7 +7779,7 @@
         <v>-61.628124999999997</v>
       </c>
       <c r="Y60" s="20">
-        <v>228.65956640423454</v>
+        <v>118.65956640423499</v>
       </c>
       <c r="Z60" s="20">
         <v>6.4957761759228578</v>
@@ -7885,7 +7885,7 @@
         <v>4.96875</v>
       </c>
       <c r="W61" s="20">
-        <v>51.270833333333307</v>
+        <v>61.2708333333333</v>
       </c>
       <c r="X61" s="20">
         <v>-75.681250000000006</v>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="AA61" s="20">
         <f t="shared" si="2"/>
-        <v>0.13009886841189489</v>
+        <v>0.10886545908251388</v>
       </c>
       <c r="AB61" s="20">
         <v>0.6613496932515337</v>

--- a/Data/in/input.xlsx
+++ b/Data/in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC26021-A4A5-4E5A-83BF-D1BD5DB58C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B41A4-5D93-4963-AF16-8EA66601904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26895" yWindow="1860" windowWidth="21330" windowHeight="13485" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26370" yWindow="2340" windowWidth="21330" windowHeight="13485" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C04A2-646C-44CE-A1DE-AE1439B22FF5}">
   <dimension ref="A1:AK226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W61" sqref="W61"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W50" sqref="W50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6535,20 +6535,20 @@
         <v>8.375</v>
       </c>
       <c r="W49" s="20">
-        <v>64.270833333333314</v>
+        <v>64.2708333333333</v>
       </c>
       <c r="X49" s="20">
         <v>-64.4375</v>
       </c>
       <c r="Y49" s="20">
-        <v>104.60636497444439</v>
+        <v>114.60636497444401</v>
       </c>
       <c r="Z49" s="20">
         <v>6.3402500931801855</v>
       </c>
       <c r="AA49" s="20">
-        <f t="shared" si="2"/>
-        <v>9.8648947965202266E-2</v>
+        <f>Z49/W49</f>
+        <v>9.8648947965202294E-2</v>
       </c>
       <c r="AB49" s="20">
         <v>0.39928057553956831</v>

--- a/Data/in/input.xlsx
+++ b/Data/in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823B41A4-5D93-4963-AF16-8EA66601904C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C715345-D560-4D55-818D-5457DC198E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26370" yWindow="2340" windowWidth="21330" windowHeight="13485" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -935,7 +935,7 @@
   <dimension ref="A1:AK226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W50" sqref="W50"/>
+      <selection activeCell="AJ55" sqref="AJ55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7038,7 +7038,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F54" s="20">
         <v>543.94600000000003</v>
@@ -7085,58 +7085,55 @@
       <c r="T54" s="20">
         <v>3</v>
       </c>
-      <c r="U54" s="20">
-        <v>1.3376224766851612</v>
-      </c>
-      <c r="V54" s="20">
-        <v>8.9375</v>
-      </c>
-      <c r="W54" s="20">
-        <v>88.239583333333314</v>
-      </c>
-      <c r="X54" s="20">
-        <v>-69.903125000000003</v>
-      </c>
-      <c r="Y54" s="20">
-        <v>54.985067294450829</v>
-      </c>
-      <c r="Z54" s="20">
-        <v>11.557776588541895</v>
+      <c r="U54">
+        <v>1.0207125103562551</v>
+      </c>
+      <c r="V54">
+        <v>0.78125</v>
+      </c>
+      <c r="W54">
+        <v>120.770833333333</v>
+      </c>
+      <c r="X54">
+        <v>-65.831249999999997</v>
+      </c>
+      <c r="Y54">
+        <v>122.33127416619324</v>
+      </c>
+      <c r="Z54">
+        <v>10.72078082850803</v>
       </c>
       <c r="AA54" s="20">
-        <f t="shared" si="2"/>
-        <v>0.130981767500888</v>
-      </c>
-      <c r="AB54" s="20">
-        <v>0.21225710014947685</v>
+        <f>Z54/W54</f>
+        <v>8.876961872837448E-2</v>
+      </c>
+      <c r="AB54">
+        <v>0.42582106455266139</v>
       </c>
       <c r="AC54" s="20">
-        <v>18</v>
-      </c>
-      <c r="AD54" s="20">
-        <v>121.55937499999999</v>
-      </c>
-      <c r="AE54" s="20">
-        <v>0.88212927615178671</v>
-      </c>
-      <c r="AF54" s="20">
-        <v>303.375</v>
-      </c>
-      <c r="AG54" s="20">
-        <v>83.5</v>
-      </c>
-      <c r="AH54" s="20">
-        <v>3.28125</v>
-      </c>
-      <c r="AI54" s="20">
-        <v>169.01408450704224</v>
-      </c>
-      <c r="AJ54" s="20">
-        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AD54">
+        <v>115.98750000000001</v>
+      </c>
+      <c r="AE54">
+        <v>1.1803534813047847</v>
+      </c>
+      <c r="AF54">
+        <v>275.625</v>
+      </c>
+      <c r="AG54">
+        <v>62.625</v>
+      </c>
+      <c r="AH54">
+        <v>2.59375</v>
+      </c>
+      <c r="AI54"/>
+      <c r="AJ54">
         <v>0</v>
       </c>
       <c r="AK54" s="20">
-        <v>1.5625</v>
+        <v>-0.84375</v>
       </c>
     </row>
     <row r="55" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -7153,7 +7150,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F55" s="20">
         <v>342.39699999999999</v>
@@ -7200,58 +7197,55 @@
       <c r="T55" s="20">
         <v>4</v>
       </c>
-      <c r="U55" s="20">
-        <v>1.2522255192878338</v>
-      </c>
-      <c r="V55" s="20">
-        <v>7.96875</v>
-      </c>
-      <c r="W55" s="20">
-        <v>105.3125</v>
-      </c>
-      <c r="X55" s="20">
-        <v>-69</v>
-      </c>
-      <c r="Y55" s="20">
-        <v>8.0075291789899996</v>
-      </c>
-      <c r="Z55" s="20">
-        <v>7.204158964789797</v>
+      <c r="U55">
+        <v>1.144708423326134</v>
+      </c>
+      <c r="V55">
+        <v>2.09375</v>
+      </c>
+      <c r="W55">
+        <v>53.843750000000007</v>
+      </c>
+      <c r="X55">
+        <v>-57.628124999999997</v>
+      </c>
+      <c r="Y55">
+        <v>234.9102852440933</v>
+      </c>
+      <c r="Z55">
+        <v>7.4452616586076195</v>
       </c>
       <c r="AA55" s="20">
         <f t="shared" si="2"/>
-        <v>6.8407444176045551E-2</v>
-      </c>
-      <c r="AB55" s="20">
-        <v>0.76647398843930636</v>
+        <v>0.13827531809369925</v>
+      </c>
+      <c r="AB55">
+        <v>0.56294326241134751</v>
       </c>
       <c r="AC55" s="20">
-        <v>26</v>
-      </c>
-      <c r="AD55" s="20">
-        <v>116.96875</v>
-      </c>
-      <c r="AE55" s="20">
-        <v>0.66650770914377055</v>
-      </c>
-      <c r="AF55" s="20">
-        <v>349.75</v>
-      </c>
-      <c r="AG55" s="20">
-        <v>126.875</v>
-      </c>
-      <c r="AH55" s="20">
-        <v>9.0625</v>
-      </c>
-      <c r="AI55" s="20">
-        <v>347.82608695652175</v>
-      </c>
-      <c r="AJ55" s="20">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <v>115.00312500000001</v>
+      </c>
+      <c r="AE55">
+        <v>1.026676107270859</v>
+      </c>
+      <c r="AF55">
+        <v>289.25</v>
+      </c>
+      <c r="AG55">
+        <v>76.875</v>
+      </c>
+      <c r="AH55">
+        <v>5.25</v>
+      </c>
+      <c r="AI55"/>
+      <c r="AJ55">
         <v>0</v>
       </c>
       <c r="AK55" s="20">
-        <v>7.5937999999999999</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="56" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -7268,7 +7262,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F56" s="20">
         <v>499.39800000000002</v>
@@ -7315,58 +7309,53 @@
       <c r="T56" s="20">
         <v>6</v>
       </c>
-      <c r="U56" s="20">
-        <v>1.1239630906887874</v>
-      </c>
-      <c r="V56" s="20">
-        <v>4.15625</v>
-      </c>
-      <c r="W56" s="20">
-        <v>111.76041666666667</v>
-      </c>
-      <c r="X56" s="20">
-        <v>-67.659374999999997</v>
-      </c>
-      <c r="Y56" s="20">
-        <v>31.440799751835623</v>
-      </c>
-      <c r="Z56" s="20">
-        <v>6.4490319013438535</v>
+      <c r="U56">
+        <v>1.0975609756097562</v>
+      </c>
+      <c r="V56">
+        <v>1.25</v>
+      </c>
+      <c r="W56">
+        <v>39.687499999999993</v>
+      </c>
+      <c r="X56">
+        <v>-67.03125</v>
+      </c>
+      <c r="Y56">
+        <v>474.88882959567741</v>
+      </c>
+      <c r="Z56">
+        <v>7.3235280038458743</v>
       </c>
       <c r="AA56" s="20">
         <f t="shared" si="2"/>
-        <v>5.7704078901016864E-2</v>
-      </c>
-      <c r="AB56" s="20">
-        <v>0.21313868613138687</v>
-      </c>
+        <v>0.1845298394669827</v>
+      </c>
+      <c r="AB56"/>
       <c r="AC56" s="20">
-        <v>15</v>
-      </c>
-      <c r="AD56" s="20">
-        <v>117.03437500000001</v>
-      </c>
-      <c r="AE56" s="20">
-        <v>0.90498754394407399</v>
-      </c>
-      <c r="AF56" s="20">
-        <v>353</v>
-      </c>
-      <c r="AG56" s="20">
-        <v>96.875</v>
-      </c>
-      <c r="AH56" s="20">
-        <v>7.8125</v>
-      </c>
-      <c r="AI56" s="20">
-        <v>132.78008298755185</v>
-      </c>
-      <c r="AJ56" s="20">
-        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <v>122.71875</v>
+      </c>
+      <c r="AE56">
+        <v>1.01901737407605</v>
+      </c>
+      <c r="AF56">
+        <v>289.125</v>
+      </c>
+      <c r="AG56">
+        <v>75.375</v>
+      </c>
+      <c r="AH56">
+        <v>6.28125</v>
+      </c>
+      <c r="AI56"/>
+      <c r="AJ56">
         <v>0</v>
       </c>
       <c r="AK56" s="20">
-        <v>8.4687999999999999</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="57" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -11745,7 +11734,7 @@
         <v>44.625</v>
       </c>
       <c r="AJ95" s="20">
-        <f t="shared" si="4"/>
+        <f>AR95</f>
         <v>0</v>
       </c>
       <c r="AK95" s="20">

--- a/Data/in/input.xlsx
+++ b/Data/in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C715345-D560-4D55-818D-5457DC198E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E004AC-1C48-4113-B5FC-B76E1205F0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +466,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -583,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,6 +623,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C04A2-646C-44CE-A1DE-AE1439B22FF5}">
   <dimension ref="A1:AK226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ55" sqref="AJ55"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="36" zoomScaleNormal="36" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,6 +985,7 @@
     <col min="29" max="29" width="8.6640625" customWidth="1"/>
     <col min="30" max="30" width="8.44140625" customWidth="1"/>
     <col min="31" max="31" width="11.6640625" customWidth="1"/>
+    <col min="36" max="36" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
@@ -1076,7 +1094,7 @@
       <c r="AI1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>132</v>
       </c>
       <c r="AK1" s="22" t="s">
@@ -1190,8 +1208,8 @@
       <c r="AI2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ2" s="20">
-        <f t="shared" ref="AJ2:AJ42" si="0">AR2</f>
+      <c r="AJ2" s="25">
+        <f>AR2</f>
         <v>0</v>
       </c>
       <c r="AK2" s="20">
@@ -1278,7 +1296,7 @@
         <v>8.4530557881700386</v>
       </c>
       <c r="AA3" s="20">
-        <f t="shared" ref="AA3:AA42" si="1">Z3/W3</f>
+        <f t="shared" ref="AA3:AA42" si="0">Z3/W3</f>
         <v>0.15276606846090438</v>
       </c>
       <c r="AB3" s="20">
@@ -1305,8 +1323,8 @@
       <c r="AI3" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ3" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ3" s="25">
+        <f>AR3</f>
         <v>0</v>
       </c>
       <c r="AK3" s="20">
@@ -1393,7 +1411,7 @@
         <v>18.502704801744766</v>
       </c>
       <c r="AA4" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1823300822179735</v>
       </c>
       <c r="AB4" s="20">
@@ -1420,8 +1438,8 @@
       <c r="AI4" s="20">
         <v>166.66666666666666</v>
       </c>
-      <c r="AJ4" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ4" s="25">
+        <f t="shared" ref="AJ2:AJ42" si="1">AR4</f>
         <v>0</v>
       </c>
       <c r="AK4" s="20">
@@ -1508,7 +1526,7 @@
         <v>12.331485237571696</v>
       </c>
       <c r="AA5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.6943491686756982E-2</v>
       </c>
       <c r="AB5" s="20">
@@ -1535,8 +1553,8 @@
       <c r="AI5" s="20">
         <v>194.44444444444449</v>
       </c>
-      <c r="AJ5" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ5" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK5" s="20">
@@ -1623,7 +1641,7 @@
         <v>18.313363399291511</v>
       </c>
       <c r="AA6" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.21995281950856807</v>
       </c>
       <c r="AB6" s="20">
@@ -1650,8 +1668,8 @@
       <c r="AI6" s="20">
         <v>279.99999999999989</v>
       </c>
-      <c r="AJ6" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ6" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK6" s="20">
@@ -1738,7 +1756,7 @@
         <v>10.037071322347067</v>
       </c>
       <c r="AA7" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.18823185132746989</v>
       </c>
       <c r="AB7" s="20">
@@ -1765,8 +1783,8 @@
       <c r="AI7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ7" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ7" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK7" s="20">
@@ -1853,7 +1871,7 @@
         <v>6.3066818393618282</v>
       </c>
       <c r="AA8" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.17896584587015527</v>
       </c>
       <c r="AB8" s="20">
@@ -1880,8 +1898,8 @@
       <c r="AI8" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ8" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ8" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK8" s="20">
@@ -1968,7 +1986,7 @@
         <v>5.8841057047478769</v>
       </c>
       <c r="AA9" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.15358187810108645</v>
       </c>
       <c r="AB9" s="20">
@@ -1995,8 +2013,8 @@
       <c r="AI9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ9" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ9" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK9" s="20">
@@ -2083,7 +2101,7 @@
         <v>5.4336103451604716</v>
       </c>
       <c r="AA10" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.8727095277326973E-2</v>
       </c>
       <c r="AB10" s="20">
@@ -2110,8 +2128,8 @@
       <c r="AI10" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ10" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ10" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK10" s="20">
@@ -2198,7 +2216,7 @@
         <v>9.4418769171740955</v>
       </c>
       <c r="AA11" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.20861224028739087</v>
       </c>
       <c r="AB11" s="20">
@@ -2225,8 +2243,8 @@
       <c r="AI11" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ11" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ11" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK11" s="20">
@@ -2313,7 +2331,7 @@
         <v>13.35058441681451</v>
       </c>
       <c r="AA12" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14552697899559366</v>
       </c>
       <c r="AB12" s="20">
@@ -2340,8 +2358,8 @@
       <c r="AI12" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ12" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ12" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK12" s="20">
@@ -2428,7 +2446,7 @@
         <v>6.4766439588166538</v>
       </c>
       <c r="AA13" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.13869235334517033</v>
       </c>
       <c r="AB13" s="20">
@@ -2455,8 +2473,8 @@
       <c r="AI13" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ13" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ13" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK13" s="20">
@@ -2543,7 +2561,7 @@
         <v>8.9354521217411271</v>
       </c>
       <c r="AA14" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.18154569390204195</v>
       </c>
       <c r="AB14" s="20">
@@ -2570,8 +2588,8 @@
       <c r="AI14" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ14" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ14" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK14" s="20">
@@ -2658,7 +2676,7 @@
         <v>8.7728601514356939</v>
       </c>
       <c r="AA15" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.8586786003768472E-2</v>
       </c>
       <c r="AB15" s="20">
@@ -2682,8 +2700,8 @@
       <c r="AI15" s="20">
         <v>380.95238095238113</v>
       </c>
-      <c r="AJ15" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ15" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK15" s="20">
@@ -2770,7 +2788,7 @@
         <v>252.5</v>
       </c>
       <c r="AA16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7579929457276142</v>
       </c>
       <c r="AB16" s="20">
@@ -2797,8 +2815,8 @@
       <c r="AI16" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ16" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ16" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK16" s="20">
@@ -2885,7 +2903,7 @@
         <v>230.5</v>
       </c>
       <c r="AA17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.3852518861036742</v>
       </c>
       <c r="AB17" s="20">
@@ -2912,8 +2930,8 @@
       <c r="AI17" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ17" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ17" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK17" s="20">
@@ -3000,7 +3018,7 @@
         <v>194.75</v>
       </c>
       <c r="AA18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.2834865270876907</v>
       </c>
       <c r="AB18" s="20">
@@ -3027,8 +3045,8 @@
       <c r="AI18" s="20">
         <v>101.24209046168268</v>
       </c>
-      <c r="AJ18" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ18" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK18" s="20">
@@ -3115,7 +3133,7 @@
         <v>254.875</v>
       </c>
       <c r="AA19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.0727112897149307</v>
       </c>
       <c r="AB19" s="20">
@@ -3142,8 +3160,8 @@
       <c r="AI19" s="20">
         <v>285.71428571428572</v>
       </c>
-      <c r="AJ19" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ19" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK19" s="20">
@@ -3230,7 +3248,7 @@
         <v>336.625</v>
       </c>
       <c r="AA20" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5535044707239691</v>
       </c>
       <c r="AB20" s="20">
@@ -3257,8 +3275,8 @@
       <c r="AI20" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ20" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ20" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK20" s="20">
@@ -3345,7 +3363,7 @@
         <v>14.646374585343297</v>
       </c>
       <c r="AA21" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.11630837622573882</v>
       </c>
       <c r="AB21" s="20">
@@ -3372,8 +3390,8 @@
       <c r="AI21" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ21" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ21" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK21" s="20">
@@ -3460,7 +3478,7 @@
         <v>15.846470991601771</v>
       </c>
       <c r="AA22" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.0327826507964042E-2</v>
       </c>
       <c r="AB22" s="20">
@@ -3484,8 +3502,8 @@
       <c r="AI22" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ22" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ22" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK22" s="20">
@@ -3572,7 +3590,7 @@
         <v>9.7690896295280716</v>
       </c>
       <c r="AA23" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.18224496782640789</v>
       </c>
       <c r="AB23" s="20">
@@ -3599,8 +3617,8 @@
       <c r="AI23" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ23" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ23" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK23" s="20">
@@ -3687,7 +3705,7 @@
         <v>15.283914708000804</v>
       </c>
       <c r="AA24" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.11173132896497698</v>
       </c>
       <c r="AB24" s="20">
@@ -3711,8 +3729,8 @@
       <c r="AI24" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ24" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ24" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK24" s="20">
@@ -3799,7 +3817,7 @@
         <v>10.984653827277706</v>
       </c>
       <c r="AA25" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.7939894118156688E-2</v>
       </c>
       <c r="AB25" s="20">
@@ -3826,8 +3844,8 @@
       <c r="AI25" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ25" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ25" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK25" s="20">
@@ -3914,7 +3932,7 @@
         <v>11.070907176708921</v>
       </c>
       <c r="AA26" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.22883406221714142</v>
       </c>
       <c r="AB26" s="20">
@@ -3941,8 +3959,8 @@
       <c r="AI26" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ26" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ26" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK26" s="20">
@@ -4029,7 +4047,7 @@
         <v>8.472139550423444</v>
       </c>
       <c r="AA27" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.13731646071933995</v>
       </c>
       <c r="AB27" s="20">
@@ -4056,8 +4074,8 @@
       <c r="AI27" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ27" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ27" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK27" s="20">
@@ -4144,7 +4162,7 @@
         <v>8.9723014993320565</v>
       </c>
       <c r="AA28" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.10871399014715098</v>
       </c>
       <c r="AB28" s="20">
@@ -4171,8 +4189,8 @@
       <c r="AI28" s="20">
         <v>135.59322033898306</v>
       </c>
-      <c r="AJ28" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ28" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK28" s="20">
@@ -4259,7 +4277,7 @@
         <v>18.123586663367671</v>
       </c>
       <c r="AA29" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.13192783740395031</v>
       </c>
       <c r="AB29" s="20">
@@ -4286,8 +4304,8 @@
       <c r="AI29" s="20">
         <v>161.61616161616163</v>
       </c>
-      <c r="AJ29" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ29" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK29" s="20">
@@ -4374,7 +4392,7 @@
         <v>22.270761488773481</v>
       </c>
       <c r="AA30" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.193151423156767</v>
       </c>
       <c r="AB30" s="20">
@@ -4401,8 +4419,8 @@
       <c r="AI30" s="20">
         <v>170.21276595744681</v>
       </c>
-      <c r="AJ30" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ30" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK30" s="20">
@@ -4489,7 +4507,7 @@
         <v>9.7402063809354722</v>
       </c>
       <c r="AA31" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.13417417313385066</v>
       </c>
       <c r="AB31" s="20">
@@ -4516,8 +4534,8 @@
       <c r="AI31" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ31" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ31" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK31" s="20">
@@ -4604,7 +4622,7 @@
         <v>8.0020523327682387</v>
       </c>
       <c r="AA32" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.3147688435131489E-2</v>
       </c>
       <c r="AB32" s="20">
@@ -4631,8 +4649,8 @@
       <c r="AI32" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ32" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ32" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK32" s="20">
@@ -4719,7 +4737,7 @@
         <v>13.528005888726055</v>
       </c>
       <c r="AA33" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14050509199585645</v>
       </c>
       <c r="AB33" s="20">
@@ -4746,8 +4764,8 @@
       <c r="AI33" s="20">
         <v>141.59292035398232</v>
       </c>
-      <c r="AJ33" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ33" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK33" s="20">
@@ -4834,7 +4852,7 @@
         <v>9.2513802249795898</v>
       </c>
       <c r="AA34" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6609640816326513E-2</v>
       </c>
       <c r="AB34" s="20">
@@ -4861,8 +4879,8 @@
       <c r="AI34" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ34" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ34" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK34" s="20">
@@ -4949,7 +4967,7 @@
         <v>8.4427719079353203</v>
       </c>
       <c r="AA35" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.14049334428181501</v>
       </c>
       <c r="AB35" s="20">
@@ -4976,8 +4994,8 @@
       <c r="AI35" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ35" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ35" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK35" s="20">
@@ -5064,7 +5082,7 @@
         <v>9.1532110522193051</v>
       </c>
       <c r="AA36" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.13072125275409899</v>
       </c>
       <c r="AB36" s="20">
@@ -5091,8 +5109,8 @@
       <c r="AI36" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ36" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ36" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK36" s="20">
@@ -5179,7 +5197,7 @@
         <v>17.449339054743053</v>
       </c>
       <c r="AA37" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.10671018914863888</v>
       </c>
       <c r="AB37" s="20">
@@ -5206,8 +5224,8 @@
       <c r="AI37" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ37" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ37" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK37" s="20">
@@ -5294,7 +5312,7 @@
         <v>7.1491951805600724</v>
       </c>
       <c r="AA38" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16617983954812762</v>
       </c>
       <c r="AB38" s="20">
@@ -5321,8 +5339,8 @@
       <c r="AI38" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ38" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ38" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK38" s="20">
@@ -5409,7 +5427,7 @@
         <v>9.2002730966990747</v>
       </c>
       <c r="AA39" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.13776730888833433</v>
       </c>
       <c r="AB39" s="20">
@@ -5436,8 +5454,8 @@
       <c r="AI39" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ39" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ39" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK39" s="20">
@@ -5524,7 +5542,7 @@
         <v>8.2013499802586711</v>
       </c>
       <c r="AA40" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.13598093231516972</v>
       </c>
       <c r="AB40" s="20">
@@ -5551,8 +5569,8 @@
       <c r="AI40" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ40" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ40" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK40" s="20">
@@ -5639,7 +5657,7 @@
         <v>20.359104055409716</v>
       </c>
       <c r="AA41" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.16796785745267559</v>
       </c>
       <c r="AB41" s="20">
@@ -5666,8 +5684,8 @@
       <c r="AI41" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ41" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ41" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK41" s="20">
@@ -5754,7 +5772,7 @@
         <v>7.6366382766488696</v>
       </c>
       <c r="AA42" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.12776529706488174</v>
       </c>
       <c r="AB42" s="20">
@@ -5781,8 +5799,8 @@
       <c r="AI42" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AJ42" s="20">
-        <f t="shared" si="0"/>
+      <c r="AJ42" s="25">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK42" s="20">
@@ -5896,7 +5914,7 @@
       <c r="AI43" s="20">
         <v>108.84353741496597</v>
       </c>
-      <c r="AJ43" s="20">
+      <c r="AJ43" s="25">
         <f t="shared" ref="AJ43:AJ64" si="3">AR43</f>
         <v>0</v>
       </c>
@@ -6011,7 +6029,7 @@
       <c r="AI44" s="20">
         <v>372.09302325581399</v>
       </c>
-      <c r="AJ44" s="20">
+      <c r="AJ44" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6123,7 +6141,7 @@
       <c r="AH45" s="20">
         <v>2.78125</v>
       </c>
-      <c r="AJ45" s="20">
+      <c r="AJ45" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6235,7 +6253,7 @@
       <c r="AH46" s="20">
         <v>5.875</v>
       </c>
-      <c r="AJ46" s="20">
+      <c r="AJ46" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6347,7 +6365,7 @@
       <c r="AH47" s="20">
         <v>9</v>
       </c>
-      <c r="AJ47" s="20">
+      <c r="AJ47" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6459,7 +6477,7 @@
       <c r="AI48" s="20">
         <v>155.33980582524271</v>
       </c>
-      <c r="AJ48" s="20">
+      <c r="AJ48" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6571,7 +6589,7 @@
       <c r="AI49" s="20">
         <v>235.29411764705887</v>
       </c>
-      <c r="AJ49" s="20">
+      <c r="AJ49" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6683,7 +6701,7 @@
       <c r="AH50" s="20">
         <v>0.53125</v>
       </c>
-      <c r="AJ50" s="20">
+      <c r="AJ50" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6795,7 +6813,7 @@
       <c r="AH51" s="20">
         <v>9.15625</v>
       </c>
-      <c r="AJ51" s="20">
+      <c r="AJ51" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6907,7 +6925,7 @@
       <c r="AH52" s="20">
         <v>4.09375</v>
       </c>
-      <c r="AJ52" s="20">
+      <c r="AJ52" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7016,7 +7034,7 @@
       <c r="AG53" s="20">
         <v>86</v>
       </c>
-      <c r="AJ53" s="20">
+      <c r="AJ53" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7026,7 +7044,7 @@
     </row>
     <row r="54" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B54" s="20">
         <v>150519</v>
@@ -7129,7 +7147,7 @@
         <v>2.59375</v>
       </c>
       <c r="AI54"/>
-      <c r="AJ54">
+      <c r="AJ54" s="26">
         <v>0</v>
       </c>
       <c r="AK54" s="20">
@@ -7241,7 +7259,7 @@
         <v>5.25</v>
       </c>
       <c r="AI55"/>
-      <c r="AJ55">
+      <c r="AJ55" s="26">
         <v>0</v>
       </c>
       <c r="AK55" s="20">
@@ -7250,7 +7268,7 @@
     </row>
     <row r="56" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B56" s="20">
         <v>150519</v>
@@ -7351,7 +7369,7 @@
         <v>6.28125</v>
       </c>
       <c r="AI56"/>
-      <c r="AJ56">
+      <c r="AJ56" s="26">
         <v>0</v>
       </c>
       <c r="AK56" s="20">
@@ -7462,7 +7480,7 @@
       <c r="AH57" s="20">
         <v>0.3125</v>
       </c>
-      <c r="AJ57" s="20">
+      <c r="AJ57" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7574,7 +7592,7 @@
       <c r="AH58" s="20">
         <v>5.21875</v>
       </c>
-      <c r="AJ58" s="20">
+      <c r="AJ58" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7686,7 +7704,7 @@
       <c r="AH59" s="20">
         <v>0.53125</v>
       </c>
-      <c r="AJ59" s="20">
+      <c r="AJ59" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7798,7 +7816,7 @@
       <c r="AH60" s="20">
         <v>6.625</v>
       </c>
-      <c r="AJ60" s="20">
+      <c r="AJ60" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7910,7 +7928,7 @@
       <c r="AH61" s="20">
         <v>7.9375</v>
       </c>
-      <c r="AJ61" s="20">
+      <c r="AJ61" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8022,7 +8040,7 @@
       <c r="AH62" s="20">
         <v>4.28125</v>
       </c>
-      <c r="AJ62" s="20">
+      <c r="AJ62" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8137,7 +8155,7 @@
       <c r="AI63" s="20">
         <v>219.17808219178079</v>
       </c>
-      <c r="AJ63" s="20">
+      <c r="AJ63" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8252,7 +8270,7 @@
       <c r="AI64" s="20">
         <v>301.88679245283015</v>
       </c>
-      <c r="AJ64" s="20">
+      <c r="AJ64" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8367,7 +8385,7 @@
       <c r="AI65" s="20">
         <v>186.04651162790697</v>
       </c>
-      <c r="AJ65" s="20">
+      <c r="AJ65" s="25">
         <f t="shared" ref="AJ65:AJ128" si="4">AR65</f>
         <v>0</v>
       </c>
@@ -8476,7 +8494,7 @@
       <c r="AG66" s="20">
         <v>108.125</v>
       </c>
-      <c r="AJ66" s="20">
+      <c r="AJ66" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8591,7 +8609,7 @@
       <c r="AI67" s="20">
         <v>271.18644067796612</v>
       </c>
-      <c r="AJ67" s="20">
+      <c r="AJ67" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8703,7 +8721,7 @@
       <c r="AH68" s="20">
         <v>4.40625</v>
       </c>
-      <c r="AJ68" s="20">
+      <c r="AJ68" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8815,7 +8833,7 @@
       <c r="AI69" s="20">
         <v>226.41509433962267</v>
       </c>
-      <c r="AJ69" s="20">
+      <c r="AJ69" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -8924,7 +8942,7 @@
       <c r="AG70" s="20">
         <v>118.75</v>
       </c>
-      <c r="AJ70" s="20">
+      <c r="AJ70" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9036,7 +9054,7 @@
       <c r="AH71" s="20">
         <v>1.4375</v>
       </c>
-      <c r="AJ71" s="20">
+      <c r="AJ71" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9044,227 +9062,227 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="72" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
+    <row r="72" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="18">
         <v>300519</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="18">
         <v>2</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="E72" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F72" s="18">
         <v>589.42399999999998</v>
       </c>
-      <c r="G72" s="20">
+      <c r="G72" s="18">
         <v>424.30200000000002</v>
       </c>
-      <c r="H72" s="20">
+      <c r="H72" s="18">
         <v>15.294</v>
       </c>
-      <c r="I72" s="20">
+      <c r="I72" s="18">
         <v>49.006999999999998</v>
       </c>
-      <c r="J72" s="20">
+      <c r="J72" s="18">
         <v>129.066</v>
       </c>
-      <c r="K72" s="20">
+      <c r="K72" s="18">
         <v>2.3410000000000002</v>
       </c>
-      <c r="L72" s="20">
+      <c r="L72" s="18">
         <v>10.986000000000001</v>
       </c>
-      <c r="M72" s="20">
+      <c r="M72" s="18">
         <v>73.418999999999997</v>
       </c>
-      <c r="N72" s="20">
+      <c r="N72" s="18">
         <v>39.033000000000001</v>
       </c>
-      <c r="O72" s="20">
+      <c r="O72" s="18">
         <v>3</v>
       </c>
-      <c r="P72" s="20">
+      <c r="P72" s="18">
         <v>84.855999999999995</v>
       </c>
-      <c r="Q72" s="20">
+      <c r="Q72" s="18">
         <v>119.70099999999999</v>
       </c>
-      <c r="R72" s="20">
+      <c r="R72" s="18">
         <v>24.33</v>
       </c>
-      <c r="S72" s="20">
+      <c r="S72" s="18">
         <v>6</v>
       </c>
-      <c r="T72" s="23" t="s">
+      <c r="T72" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="U72" s="20">
-        <v>1.0645098230866974</v>
-      </c>
-      <c r="V72" s="20">
+      <c r="U72" s="18">
+        <v>1.0627376425855513</v>
+      </c>
+      <c r="V72" s="18">
         <v>2.0625</v>
       </c>
-      <c r="W72" s="20">
+      <c r="W72" s="18">
         <v>106.57291666666664</v>
       </c>
-      <c r="X72" s="20">
+      <c r="X72" s="18">
         <v>-73.278125000000003</v>
       </c>
-      <c r="Y72" s="20">
+      <c r="Y72" s="18">
         <v>107.69911634216403</v>
       </c>
-      <c r="Z72" s="20">
+      <c r="Z72" s="18">
         <v>9.0751245315016611</v>
       </c>
-      <c r="AA72" s="20">
+      <c r="AA72" s="18">
         <f t="shared" si="5"/>
         <v>8.5154134984279123E-2</v>
       </c>
-      <c r="AB72" s="20">
+      <c r="AB72" s="18">
         <v>0.83684794672586016</v>
       </c>
-      <c r="AC72" s="20">
+      <c r="AC72" s="18">
         <v>11</v>
       </c>
-      <c r="AD72" s="20">
+      <c r="AD72" s="18">
         <v>120.37187499999999</v>
       </c>
-      <c r="AE72" s="20">
+      <c r="AE72" s="18">
         <v>0.74697572683325397</v>
       </c>
-      <c r="AF72" s="20">
+      <c r="AF72" s="18">
         <v>304.75</v>
       </c>
-      <c r="AG72" s="20">
+      <c r="AG72" s="18">
         <v>118.75</v>
       </c>
-      <c r="AH72" s="20">
+      <c r="AH72" s="18">
         <v>13.28125</v>
       </c>
-      <c r="AJ72" s="20">
+      <c r="AJ72" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK72" s="20">
+      <c r="AK72" s="18">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="73" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="20" t="s">
+    <row r="73" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="18">
         <v>300519</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D73" s="20">
+      <c r="D73" s="18">
         <v>2</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="18">
         <v>593.97900000000004</v>
       </c>
-      <c r="G73" s="20">
+      <c r="G73" s="18">
         <v>437.91899999999998</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H73" s="18">
         <v>25.027999999999999</v>
       </c>
-      <c r="I73" s="20">
+      <c r="I73" s="18">
         <v>45.125999999999998</v>
       </c>
-      <c r="J73" s="20">
+      <c r="J73" s="18">
         <v>118.74</v>
       </c>
-      <c r="K73" s="20">
+      <c r="K73" s="18">
         <v>2.7650000000000001</v>
       </c>
-      <c r="L73" s="20">
+      <c r="L73" s="18">
         <v>8.6419999999999995</v>
       </c>
-      <c r="M73" s="20">
+      <c r="M73" s="18">
         <v>106.04</v>
       </c>
-      <c r="N73" s="20">
+      <c r="N73" s="18">
         <v>50.476999999999997</v>
       </c>
-      <c r="O73" s="20">
+      <c r="O73" s="18">
         <v>4</v>
       </c>
-      <c r="P73" s="20">
+      <c r="P73" s="18">
         <v>162.13399999999999</v>
       </c>
-      <c r="Q73" s="20">
+      <c r="Q73" s="18">
         <v>68.161000000000001</v>
       </c>
-      <c r="R73" s="20">
+      <c r="R73" s="18">
         <v>12</v>
       </c>
-      <c r="S73" s="20">
+      <c r="S73" s="18">
         <v>3</v>
       </c>
-      <c r="T73" s="20">
+      <c r="T73" s="18">
         <v>10</v>
       </c>
-      <c r="U73" s="20">
-        <v>1.0645098230866974</v>
-      </c>
-      <c r="V73" s="20">
-        <v>2.0625</v>
-      </c>
-      <c r="W73" s="20">
-        <v>106.57291666666664</v>
-      </c>
-      <c r="X73" s="20">
-        <v>-73.278125000000003</v>
-      </c>
-      <c r="Y73" s="20">
-        <v>107.69911634216403</v>
-      </c>
-      <c r="Z73" s="20">
+      <c r="U73" s="18">
+        <v>1.0853080568720379</v>
+      </c>
+      <c r="V73" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="W73" s="18">
+        <v>86.177083333333343</v>
+      </c>
+      <c r="X73" s="18">
+        <v>-71.428124999999994</v>
+      </c>
+      <c r="Y73" s="18">
+        <v>109.20724577142296</v>
+      </c>
+      <c r="Z73" s="18">
         <v>10.181405083293999</v>
       </c>
-      <c r="AA73" s="20">
+      <c r="AA73" s="18">
         <f t="shared" si="5"/>
-        <v>9.5534638646879499E-2</v>
-      </c>
-      <c r="AB73" s="20">
+        <v>0.11814515749984573</v>
+      </c>
+      <c r="AB73" s="18">
         <v>0.23994252873563218</v>
       </c>
-      <c r="AC73" s="20">
+      <c r="AC73" s="18">
         <v>9</v>
       </c>
-      <c r="AD73" s="20">
-        <v>120.37187499999999</v>
-      </c>
-      <c r="AE73" s="20">
-        <v>0.74697572683325397</v>
-      </c>
-      <c r="AF73" s="20">
+      <c r="AD73" s="18">
+        <v>116.17812499999999</v>
+      </c>
+      <c r="AE73" s="18">
+        <v>0.7936542235960502</v>
+      </c>
+      <c r="AF73" s="18">
         <v>303.625</v>
       </c>
-      <c r="AG73" s="20">
+      <c r="AG73" s="18">
         <v>104.75</v>
       </c>
-      <c r="AI73" s="20">
+      <c r="AI73" s="18">
         <v>340.42553191489372</v>
       </c>
-      <c r="AJ73" s="20">
+      <c r="AJ73" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK73" s="20">
+      <c r="AK73" s="18">
         <v>2.4062000000000001</v>
       </c>
     </row>
@@ -9375,7 +9393,7 @@
       <c r="AI74" s="20">
         <v>363.63636363636368</v>
       </c>
-      <c r="AJ74" s="20">
+      <c r="AJ74" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9385,7 +9403,7 @@
     </row>
     <row r="75" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B75" s="20">
         <v>250320</v>
@@ -9487,7 +9505,7 @@
       <c r="AH75" s="20">
         <v>5.125</v>
       </c>
-      <c r="AJ75" s="20">
+      <c r="AJ75" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9497,7 +9515,7 @@
     </row>
     <row r="76" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" s="20">
         <v>250320</v>
@@ -9602,7 +9620,7 @@
       <c r="AI76" s="20">
         <v>246.15384615384613</v>
       </c>
-      <c r="AJ76" s="20">
+      <c r="AJ76" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9714,7 +9732,7 @@
       <c r="AH77" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="AJ77" s="20">
+      <c r="AJ77" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9826,7 +9844,7 @@
       <c r="AH78" s="20">
         <v>1.96875</v>
       </c>
-      <c r="AJ78" s="20">
+      <c r="AJ78" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9941,7 +9959,7 @@
       <c r="AI79" s="20">
         <v>296.29629629629625</v>
       </c>
-      <c r="AJ79" s="20">
+      <c r="AJ79" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10053,7 +10071,7 @@
       <c r="AH80" s="20">
         <v>2.53125</v>
       </c>
-      <c r="AJ80" s="20">
+      <c r="AJ80" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10165,7 +10183,7 @@
       <c r="AH81" s="20">
         <v>2.9375</v>
       </c>
-      <c r="AJ81" s="20">
+      <c r="AJ81" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10277,7 +10295,7 @@
       <c r="AH82" s="20">
         <v>4.625</v>
       </c>
-      <c r="AJ82" s="20">
+      <c r="AJ82" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10389,7 +10407,7 @@
       <c r="AH83" s="20">
         <v>2.8125</v>
       </c>
-      <c r="AJ83" s="20">
+      <c r="AJ83" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10501,7 +10519,7 @@
       <c r="AH84" s="20">
         <v>8.0625</v>
       </c>
-      <c r="AJ84" s="20">
+      <c r="AJ84" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10613,7 +10631,7 @@
       <c r="AI85" s="20">
         <v>216.21621621621603</v>
       </c>
-      <c r="AJ85" s="20">
+      <c r="AJ85" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10725,7 +10743,7 @@
       <c r="AH86" s="20">
         <v>2.71875</v>
       </c>
-      <c r="AJ86" s="20">
+      <c r="AJ86" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10837,7 +10855,7 @@
       <c r="AH87" s="20">
         <v>6.375</v>
       </c>
-      <c r="AJ87" s="20">
+      <c r="AJ87" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -10949,7 +10967,7 @@
       <c r="AH88" s="20">
         <v>14.53125</v>
       </c>
-      <c r="AJ88" s="20">
+      <c r="AJ88" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11061,7 +11079,7 @@
       <c r="AH89" s="20">
         <v>3.4375</v>
       </c>
-      <c r="AJ89" s="20">
+      <c r="AJ89" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11173,7 +11191,7 @@
       <c r="AH90" s="20">
         <v>1.78125</v>
       </c>
-      <c r="AJ90" s="20">
+      <c r="AJ90" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11285,7 +11303,7 @@
       <c r="AH91" s="20">
         <v>2.78125</v>
       </c>
-      <c r="AJ91" s="20">
+      <c r="AJ91" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11397,7 +11415,7 @@
       <c r="AH92" s="20">
         <v>10.90625</v>
       </c>
-      <c r="AJ92" s="20">
+      <c r="AJ92" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11512,7 +11530,7 @@
       <c r="AI93" s="20">
         <v>177.77777777777777</v>
       </c>
-      <c r="AJ93" s="20">
+      <c r="AJ93" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11624,7 +11642,7 @@
       <c r="AH94" s="20">
         <v>6.28125</v>
       </c>
-      <c r="AJ94" s="20">
+      <c r="AJ94" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11733,7 +11751,7 @@
       <c r="AG95" s="20">
         <v>44.625</v>
       </c>
-      <c r="AJ95" s="20">
+      <c r="AJ95" s="25">
         <f>AR95</f>
         <v>0</v>
       </c>
@@ -11845,7 +11863,7 @@
       <c r="AH96" s="20">
         <v>4.96875</v>
       </c>
-      <c r="AJ96" s="20">
+      <c r="AJ96" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -11957,7 +11975,7 @@
       <c r="AH97" s="20">
         <v>6.90625</v>
       </c>
-      <c r="AJ97" s="20">
+      <c r="AJ97" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12069,7 +12087,7 @@
       <c r="AH98" s="20">
         <v>4.28125</v>
       </c>
-      <c r="AJ98" s="20">
+      <c r="AJ98" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12184,7 +12202,7 @@
       <c r="AI99" s="20">
         <v>125.49019607843137</v>
       </c>
-      <c r="AJ99" s="20">
+      <c r="AJ99" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12296,7 +12314,7 @@
       <c r="AH100" s="20">
         <v>1.96875</v>
       </c>
-      <c r="AJ100" s="20">
+      <c r="AJ100" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12411,7 +12429,7 @@
       <c r="AI101" s="20">
         <v>142.85714285714286</v>
       </c>
-      <c r="AJ101" s="20">
+      <c r="AJ101" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12523,7 +12541,7 @@
       <c r="AH102" s="20">
         <v>8.875</v>
       </c>
-      <c r="AJ102" s="20">
+      <c r="AJ102" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12638,7 +12656,7 @@
       <c r="AI103" s="20">
         <v>146.78899082568807</v>
       </c>
-      <c r="AJ103" s="20">
+      <c r="AJ103" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12750,7 +12768,7 @@
       <c r="AH104" s="20">
         <v>7.15625</v>
       </c>
-      <c r="AJ104" s="20">
+      <c r="AJ104" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12862,7 +12880,7 @@
       <c r="AI105" s="20">
         <v>140.35087719298247</v>
       </c>
-      <c r="AJ105" s="20">
+      <c r="AJ105" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12974,7 +12992,7 @@
       <c r="AH106" s="20">
         <v>4.6875</v>
       </c>
-      <c r="AJ106" s="20">
+      <c r="AJ106" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13086,7 +13104,7 @@
       <c r="AH107" s="20">
         <v>2.84375</v>
       </c>
-      <c r="AJ107" s="20">
+      <c r="AJ107" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13198,7 +13216,7 @@
       <c r="AH108" s="20">
         <v>1.53125</v>
       </c>
-      <c r="AJ108" s="20">
+      <c r="AJ108" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13310,7 +13328,7 @@
       <c r="AH109" s="20">
         <v>3.34375</v>
       </c>
-      <c r="AJ109" s="20">
+      <c r="AJ109" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13422,7 +13440,7 @@
       <c r="AH110" s="20">
         <v>7</v>
       </c>
-      <c r="AJ110" s="20">
+      <c r="AJ110" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13537,7 +13555,7 @@
       <c r="AI111" s="20">
         <v>158.41584158415841</v>
       </c>
-      <c r="AJ111" s="20">
+      <c r="AJ111" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13652,7 +13670,7 @@
       <c r="AI112" s="20">
         <v>175.82417582417582</v>
       </c>
-      <c r="AJ112" s="20">
+      <c r="AJ112" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13764,7 +13782,7 @@
       <c r="AH113" s="20">
         <v>4.6875</v>
       </c>
-      <c r="AJ113" s="20">
+      <c r="AJ113" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13876,7 +13894,7 @@
       <c r="AH114" s="20">
         <v>2.21875</v>
       </c>
-      <c r="AJ114" s="20">
+      <c r="AJ114" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -13988,7 +14006,7 @@
       <c r="AH115" s="20">
         <v>7.59375</v>
       </c>
-      <c r="AJ115" s="20">
+      <c r="AJ115" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14097,7 +14115,7 @@
       <c r="AG116" s="20">
         <v>79.375</v>
       </c>
-      <c r="AJ116" s="20">
+      <c r="AJ116" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14209,7 +14227,7 @@
       <c r="AH117" s="20">
         <v>5.40625</v>
       </c>
-      <c r="AJ117" s="20">
+      <c r="AJ117" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14321,7 +14339,7 @@
       <c r="AH118">
         <v>3.3125</v>
       </c>
-      <c r="AJ118">
+      <c r="AJ118" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14433,7 +14451,7 @@
       <c r="AI119" s="20">
         <v>222.2222222222222</v>
       </c>
-      <c r="AJ119" s="20">
+      <c r="AJ119" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14545,7 +14563,7 @@
       <c r="AH120" s="20">
         <v>2.125</v>
       </c>
-      <c r="AJ120" s="20">
+      <c r="AJ120" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14657,7 +14675,7 @@
       <c r="AH121" s="20">
         <v>6.21875</v>
       </c>
-      <c r="AJ121" s="20">
+      <c r="AJ121" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14769,7 +14787,7 @@
       <c r="AH122" s="20">
         <v>5.59375</v>
       </c>
-      <c r="AJ122" s="20">
+      <c r="AJ122" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14881,7 +14899,7 @@
       <c r="AH123" s="20">
         <v>2.5</v>
       </c>
-      <c r="AJ123" s="20">
+      <c r="AJ123" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14993,7 +15011,7 @@
       <c r="AH124" s="20">
         <v>3.84375</v>
       </c>
-      <c r="AJ124" s="20">
+      <c r="AJ124" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -15105,7 +15123,7 @@
       <c r="AH125" s="20">
         <v>2.90625</v>
       </c>
-      <c r="AJ125" s="20">
+      <c r="AJ125" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -15220,7 +15238,7 @@
       <c r="AI126" s="20">
         <v>216.21621621621622</v>
       </c>
-      <c r="AJ126" s="20">
+      <c r="AJ126" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -15332,7 +15350,7 @@
       <c r="AH127" s="20">
         <v>2.96875</v>
       </c>
-      <c r="AJ127" s="20">
+      <c r="AJ127" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -15447,7 +15465,7 @@
       <c r="AI128" s="20">
         <v>271.18644067796612</v>
       </c>
-      <c r="AJ128" s="20">
+      <c r="AJ128" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -15562,7 +15580,7 @@
       <c r="AI129" s="20">
         <v>307.69230769230768</v>
       </c>
-      <c r="AJ129" s="20">
+      <c r="AJ129" s="25">
         <f t="shared" ref="AJ129:AJ146" si="6">AR129</f>
         <v>0</v>
       </c>
@@ -15674,7 +15692,7 @@
       <c r="AH130" s="20">
         <v>1.5</v>
       </c>
-      <c r="AJ130" s="20">
+      <c r="AJ130" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -15786,7 +15804,7 @@
       <c r="AH131" s="20">
         <v>2.1875</v>
       </c>
-      <c r="AJ131" s="20">
+      <c r="AJ131" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -15898,7 +15916,7 @@
       <c r="AH132" s="20">
         <v>4.90625</v>
       </c>
-      <c r="AJ132" s="20">
+      <c r="AJ132" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -16013,7 +16031,7 @@
       <c r="AI133" s="20">
         <v>155.33980582524271</v>
       </c>
-      <c r="AJ133" s="20">
+      <c r="AJ133" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -16125,7 +16143,7 @@
       <c r="AI134" s="20">
         <v>280.70175438596493</v>
       </c>
-      <c r="AJ134" s="20">
+      <c r="AJ134" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -16237,7 +16255,7 @@
       <c r="AH135" s="20">
         <v>0.4375</v>
       </c>
-      <c r="AJ135" s="20">
+      <c r="AJ135" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -16306,13 +16324,13 @@
       <c r="T136" s="20">
         <v>4</v>
       </c>
-      <c r="U136" s="20">
-        <v>1.2374411302982733</v>
-      </c>
-      <c r="V136" s="20">
+      <c r="U136" s="18">
+        <v>1.2296015180265654</v>
+      </c>
+      <c r="V136" s="18">
         <v>3.78125</v>
       </c>
-      <c r="W136" s="20">
+      <c r="W136" s="18">
         <v>53.083333333333321</v>
       </c>
       <c r="X136" s="20">
@@ -16346,10 +16364,10 @@
       <c r="AG136" s="20">
         <v>83.875</v>
       </c>
-      <c r="AH136" s="20">
+      <c r="AH136" s="18">
         <v>3.0625</v>
       </c>
-      <c r="AJ136" s="20">
+      <c r="AJ136" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -16418,10 +16436,10 @@
       <c r="T137" s="20">
         <v>8</v>
       </c>
-      <c r="U137" s="20">
-        <v>1.2324054621848739</v>
-      </c>
-      <c r="V137" s="20">
+      <c r="U137" s="18">
+        <v>1.2283870967741934</v>
+      </c>
+      <c r="V137" s="18">
         <v>5.53125</v>
       </c>
       <c r="W137" s="20">
@@ -16430,7 +16448,7 @@
       <c r="X137" s="20">
         <v>-68.856250000000003</v>
       </c>
-      <c r="Y137" s="20">
+      <c r="Y137" s="18">
         <v>47.787935744005573</v>
       </c>
       <c r="Z137" s="20">
@@ -16464,7 +16482,7 @@
       <c r="AI137" s="20">
         <v>301.88679245283021</v>
       </c>
-      <c r="AJ137" s="20">
+      <c r="AJ137" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -16533,27 +16551,27 @@
       <c r="T138" s="20">
         <v>5</v>
       </c>
-      <c r="U138" s="20">
-        <v>1.2324054621848739</v>
-      </c>
-      <c r="V138" s="20">
-        <v>5.53125</v>
-      </c>
-      <c r="W138" s="20">
-        <v>79.333333333333314</v>
+      <c r="U138" s="18">
+        <v>1.1887005649717515</v>
+      </c>
+      <c r="V138" s="18">
+        <v>5.21875</v>
+      </c>
+      <c r="W138" s="18">
+        <v>85.3333333333333</v>
       </c>
       <c r="X138" s="20">
         <v>-68.856250000000003</v>
       </c>
-      <c r="Y138" s="20">
-        <v>47.787935744005573</v>
-      </c>
-      <c r="Z138" s="20">
-        <v>17.657442097802683</v>
+      <c r="Y138" s="18">
+        <v>110.9918131218333</v>
+      </c>
+      <c r="Z138" s="18">
+        <v>8.5164980120153153</v>
       </c>
       <c r="AA138" s="20">
         <f t="shared" si="7"/>
-        <v>0.22257279955213471</v>
+        <v>9.9802711078304518E-2</v>
       </c>
       <c r="AB138" s="20">
         <v>0.54178272980501396</v>
@@ -16576,7 +16594,7 @@
       <c r="AH138" s="20">
         <v>4.65625</v>
       </c>
-      <c r="AJ138" s="20">
+      <c r="AJ138" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -16691,7 +16709,7 @@
       <c r="AI139" s="20">
         <v>219.17808219178087</v>
       </c>
-      <c r="AJ139" s="20">
+      <c r="AJ139" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -16803,7 +16821,7 @@
       <c r="AH140" s="20">
         <v>2.4375</v>
       </c>
-      <c r="AJ140" s="20">
+      <c r="AJ140" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -16912,7 +16930,7 @@
       <c r="AG141" s="20">
         <v>60.25</v>
       </c>
-      <c r="AJ141" s="20">
+      <c r="AJ141" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -17009,13 +17027,19 @@
       <c r="AC142" s="20">
         <v>10</v>
       </c>
+      <c r="AD142">
+        <v>112.67500000000001</v>
+      </c>
+      <c r="AE142">
+        <v>0.79124185197973773</v>
+      </c>
       <c r="AF142">
         <v>290.5</v>
       </c>
       <c r="AG142">
         <v>105.625</v>
       </c>
-      <c r="AJ142" s="20">
+      <c r="AJ142" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -17127,7 +17151,7 @@
       <c r="AH143" s="20">
         <v>2.625</v>
       </c>
-      <c r="AJ143" s="20">
+      <c r="AJ143" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -17233,7 +17257,7 @@
       <c r="AG144">
         <v>58.25</v>
       </c>
-      <c r="AJ144" s="20">
+      <c r="AJ144" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -17345,7 +17369,7 @@
       <c r="AH145" s="20">
         <v>4.09375</v>
       </c>
-      <c r="AJ145" s="20">
+      <c r="AJ145" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -17457,7 +17481,7 @@
       <c r="AH146" s="20">
         <v>3.53125</v>
       </c>
-      <c r="AJ146" s="20">
+      <c r="AJ146" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -17571,7 +17595,7 @@
       <c r="AI147" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AJ147" s="1" t="s">
+      <c r="AJ147" s="24" t="s">
         <v>99</v>
       </c>
       <c r="AK147" s="1" t="s">
@@ -17637,7 +17661,7 @@
       <c r="AH148">
         <v>2.40625</v>
       </c>
-      <c r="AJ148" s="20">
+      <c r="AJ148" s="25">
         <v>11.666666666666668</v>
       </c>
       <c r="AK148" s="20">
@@ -17700,7 +17724,7 @@
       <c r="AH149" s="18">
         <v>2.75</v>
       </c>
-      <c r="AJ149" s="18">
+      <c r="AJ149" s="27">
         <v>21.666666666666668</v>
       </c>
       <c r="AK149" s="18">
@@ -17763,7 +17787,7 @@
       <c r="AH150" s="18">
         <v>3.21875</v>
       </c>
-      <c r="AJ150" s="18">
+      <c r="AJ150" s="27">
         <v>6.666666666666667</v>
       </c>
       <c r="AK150" s="18">
@@ -17826,7 +17850,7 @@
       <c r="AH151" s="18">
         <v>3.125</v>
       </c>
-      <c r="AJ151" s="18">
+      <c r="AJ151" s="27">
         <v>20</v>
       </c>
       <c r="AK151" s="18">
@@ -17889,7 +17913,7 @@
       <c r="AH152" s="18">
         <v>6.4375</v>
       </c>
-      <c r="AJ152" s="18">
+      <c r="AJ152" s="27">
         <v>13.333333333333334</v>
       </c>
       <c r="AK152" s="18">
@@ -17952,7 +17976,7 @@
       <c r="AH153" s="18">
         <v>3.21875</v>
       </c>
-      <c r="AJ153" s="18">
+      <c r="AJ153" s="27">
         <v>10</v>
       </c>
       <c r="AK153" s="18">
@@ -18016,7 +18040,7 @@
       <c r="AI154" s="18">
         <v>145.45454545454547</v>
       </c>
-      <c r="AJ154" s="18">
+      <c r="AJ154" s="27">
         <v>16.666666666666668</v>
       </c>
       <c r="AK154" s="18">
@@ -18082,7 +18106,7 @@
       <c r="AI155" s="18">
         <v>175.82417582417582</v>
       </c>
-      <c r="AJ155" s="18">
+      <c r="AJ155" s="27">
         <v>15</v>
       </c>
       <c r="AK155" s="18">
@@ -18145,7 +18169,7 @@
       <c r="AH156" s="18">
         <v>6.65625</v>
       </c>
-      <c r="AJ156" s="18">
+      <c r="AJ156" s="27">
         <v>10</v>
       </c>
       <c r="AK156" s="18">
@@ -18208,7 +18232,7 @@
       <c r="AI157" s="18">
         <v>172.6618705035971</v>
       </c>
-      <c r="AJ157" s="18">
+      <c r="AJ157" s="27">
         <v>33</v>
       </c>
       <c r="AK157" s="18">
@@ -18271,7 +18295,7 @@
       <c r="AH158">
         <v>4.21875</v>
       </c>
-      <c r="AJ158" s="18">
+      <c r="AJ158" s="27">
         <v>30</v>
       </c>
       <c r="AK158" s="18">
@@ -18337,7 +18361,7 @@
       <c r="AI159" s="18">
         <v>177.77777777777777</v>
       </c>
-      <c r="AJ159" s="18">
+      <c r="AJ159" s="27">
         <v>10</v>
       </c>
       <c r="AK159" s="18">
@@ -18400,7 +18424,7 @@
       <c r="AH160">
         <v>5.96875</v>
       </c>
-      <c r="AJ160">
+      <c r="AJ160" s="26">
         <v>11.666666666666668</v>
       </c>
       <c r="AK160" s="18">
@@ -18470,7 +18494,7 @@
       <c r="AI162">
         <v>160</v>
       </c>
-      <c r="AJ162">
+      <c r="AJ162" s="26">
         <v>21.666666666666668</v>
       </c>
       <c r="AK162" s="18">
@@ -18533,7 +18557,7 @@
       <c r="AH163">
         <v>11.5625</v>
       </c>
-      <c r="AJ163">
+      <c r="AJ163" s="26">
         <v>11.666666666666668</v>
       </c>
       <c r="AK163" s="18">
@@ -18599,7 +18623,7 @@
       <c r="AI164" s="18">
         <v>216.21621621621628</v>
       </c>
-      <c r="AJ164">
+      <c r="AJ164" s="26">
         <v>20</v>
       </c>
       <c r="AK164" s="18">
@@ -18662,7 +18686,7 @@
       <c r="AH165">
         <v>9.03125</v>
       </c>
-      <c r="AJ165">
+      <c r="AJ165" s="26">
         <v>16.666666666666668</v>
       </c>
       <c r="AK165" s="18">
@@ -18722,7 +18746,7 @@
       <c r="AH166">
         <v>3</v>
       </c>
-      <c r="AJ166">
+      <c r="AJ166" s="26">
         <v>1.6666666666666667</v>
       </c>
       <c r="AK166" s="18">
@@ -18785,7 +18809,7 @@
       <c r="AH167">
         <v>7.5</v>
       </c>
-      <c r="AJ167">
+      <c r="AJ167" s="26">
         <v>16.666666666666668</v>
       </c>
       <c r="AK167" s="18">
@@ -18848,7 +18872,7 @@
       <c r="AH168">
         <v>4.78125</v>
       </c>
-      <c r="AJ168">
+      <c r="AJ168" s="26">
         <v>10</v>
       </c>
       <c r="AK168" s="18">
@@ -18911,7 +18935,7 @@
       <c r="AH169">
         <v>6.46875</v>
       </c>
-      <c r="AJ169">
+      <c r="AJ169" s="26">
         <v>0</v>
       </c>
       <c r="AK169" s="18">
@@ -18974,7 +18998,7 @@
       <c r="AH170">
         <v>4.9375</v>
       </c>
-      <c r="AJ170">
+      <c r="AJ170" s="26">
         <v>13.333333333333334</v>
       </c>
       <c r="AK170" s="18">
@@ -19034,7 +19058,7 @@
       <c r="AH171">
         <v>2.4375</v>
       </c>
-      <c r="AJ171">
+      <c r="AJ171" s="26">
         <v>3.3333333333333335</v>
       </c>
       <c r="AK171" s="18">
@@ -19094,7 +19118,7 @@
       <c r="AG172">
         <v>112.625</v>
       </c>
-      <c r="AJ172">
+      <c r="AJ172" s="26">
         <v>20</v>
       </c>
       <c r="AK172" s="18">
@@ -19157,7 +19181,7 @@
       <c r="AH173">
         <v>6.125</v>
       </c>
-      <c r="AJ173">
+      <c r="AJ173" s="26">
         <v>6.666666666666667</v>
       </c>
       <c r="AK173" s="18">
@@ -19223,7 +19247,7 @@
       <c r="AI174">
         <v>192.77108433734941</v>
       </c>
-      <c r="AJ174">
+      <c r="AJ174" s="26">
         <v>26.666666666666668</v>
       </c>
       <c r="AK174" s="18">
@@ -19286,7 +19310,7 @@
       <c r="AI175" s="18">
         <v>219.17808219178079</v>
       </c>
-      <c r="AJ175">
+      <c r="AJ175" s="26">
         <v>6.666666666666667</v>
       </c>
       <c r="AK175" s="18">
@@ -19349,7 +19373,7 @@
       <c r="AH176">
         <v>2.78125</v>
       </c>
-      <c r="AJ176">
+      <c r="AJ176" s="26">
         <v>11.666666666666668</v>
       </c>
       <c r="AK176" s="18">
@@ -19412,7 +19436,7 @@
       <c r="AH177">
         <v>6.25</v>
       </c>
-      <c r="AJ177">
+      <c r="AJ177" s="26">
         <v>5</v>
       </c>
       <c r="AK177" s="18">
@@ -19475,7 +19499,7 @@
       <c r="AH178">
         <v>1.1875</v>
       </c>
-      <c r="AJ178">
+      <c r="AJ178" s="26">
         <v>11.666666666666668</v>
       </c>
       <c r="AK178" s="18">
@@ -19538,7 +19562,7 @@
       <c r="AI179" s="18">
         <v>165.51724137931032</v>
       </c>
-      <c r="AJ179">
+      <c r="AJ179" s="26">
         <v>18.333333333333336</v>
       </c>
       <c r="AK179" s="18">
@@ -19601,7 +19625,7 @@
       <c r="AI180" s="18">
         <v>153.84615384615384</v>
       </c>
-      <c r="AJ180">
+      <c r="AJ180" s="26">
         <v>20</v>
       </c>
       <c r="AK180" s="18">
@@ -19664,7 +19688,7 @@
       <c r="AH181" s="18">
         <v>5.09375</v>
       </c>
-      <c r="AJ181" s="18">
+      <c r="AJ181" s="27">
         <v>3.3333333333333335</v>
       </c>
       <c r="AK181" s="18">
@@ -19727,7 +19751,7 @@
       <c r="AH182" s="18">
         <v>4.40625</v>
       </c>
-      <c r="AJ182" s="18">
+      <c r="AJ182" s="27">
         <v>5</v>
       </c>
       <c r="AK182" s="18">
@@ -19790,7 +19814,7 @@
       <c r="AH183" s="18">
         <v>3.4375</v>
       </c>
-      <c r="AJ183" s="18">
+      <c r="AJ183" s="27">
         <v>0</v>
       </c>
       <c r="AK183" s="18">
@@ -19853,7 +19877,7 @@
       <c r="AH184" s="18">
         <v>5.34375</v>
       </c>
-      <c r="AJ184" s="18">
+      <c r="AJ184" s="27">
         <v>8.3333333333333339</v>
       </c>
       <c r="AK184" s="18">
@@ -19916,7 +19940,7 @@
       <c r="AH185" s="18">
         <v>6.3125</v>
       </c>
-      <c r="AJ185" s="18">
+      <c r="AJ185" s="27">
         <v>0</v>
       </c>
       <c r="AK185" s="18">
@@ -19979,7 +20003,7 @@
       <c r="AH186" s="18">
         <v>7.09375</v>
       </c>
-      <c r="AJ186" s="18">
+      <c r="AJ186" s="27">
         <v>0</v>
       </c>
       <c r="AK186" s="18">
@@ -20042,7 +20066,7 @@
       <c r="AH187" s="18">
         <v>4.40625</v>
       </c>
-      <c r="AJ187" s="18">
+      <c r="AJ187" s="27">
         <v>8.3333333333333339</v>
       </c>
       <c r="AK187" s="18">
@@ -20103,7 +20127,7 @@
         <v>94.875</v>
       </c>
       <c r="AH188" s="18"/>
-      <c r="AJ188" s="18">
+      <c r="AJ188" s="27">
         <v>0</v>
       </c>
       <c r="AK188" s="18">
@@ -20166,7 +20190,7 @@
       <c r="AH189" s="18">
         <v>3.09375</v>
       </c>
-      <c r="AJ189" s="18">
+      <c r="AJ189" s="27">
         <v>20</v>
       </c>
       <c r="AK189" s="18">
@@ -20229,7 +20253,7 @@
       <c r="AH190" s="18">
         <v>9.65625</v>
       </c>
-      <c r="AJ190" s="18">
+      <c r="AJ190" s="27">
         <v>5</v>
       </c>
       <c r="AK190" s="18">
@@ -20292,7 +20316,7 @@
       <c r="AH191" s="18">
         <v>9.40625</v>
       </c>
-      <c r="AJ191" s="18">
+      <c r="AJ191" s="27">
         <v>3.3333333333333335</v>
       </c>
       <c r="AK191" s="18">
@@ -20355,7 +20379,7 @@
       <c r="AH192" s="18">
         <v>3.5625</v>
       </c>
-      <c r="AJ192" s="18">
+      <c r="AJ192" s="27">
         <v>11.666666666666668</v>
       </c>
       <c r="AK192" s="18">
@@ -20416,7 +20440,7 @@
       <c r="AH193" s="18">
         <v>0.90625</v>
       </c>
-      <c r="AJ193" s="18">
+      <c r="AJ193" s="27">
         <v>8.3333333333333339</v>
       </c>
       <c r="AK193" s="18">
@@ -20479,7 +20503,7 @@
       <c r="AH194" s="18">
         <v>7.875</v>
       </c>
-      <c r="AJ194" s="18">
+      <c r="AJ194" s="27">
         <v>0</v>
       </c>
       <c r="AK194" s="18">
@@ -20542,7 +20566,7 @@
       <c r="AH195" s="18">
         <v>6.625</v>
       </c>
-      <c r="AJ195" s="18">
+      <c r="AJ195" s="27">
         <v>5</v>
       </c>
       <c r="AK195" s="18">
@@ -20605,7 +20629,7 @@
       <c r="AH196" s="18">
         <v>3.34375</v>
       </c>
-      <c r="AJ196" s="18">
+      <c r="AJ196" s="27">
         <v>0</v>
       </c>
       <c r="AK196" s="18">
@@ -20668,7 +20692,7 @@
       <c r="AH197" s="18">
         <v>1.0625</v>
       </c>
-      <c r="AJ197" s="18">
+      <c r="AJ197" s="27">
         <v>0</v>
       </c>
       <c r="AK197" s="18">
@@ -20731,7 +20755,7 @@
       <c r="AH198" s="18">
         <v>1.40625</v>
       </c>
-      <c r="AJ198" s="18">
+      <c r="AJ198" s="27">
         <v>0</v>
       </c>
       <c r="AK198" s="18">
@@ -20794,7 +20818,7 @@
       <c r="AH199" s="18">
         <v>2.75</v>
       </c>
-      <c r="AJ199" s="18">
+      <c r="AJ199" s="27">
         <v>3.3333333333333335</v>
       </c>
       <c r="AK199" s="18">
@@ -20857,7 +20881,7 @@
       <c r="AH200" s="18">
         <v>5.3125</v>
       </c>
-      <c r="AJ200" s="18">
+      <c r="AJ200" s="27">
         <v>11.666666666666668</v>
       </c>
       <c r="AK200" s="18">
@@ -20920,7 +20944,7 @@
       <c r="AH201" s="18">
         <v>2.5</v>
       </c>
-      <c r="AJ201" s="18">
+      <c r="AJ201" s="27">
         <v>8.3333333333333339</v>
       </c>
       <c r="AK201" s="18">
@@ -20983,7 +21007,7 @@
       <c r="AH202" s="18">
         <v>0.84375</v>
       </c>
-      <c r="AJ202" s="18">
+      <c r="AJ202" s="27">
         <v>15</v>
       </c>
       <c r="AK202" s="18">
@@ -21046,7 +21070,7 @@
       <c r="AH203" s="18">
         <v>1.46875</v>
       </c>
-      <c r="AJ203" s="18">
+      <c r="AJ203" s="27">
         <v>21.666666666666668</v>
       </c>
       <c r="AK203" s="18">
@@ -21109,7 +21133,7 @@
       <c r="AH204" s="18">
         <v>2.46875</v>
       </c>
-      <c r="AJ204" s="18">
+      <c r="AJ204" s="27">
         <v>3.3333333333333335</v>
       </c>
       <c r="AK204" s="18">
@@ -21172,7 +21196,7 @@
       <c r="AH205" s="18">
         <v>1.9375</v>
       </c>
-      <c r="AJ205" s="18">
+      <c r="AJ205" s="27">
         <v>5</v>
       </c>
       <c r="AK205" s="18">
@@ -21238,7 +21262,7 @@
       <c r="AH206" s="21">
         <v>3.125</v>
       </c>
-      <c r="AJ206" s="21">
+      <c r="AJ206" s="28">
         <v>18.333333333333336</v>
       </c>
       <c r="AK206" s="21">
@@ -21304,7 +21328,7 @@
       <c r="AH207" s="21">
         <v>2.40625</v>
       </c>
-      <c r="AJ207" s="21">
+      <c r="AJ207" s="28">
         <v>11.666666666666668</v>
       </c>
       <c r="AK207" s="21">
@@ -21373,7 +21397,7 @@
       <c r="AI208" s="18">
         <v>258.06451612903226</v>
       </c>
-      <c r="AJ208" s="21">
+      <c r="AJ208" s="28">
         <v>25</v>
       </c>
       <c r="AK208" s="21">
@@ -21481,7 +21505,7 @@
       <c r="AH209">
         <v>7.09375</v>
       </c>
-      <c r="AJ209">
+      <c r="AJ209" s="26">
         <v>5</v>
       </c>
       <c r="AK209" s="18">
@@ -21589,7 +21613,7 @@
       <c r="AH210">
         <v>5.65625</v>
       </c>
-      <c r="AJ210">
+      <c r="AJ210" s="26">
         <v>11.666666666666668</v>
       </c>
       <c r="AK210" s="18">
@@ -21697,7 +21721,7 @@
       <c r="AH211">
         <v>4.4375</v>
       </c>
-      <c r="AJ211">
+      <c r="AJ211" s="26">
         <v>3.3333333333333335</v>
       </c>
       <c r="AK211" s="18">
@@ -21805,7 +21829,7 @@
       <c r="AI212" s="18">
         <v>164.94845360824743</v>
       </c>
-      <c r="AJ212">
+      <c r="AJ212" s="26">
         <v>33.333333333333336</v>
       </c>
       <c r="AK212" s="18">
@@ -21871,7 +21895,7 @@
       <c r="AI213" s="18">
         <v>219.17808219178079</v>
       </c>
-      <c r="AJ213" s="18">
+      <c r="AJ213" s="27">
         <v>31.666666666666668</v>
       </c>
       <c r="AK213" s="18">
@@ -21931,7 +21955,7 @@
       <c r="AG214" s="18">
         <v>108.125</v>
       </c>
-      <c r="AJ214" s="18">
+      <c r="AJ214" s="27">
         <v>13.333333333333334</v>
       </c>
       <c r="AK214" s="18">
@@ -21997,7 +22021,7 @@
       <c r="AI215" s="18">
         <v>301.88679245283015</v>
       </c>
-      <c r="AJ215" s="18">
+      <c r="AJ215" s="27">
         <v>28.333333333333336</v>
       </c>
       <c r="AK215" s="18">
@@ -22063,7 +22087,7 @@
       <c r="AI216" s="18">
         <v>186.04651162790697</v>
       </c>
-      <c r="AJ216" s="18">
+      <c r="AJ216" s="27">
         <v>18.333333333333336</v>
       </c>
       <c r="AK216" s="18">
@@ -22126,7 +22150,7 @@
       <c r="AI217">
         <v>173.91304347826093</v>
       </c>
-      <c r="AJ217">
+      <c r="AJ217" s="26">
         <v>8.3333333333333339</v>
       </c>
       <c r="AK217" s="18">
@@ -22189,7 +22213,7 @@
       <c r="AI218">
         <v>179.77528089887642</v>
       </c>
-      <c r="AJ218">
+      <c r="AJ218" s="26">
         <v>16.666666666666668</v>
       </c>
       <c r="AK218" s="18">
@@ -22258,7 +22282,7 @@
       <c r="AI219" s="18">
         <v>170.21276595744683</v>
       </c>
-      <c r="AJ219" s="21">
+      <c r="AJ219" s="28">
         <v>28.333333333333336</v>
       </c>
       <c r="AK219" s="21">
@@ -22369,7 +22393,7 @@
       <c r="AI220" s="18">
         <v>135.59322033898306</v>
       </c>
-      <c r="AJ220">
+      <c r="AJ220" s="26">
         <v>30</v>
       </c>
       <c r="AK220" s="18">
@@ -22435,7 +22459,7 @@
       <c r="AI221" s="18">
         <v>313.72549019607834</v>
       </c>
-      <c r="AJ221" s="21">
+      <c r="AJ221" s="28">
         <v>23.333333333333336</v>
       </c>
       <c r="AK221" s="21">
@@ -22543,7 +22567,7 @@
       <c r="AH222" s="18">
         <v>0.25</v>
       </c>
-      <c r="AJ222" s="18">
+      <c r="AJ222" s="27">
         <v>11.666666666666668</v>
       </c>
       <c r="AK222" s="18">
@@ -22652,7 +22676,7 @@
         <v>10</v>
       </c>
       <c r="AI223" s="1"/>
-      <c r="AJ223" s="18">
+      <c r="AJ223" s="27">
         <v>16.666666666666668</v>
       </c>
       <c r="AK223" s="19">
@@ -22743,7 +22767,7 @@
         <v>0.86063072227873849</v>
       </c>
       <c r="AC224" s="18">
-        <v>13.375</v>
+        <v>10</v>
       </c>
       <c r="AD224" s="18">
         <v>123.98124999999999</v>
@@ -22760,7 +22784,7 @@
       <c r="AH224" s="18">
         <v>10</v>
       </c>
-      <c r="AJ224" s="18">
+      <c r="AJ224" s="27">
         <v>16.666666666666668</v>
       </c>
       <c r="AK224" s="19">
@@ -22869,7 +22893,7 @@
       <c r="AI225" s="18">
         <v>228.57142857142856</v>
       </c>
-      <c r="AJ225" s="18">
+      <c r="AJ225" s="27">
         <v>28.333333333333336</v>
       </c>
       <c r="AK225" s="19">
@@ -22912,7 +22936,7 @@
         <v>0.2482993197278911</v>
       </c>
       <c r="AC226" s="18">
-        <v>12.25</v>
+        <v>20</v>
       </c>
       <c r="AD226" s="18">
         <v>121.43437499999999</v>
@@ -22932,7 +22956,7 @@
       <c r="AI226" s="18">
         <v>164.38356164383561</v>
       </c>
-      <c r="AJ226" s="18">
+      <c r="AJ226" s="27">
         <v>33.333333333333336</v>
       </c>
       <c r="AK226" s="19">

--- a/Data/in/input.xlsx
+++ b/Data/in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E004AC-1C48-4113-B5FC-B76E1205F0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0138DBBB-0DDE-49A0-9979-0180082D7DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3492" yWindow="792" windowWidth="21336" windowHeight="13488" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C04A2-646C-44CE-A1DE-AE1439B22FF5}">
   <dimension ref="A1:AK226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="36" zoomScaleNormal="36" workbookViewId="0">
-      <selection activeCell="AJ4" sqref="AJ4"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC226" sqref="AC226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1439,7 +1439,7 @@
         <v>166.66666666666666</v>
       </c>
       <c r="AJ4" s="25">
-        <f t="shared" ref="AJ2:AJ42" si="1">AR4</f>
+        <f t="shared" ref="AJ4:AJ42" si="1">AR4</f>
         <v>0</v>
       </c>
       <c r="AK4" s="20">
@@ -6037,115 +6037,115 @@
         <v>4.8437999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
+    <row r="45" spans="1:37" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="20">
+      <c r="B45" s="25">
         <v>80219</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D45" s="25">
         <v>2</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="25">
         <v>309.95600000000002</v>
       </c>
-      <c r="G45" s="20">
+      <c r="G45" s="25">
         <v>118.5</v>
       </c>
-      <c r="H45" s="20">
+      <c r="H45" s="25">
         <v>10.305</v>
       </c>
-      <c r="I45" s="20">
+      <c r="I45" s="25">
         <v>56.290999999999997</v>
       </c>
-      <c r="J45" s="20">
+      <c r="J45" s="25">
         <v>198.60400000000001</v>
       </c>
-      <c r="K45" s="20">
+      <c r="K45" s="25">
         <v>3.1560000000000001</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="25">
         <v>11.992000000000001</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="25">
         <v>70.968000000000004</v>
       </c>
-      <c r="N45" s="20">
+      <c r="N45" s="25">
         <v>86.257999999999996</v>
       </c>
-      <c r="O45" s="20">
+      <c r="O45" s="25">
         <v>4</v>
       </c>
-      <c r="P45" s="20">
+      <c r="P45" s="25">
         <v>165.20599999999999</v>
       </c>
-      <c r="Q45" s="20">
+      <c r="Q45" s="25">
         <v>168.59700000000001</v>
       </c>
-      <c r="R45" s="20">
+      <c r="R45" s="25">
         <v>39.003</v>
       </c>
-      <c r="S45" s="20">
+      <c r="S45" s="25">
         <v>4</v>
       </c>
-      <c r="T45" s="20">
+      <c r="T45" s="25">
         <v>3</v>
       </c>
-      <c r="U45" s="20">
-        <v>1.141444342226311</v>
-      </c>
-      <c r="V45" s="20">
+      <c r="U45" s="25">
+        <v>1.2414443422263099</v>
+      </c>
+      <c r="V45" s="25">
         <v>3.84375</v>
       </c>
-      <c r="W45" s="20">
+      <c r="W45" s="25">
         <v>90.583333333333314</v>
       </c>
-      <c r="X45" s="20">
+      <c r="X45" s="25">
         <v>-69.543750000000003</v>
       </c>
-      <c r="Y45" s="20">
+      <c r="Y45" s="25">
         <v>136.94290141808446</v>
       </c>
-      <c r="Z45" s="20">
+      <c r="Z45" s="25">
         <v>8.455679384006471</v>
       </c>
-      <c r="AA45" s="20">
+      <c r="AA45" s="25">
         <f t="shared" si="2"/>
         <v>9.3346966520770625E-2</v>
       </c>
-      <c r="AB45" s="20">
+      <c r="AB45" s="25">
         <v>0.51847940865892284</v>
       </c>
-      <c r="AC45" s="20">
+      <c r="AC45" s="25">
         <v>3</v>
       </c>
-      <c r="AD45" s="20">
+      <c r="AD45" s="25">
         <v>99.168749999999989</v>
       </c>
-      <c r="AE45" s="20">
+      <c r="AE45" s="25">
         <v>1.3290264549338175</v>
       </c>
-      <c r="AF45" s="20">
+      <c r="AF45" s="25">
         <v>143</v>
       </c>
-      <c r="AG45" s="20">
+      <c r="AG45" s="25">
         <v>62.25</v>
       </c>
-      <c r="AH45" s="20">
+      <c r="AH45" s="25">
         <v>2.78125</v>
       </c>
       <c r="AJ45" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AK45" s="20">
+      <c r="AK45" s="25">
         <v>3.25</v>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
         <v>4</v>
       </c>
       <c r="U55">
-        <v>1.144708423326134</v>
+        <v>1.15470842332613</v>
       </c>
       <c r="V55">
         <v>2.09375</v>
@@ -22874,7 +22874,9 @@
       <c r="AB225" s="18">
         <v>0.36990595611285271</v>
       </c>
-      <c r="AC225" s="18"/>
+      <c r="AC225" s="18">
+        <v>17</v>
+      </c>
       <c r="AD225" s="18">
         <v>113.734375</v>
       </c>

--- a/Data/in/input.xlsx
+++ b/Data/in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0138DBBB-0DDE-49A0-9979-0180082D7DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AFC21C-91BD-4415-AE4B-8B8F98DC364A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3492" yWindow="792" windowWidth="21336" windowHeight="13488" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3468" yWindow="1440" windowWidth="21336" windowHeight="13488" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +473,18 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -590,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,6 +647,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C04A2-646C-44CE-A1DE-AE1439B22FF5}">
   <dimension ref="A1:AK226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC226" sqref="AC226"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2428,29 +2445,28 @@
         <v>6</v>
       </c>
       <c r="U13" s="20">
-        <v>1.2587552977916572</v>
+        <v>1.2587552980000001</v>
       </c>
       <c r="V13" s="20">
         <v>3.625</v>
       </c>
       <c r="W13" s="20">
-        <v>46.697916666666679</v>
+        <v>46.697916669999998</v>
       </c>
       <c r="X13" s="20">
         <v>-70.365624999999994</v>
       </c>
       <c r="Y13" s="20">
-        <v>221.76900744742559</v>
+        <v>221.76900739999999</v>
       </c>
       <c r="Z13" s="20">
-        <v>6.4766439588166538</v>
+        <v>6.4766439589999996</v>
       </c>
       <c r="AA13" s="20">
-        <f t="shared" si="0"/>
-        <v>0.13869235334517033</v>
+        <v>0.13869235299999999</v>
       </c>
       <c r="AB13" s="20">
-        <v>0.63040791100123617</v>
+        <v>0.63040791100000004</v>
       </c>
       <c r="AC13" s="20">
         <v>0</v>
@@ -2459,7 +2475,7 @@
         <v>104.52187499999999</v>
       </c>
       <c r="AE13" s="20">
-        <v>0.9662142857142868</v>
+        <v>0.96621428600000003</v>
       </c>
       <c r="AF13" s="20">
         <v>211.125</v>
@@ -2474,7 +2490,6 @@
         <v>98</v>
       </c>
       <c r="AJ13" s="25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK13" s="20">
@@ -2543,7 +2558,7 @@
         <v>6</v>
       </c>
       <c r="U14" s="20">
-        <v>1.2772486772486773</v>
+        <v>1.277248677</v>
       </c>
       <c r="V14" s="20">
         <v>4.09375</v>
@@ -2555,17 +2570,16 @@
         <v>-69.984375</v>
       </c>
       <c r="Y14" s="20">
-        <v>216.20116183128218</v>
+        <v>216.20116179999999</v>
       </c>
       <c r="Z14" s="20">
-        <v>8.9354521217411271</v>
+        <v>8.9354521219999992</v>
       </c>
       <c r="AA14" s="20">
-        <f t="shared" si="0"/>
-        <v>0.18154569390204195</v>
+        <v>0.18154569400000001</v>
       </c>
       <c r="AB14" s="20">
-        <v>0.54589371980676327</v>
+        <v>0.54589372000000003</v>
       </c>
       <c r="AC14" s="20">
         <v>0</v>
@@ -2574,7 +2588,7 @@
         <v>107.484375</v>
       </c>
       <c r="AE14" s="20">
-        <v>0.97084008087691132</v>
+        <v>0.97084008099999997</v>
       </c>
       <c r="AF14" s="20">
         <v>204.625</v>
@@ -2589,7 +2603,6 @@
         <v>98</v>
       </c>
       <c r="AJ14" s="25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK14" s="20">
@@ -2658,29 +2671,28 @@
         <v>9</v>
       </c>
       <c r="U15" s="20">
-        <v>1.1377932050068371</v>
+        <v>1.1377932049999999</v>
       </c>
       <c r="V15" s="20">
         <v>4.09375</v>
       </c>
       <c r="W15" s="20">
-        <v>99.031249999999972</v>
+        <v>99.03125</v>
       </c>
       <c r="X15" s="20">
         <v>-70.290625000000006</v>
       </c>
       <c r="Y15" s="20">
-        <v>121.27008903718389</v>
+        <v>121.270089</v>
       </c>
       <c r="Z15" s="20">
-        <v>8.7728601514356939</v>
+        <v>8.7728601509999997</v>
       </c>
       <c r="AA15" s="20">
-        <f t="shared" si="0"/>
-        <v>8.8586786003768472E-2</v>
+        <v>8.8586786000000001E-2</v>
       </c>
       <c r="AB15" s="20">
-        <v>0.478760045924225</v>
+        <v>0.47876004599999999</v>
       </c>
       <c r="AC15" s="20">
         <v>5</v>
@@ -2689,7 +2701,7 @@
         <v>88.790625000000006</v>
       </c>
       <c r="AE15" s="20">
-        <v>1.2263925081433271</v>
+        <v>1.226392508</v>
       </c>
       <c r="AF15" s="20">
         <v>136</v>
@@ -2698,10 +2710,9 @@
         <v>61</v>
       </c>
       <c r="AI15" s="20">
-        <v>380.95238095238113</v>
+        <v>380.952381</v>
       </c>
       <c r="AJ15" s="25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK15" s="20">
@@ -2770,38 +2781,37 @@
         <v>7</v>
       </c>
       <c r="U16" s="20">
-        <v>1.0750938673341677</v>
+        <v>1.0750938670000001</v>
       </c>
       <c r="V16" s="20">
         <v>2.0625</v>
       </c>
       <c r="W16" s="20">
-        <v>91.552083333333329</v>
+        <v>91.552083330000002</v>
       </c>
       <c r="X16" s="20">
         <v>-79.940624999999997</v>
       </c>
       <c r="Y16" s="20">
-        <v>107.57756154646479</v>
+        <v>163.7649351</v>
       </c>
       <c r="Z16" s="20">
-        <v>252.5</v>
+        <v>7.8265589159999998</v>
       </c>
       <c r="AA16" s="20">
-        <f t="shared" si="0"/>
-        <v>2.7579929457276142</v>
+        <v>8.5487502000000007E-2</v>
       </c>
       <c r="AB16" s="20">
-        <v>0.60759493670886056</v>
+        <v>0.607594937</v>
       </c>
       <c r="AC16" s="20">
         <v>1</v>
       </c>
       <c r="AD16" s="20">
-        <v>124.25312500000001</v>
+        <v>124.253125</v>
       </c>
       <c r="AE16" s="20">
-        <v>0.93387055325932522</v>
+        <v>0.93387055299999999</v>
       </c>
       <c r="AF16" s="20">
         <v>252.5</v>
@@ -2816,7 +2826,6 @@
         <v>98</v>
       </c>
       <c r="AJ16" s="25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK16" s="20">
@@ -2885,38 +2894,37 @@
         <v>9</v>
       </c>
       <c r="U17" s="20">
-        <v>1.2506692625943052</v>
+        <v>1.250669263</v>
       </c>
       <c r="V17" s="20">
         <v>3.21875</v>
       </c>
       <c r="W17" s="20">
-        <v>42.802083333333336</v>
+        <v>42.802083330000002</v>
       </c>
       <c r="X17" s="20">
         <v>-71.284374999999997</v>
       </c>
       <c r="Y17" s="20">
-        <v>221.19494030348625</v>
+        <v>221.19494030000001</v>
       </c>
       <c r="Z17" s="20">
-        <v>230.5</v>
+        <v>9.0211373600000009</v>
       </c>
       <c r="AA17" s="20">
-        <f t="shared" si="0"/>
-        <v>5.3852518861036742</v>
+        <v>0.21076397799999999</v>
       </c>
       <c r="AB17" s="20">
-        <v>0.52649379932356255</v>
+        <v>0.52649379900000004</v>
       </c>
       <c r="AC17" s="20">
         <v>0</v>
       </c>
       <c r="AD17" s="20">
-        <v>109.06562500000001</v>
+        <v>109.065625</v>
       </c>
       <c r="AE17" s="20">
-        <v>1.0574196099103901</v>
+        <v>1.05741961</v>
       </c>
       <c r="AF17" s="20">
         <v>230.5</v>
@@ -2931,7 +2939,6 @@
         <v>98</v>
       </c>
       <c r="AJ17" s="25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK17" s="20">
@@ -3012,17 +3019,16 @@
         <v>-72.092699999999994</v>
       </c>
       <c r="Y18" s="20">
-        <v>240</v>
+        <v>235.93566759999999</v>
       </c>
       <c r="Z18" s="20">
-        <v>194.75</v>
+        <v>8.7909842099999995</v>
       </c>
       <c r="AA18" s="20">
-        <f t="shared" si="0"/>
-        <v>4.2834865270876907</v>
+        <v>0.19335590499999999</v>
       </c>
       <c r="AB18" s="20">
-        <v>0.44233378561736764</v>
+        <v>0.44233378600000001</v>
       </c>
       <c r="AC18" s="20">
         <v>0</v>
@@ -3043,10 +3049,9 @@
         <v>3.125</v>
       </c>
       <c r="AI18" s="20">
-        <v>101.24209046168268</v>
+        <v>101.2420905</v>
       </c>
       <c r="AJ18" s="25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK18" s="20">
@@ -3115,29 +3120,28 @@
         <v>9</v>
       </c>
       <c r="U19" s="20">
-        <v>1.0552555569508979</v>
+        <v>1.055255557</v>
       </c>
       <c r="V19" s="20">
         <v>1.375</v>
       </c>
       <c r="W19" s="20">
-        <v>82.947916666666686</v>
+        <v>82.947916669999998</v>
       </c>
       <c r="X19" s="20">
         <v>-81.584374999999994</v>
       </c>
       <c r="Y19" s="20">
-        <v>104.25158770968092</v>
+        <v>104.2515877</v>
       </c>
       <c r="Z19" s="20">
-        <v>254.875</v>
+        <v>9.837823276</v>
       </c>
       <c r="AA19" s="20">
-        <f t="shared" si="0"/>
-        <v>3.0727112897149307</v>
+        <v>0.118602415</v>
       </c>
       <c r="AB19" s="20">
-        <v>0.26683291770573564</v>
+        <v>0.26683291799999997</v>
       </c>
       <c r="AC19" s="20">
         <v>24</v>
@@ -3146,7 +3150,7 @@
         <v>122.02187499999999</v>
       </c>
       <c r="AE19" s="20">
-        <v>0.809009375096295</v>
+        <v>0.80900937500000003</v>
       </c>
       <c r="AF19" s="20">
         <v>254.875</v>
@@ -3158,10 +3162,9 @@
         <v>98</v>
       </c>
       <c r="AI19" s="20">
-        <v>285.71428571428572</v>
+        <v>285.7142857</v>
       </c>
       <c r="AJ19" s="25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK19" s="20">
@@ -3230,29 +3233,28 @@
         <v>4</v>
       </c>
       <c r="U20" s="20">
-        <v>1.2571868089606768</v>
+        <v>1.257186809</v>
       </c>
       <c r="V20" s="20">
         <v>16.71875</v>
       </c>
       <c r="W20" s="20">
-        <v>216.68749999999997</v>
+        <v>216.6875</v>
       </c>
       <c r="X20" s="20">
         <v>-73.868750000000006</v>
       </c>
       <c r="Y20" s="20">
-        <v>110.59269302575299</v>
+        <v>110.592693</v>
       </c>
       <c r="Z20" s="20">
-        <v>336.625</v>
+        <v>23.32925475</v>
       </c>
       <c r="AA20" s="20">
-        <f t="shared" si="0"/>
-        <v>1.5535044707239691</v>
+        <v>0.107663131</v>
       </c>
       <c r="AB20" s="20">
-        <v>0.44233378561736764</v>
+        <v>0.44233378600000001</v>
       </c>
       <c r="AC20" s="20">
         <v>14</v>
@@ -3261,7 +3263,7 @@
         <v>123.99375000000001</v>
       </c>
       <c r="AE20" s="20">
-        <v>0.67542348918903627</v>
+        <v>0.67542348900000004</v>
       </c>
       <c r="AF20" s="20">
         <v>336.625</v>
@@ -3276,7 +3278,6 @@
         <v>98</v>
       </c>
       <c r="AJ20" s="25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AK20" s="20">
@@ -6037,115 +6038,115 @@
         <v>4.8437999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:37" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
+    <row r="45" spans="1:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="32">
         <v>80219</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="25">
+      <c r="D45" s="32">
         <v>2</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="32">
         <v>309.95600000000002</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="32">
         <v>118.5</v>
       </c>
-      <c r="H45" s="25">
+      <c r="H45" s="32">
         <v>10.305</v>
       </c>
-      <c r="I45" s="25">
+      <c r="I45" s="32">
         <v>56.290999999999997</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="32">
         <v>198.60400000000001</v>
       </c>
-      <c r="K45" s="25">
+      <c r="K45" s="32">
         <v>3.1560000000000001</v>
       </c>
-      <c r="L45" s="25">
+      <c r="L45" s="32">
         <v>11.992000000000001</v>
       </c>
-      <c r="M45" s="25">
+      <c r="M45" s="32">
         <v>70.968000000000004</v>
       </c>
-      <c r="N45" s="25">
+      <c r="N45" s="32">
         <v>86.257999999999996</v>
       </c>
-      <c r="O45" s="25">
+      <c r="O45" s="32">
         <v>4</v>
       </c>
-      <c r="P45" s="25">
+      <c r="P45" s="32">
         <v>165.20599999999999</v>
       </c>
-      <c r="Q45" s="25">
+      <c r="Q45" s="32">
         <v>168.59700000000001</v>
       </c>
-      <c r="R45" s="25">
+      <c r="R45" s="32">
         <v>39.003</v>
       </c>
-      <c r="S45" s="25">
+      <c r="S45" s="32">
         <v>4</v>
       </c>
-      <c r="T45" s="25">
+      <c r="T45" s="32">
         <v>3</v>
       </c>
-      <c r="U45" s="25">
+      <c r="U45" s="32">
         <v>1.2414443422263099</v>
       </c>
-      <c r="V45" s="25">
+      <c r="V45" s="32">
         <v>3.84375</v>
       </c>
-      <c r="W45" s="25">
+      <c r="W45" s="32">
         <v>90.583333333333314</v>
       </c>
-      <c r="X45" s="25">
+      <c r="X45" s="32">
         <v>-69.543750000000003</v>
       </c>
-      <c r="Y45" s="25">
+      <c r="Y45" s="32">
         <v>136.94290141808446</v>
       </c>
-      <c r="Z45" s="25">
+      <c r="Z45" s="32">
         <v>8.455679384006471</v>
       </c>
-      <c r="AA45" s="25">
+      <c r="AA45" s="32">
         <f t="shared" si="2"/>
         <v>9.3346966520770625E-2</v>
       </c>
-      <c r="AB45" s="25">
+      <c r="AB45" s="32">
         <v>0.51847940865892284</v>
       </c>
-      <c r="AC45" s="25">
+      <c r="AC45" s="32">
         <v>3</v>
       </c>
-      <c r="AD45" s="25">
+      <c r="AD45" s="32">
         <v>99.168749999999989</v>
       </c>
-      <c r="AE45" s="25">
+      <c r="AE45" s="32">
         <v>1.3290264549338175</v>
       </c>
-      <c r="AF45" s="25">
+      <c r="AF45" s="32">
         <v>143</v>
       </c>
-      <c r="AG45" s="25">
+      <c r="AG45" s="32">
         <v>62.25</v>
       </c>
-      <c r="AH45" s="25">
+      <c r="AH45" s="32">
         <v>2.78125</v>
       </c>
-      <c r="AJ45" s="25">
+      <c r="AJ45" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AK45" s="25">
+      <c r="AK45" s="32">
         <v>3.25</v>
       </c>
     </row>
@@ -7042,338 +7043,340 @@
         <v>1.9375</v>
       </c>
     </row>
-    <row r="54" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="20">
+    <row r="54" spans="1:37" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="26">
         <v>150519</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="20">
+      <c r="C54" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="26">
         <v>2</v>
       </c>
-      <c r="E54" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="20">
+      <c r="E54" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="25">
         <v>543.94600000000003</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="25">
         <v>306.83999999999997</v>
       </c>
-      <c r="H54" s="20">
+      <c r="H54" s="25">
         <v>5.97</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="25">
         <v>48.895000000000003</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="25">
         <v>138.44200000000001</v>
       </c>
-      <c r="K54" s="20">
+      <c r="K54" s="25">
         <v>2.2040000000000002</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L54" s="25">
         <v>11.462999999999999</v>
       </c>
-      <c r="M54" s="20">
+      <c r="M54" s="25">
         <v>80.778999999999996</v>
       </c>
-      <c r="N54" s="20">
+      <c r="N54" s="25">
         <v>72.798000000000002</v>
       </c>
-      <c r="O54" s="20">
+      <c r="O54" s="25">
         <v>2</v>
       </c>
-      <c r="P54" s="20">
+      <c r="P54" s="25">
         <v>107.97</v>
       </c>
-      <c r="Q54" s="20">
+      <c r="Q54" s="25">
         <v>128.85599999999999</v>
       </c>
-      <c r="R54" s="20">
+      <c r="R54" s="25">
         <v>26.077000000000002</v>
       </c>
-      <c r="S54" s="20">
+      <c r="S54" s="25">
         <v>2</v>
       </c>
-      <c r="T54" s="20">
+      <c r="T54" s="25">
         <v>3</v>
       </c>
-      <c r="U54">
-        <v>1.0207125103562551</v>
-      </c>
-      <c r="V54">
-        <v>0.78125</v>
-      </c>
-      <c r="W54">
-        <v>120.770833333333</v>
-      </c>
-      <c r="X54">
-        <v>-65.831249999999997</v>
-      </c>
-      <c r="Y54">
-        <v>122.33127416619324</v>
-      </c>
-      <c r="Z54">
-        <v>10.72078082850803</v>
+      <c r="U54" s="26">
+        <v>1.3376224766851612</v>
+      </c>
+      <c r="V54" s="26">
+        <v>8.9375</v>
+      </c>
+      <c r="W54" s="26">
+        <v>88.239583333333314</v>
+      </c>
+      <c r="X54" s="26">
+        <v>-69.903125000000003</v>
+      </c>
+      <c r="Y54" s="26">
+        <v>54.985067294450829</v>
+      </c>
+      <c r="Z54" s="31">
+        <v>6.4490319013438535</v>
       </c>
       <c r="AA54" s="20">
         <f>Z54/W54</f>
-        <v>8.876961872837448E-2</v>
-      </c>
-      <c r="AB54">
-        <v>0.42582106455266139</v>
-      </c>
-      <c r="AC54" s="20">
-        <v>5</v>
-      </c>
-      <c r="AD54">
-        <v>115.98750000000001</v>
-      </c>
-      <c r="AE54">
-        <v>1.1803534813047847</v>
-      </c>
-      <c r="AF54">
-        <v>275.625</v>
-      </c>
-      <c r="AG54">
-        <v>62.625</v>
-      </c>
-      <c r="AH54">
-        <v>2.59375</v>
-      </c>
-      <c r="AI54"/>
+        <v>7.3085475449062687E-2</v>
+      </c>
+      <c r="AB54" s="31">
+        <v>0.21313868613138687</v>
+      </c>
+      <c r="AC54" s="26">
+        <v>18</v>
+      </c>
+      <c r="AD54" s="26">
+        <v>121.55937499999999</v>
+      </c>
+      <c r="AE54" s="26">
+        <v>0.88212927615178671</v>
+      </c>
+      <c r="AF54" s="31">
+        <v>303.375</v>
+      </c>
+      <c r="AG54" s="31">
+        <v>83.5</v>
+      </c>
+      <c r="AH54" s="30">
+        <v>3.28125</v>
+      </c>
+      <c r="AI54" s="26"/>
       <c r="AJ54" s="26">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="20">
-        <v>-0.84375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK54" s="26">
+        <v>1.5625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="26">
         <v>150519</v>
       </c>
-      <c r="C55" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="20">
+      <c r="C55" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="26">
         <v>2</v>
       </c>
-      <c r="E55" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" s="20">
+      <c r="E55" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="25">
         <v>342.39699999999999</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="25">
         <v>187.68700000000001</v>
       </c>
-      <c r="H55" s="20">
+      <c r="H55" s="25">
         <v>10.436999999999999</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="25">
         <v>63.119</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="25">
         <v>187.608</v>
       </c>
-      <c r="K55" s="20">
+      <c r="K55" s="25">
         <v>2.7069999999999999</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="25">
         <v>11.957000000000001</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M55" s="25">
         <v>94.558999999999997</v>
       </c>
-      <c r="N55" s="20">
+      <c r="N55" s="25">
         <v>90.891000000000005</v>
       </c>
-      <c r="O55" s="20">
+      <c r="O55" s="25">
         <v>4</v>
       </c>
-      <c r="P55" s="20">
+      <c r="P55" s="25">
         <v>194.983</v>
       </c>
-      <c r="Q55" s="20">
+      <c r="Q55" s="25">
         <v>130.85400000000001</v>
       </c>
-      <c r="R55" s="20" t="s">
+      <c r="R55" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="S55" s="20" t="s">
+      <c r="S55" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="T55" s="20">
+      <c r="T55" s="25">
         <v>4</v>
       </c>
-      <c r="U55">
-        <v>1.15470842332613</v>
-      </c>
-      <c r="V55">
-        <v>2.09375</v>
-      </c>
-      <c r="W55">
-        <v>53.843750000000007</v>
-      </c>
-      <c r="X55">
-        <v>-57.628124999999997</v>
-      </c>
-      <c r="Y55">
-        <v>234.9102852440933</v>
-      </c>
-      <c r="Z55">
-        <v>7.4452616586076195</v>
+      <c r="U55" s="26">
+        <v>1.2522255192878338</v>
+      </c>
+      <c r="V55" s="26">
+        <v>7.96875</v>
+      </c>
+      <c r="W55" s="26">
+        <v>105.3125</v>
+      </c>
+      <c r="X55" s="26">
+        <v>-69</v>
+      </c>
+      <c r="Y55" s="26">
+        <v>8.0075291789899996</v>
+      </c>
+      <c r="Z55" s="31">
+        <v>11.557776588541895</v>
       </c>
       <c r="AA55" s="20">
-        <f t="shared" si="2"/>
-        <v>0.13827531809369925</v>
-      </c>
-      <c r="AB55">
-        <v>0.56294326241134751</v>
-      </c>
-      <c r="AC55" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <v>115.00312500000001</v>
-      </c>
-      <c r="AE55">
-        <v>1.026676107270859</v>
-      </c>
-      <c r="AF55">
-        <v>289.25</v>
-      </c>
-      <c r="AG55">
-        <v>76.875</v>
-      </c>
-      <c r="AH55">
-        <v>5.25</v>
-      </c>
-      <c r="AI55"/>
+        <f>Z55/W55</f>
+        <v>0.10974743348170345</v>
+      </c>
+      <c r="AB55" s="31">
+        <v>0.21225710014947685</v>
+      </c>
+      <c r="AC55" s="26">
+        <v>26</v>
+      </c>
+      <c r="AD55" s="26">
+        <v>116.96875</v>
+      </c>
+      <c r="AE55" s="26">
+        <v>0.66650770914377055</v>
+      </c>
+      <c r="AF55" s="31">
+        <v>349.75</v>
+      </c>
+      <c r="AG55" s="31">
+        <v>126.875</v>
+      </c>
+      <c r="AH55" s="30">
+        <v>9.0625</v>
+      </c>
+      <c r="AI55" s="26"/>
       <c r="AJ55" s="26">
-        <v>0</v>
-      </c>
-      <c r="AK55" s="20">
-        <v>2.125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="20">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="AK55" s="26">
+        <v>7.5937999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:37" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="26">
         <v>150519</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="20">
+      <c r="C56" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="26">
         <v>2</v>
       </c>
-      <c r="E56" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F56" s="20">
+      <c r="E56" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" s="25">
         <v>499.39800000000002</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="25">
         <v>336.72300000000001</v>
       </c>
-      <c r="H56" s="20">
+      <c r="H56" s="25">
         <v>12.067</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="25">
         <v>53.226999999999997</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="25">
         <v>160.43700000000001</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="25">
         <v>3.2229999999999999</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="25">
         <v>15.356</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M56" s="25">
         <v>124.006</v>
       </c>
-      <c r="N56" s="20">
+      <c r="N56" s="25">
         <v>100.104</v>
       </c>
-      <c r="O56" s="20">
+      <c r="O56" s="25">
         <v>4</v>
       </c>
-      <c r="P56" s="20">
+      <c r="P56" s="25">
         <v>191.535</v>
       </c>
-      <c r="Q56" s="20">
+      <c r="Q56" s="25">
         <v>148.63800000000001</v>
       </c>
-      <c r="R56" s="20">
+      <c r="R56" s="25">
         <v>34.655000000000001</v>
       </c>
-      <c r="S56" s="20">
+      <c r="S56" s="25">
         <v>3</v>
       </c>
-      <c r="T56" s="20">
+      <c r="T56" s="25">
         <v>6</v>
       </c>
-      <c r="U56">
-        <v>1.0975609756097562</v>
-      </c>
-      <c r="V56">
-        <v>1.25</v>
-      </c>
-      <c r="W56">
-        <v>39.687499999999993</v>
-      </c>
-      <c r="X56">
-        <v>-67.03125</v>
-      </c>
-      <c r="Y56">
-        <v>474.88882959567741</v>
-      </c>
-      <c r="Z56">
-        <v>7.3235280038458743</v>
+      <c r="U56" s="26">
+        <v>1.1239630906887874</v>
+      </c>
+      <c r="V56" s="26">
+        <v>4.15625</v>
+      </c>
+      <c r="W56" s="26">
+        <v>111.76041666666667</v>
+      </c>
+      <c r="X56" s="26">
+        <v>-67.659374999999997</v>
+      </c>
+      <c r="Y56" s="26">
+        <v>31.440799751835623</v>
+      </c>
+      <c r="Z56" s="31">
+        <v>7.204158964789797</v>
       </c>
       <c r="AA56" s="20">
-        <f t="shared" si="2"/>
-        <v>0.1845298394669827</v>
-      </c>
-      <c r="AB56"/>
-      <c r="AC56" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD56">
-        <v>122.71875</v>
-      </c>
-      <c r="AE56">
-        <v>1.01901737407605</v>
-      </c>
-      <c r="AF56">
-        <v>289.125</v>
-      </c>
-      <c r="AG56">
-        <v>75.375</v>
-      </c>
-      <c r="AH56">
-        <v>6.28125</v>
-      </c>
-      <c r="AI56"/>
+        <f>Z56/W56</f>
+        <v>6.4460738243994828E-2</v>
+      </c>
+      <c r="AB56" s="31">
+        <v>0.76647398843930636</v>
+      </c>
+      <c r="AC56" s="26">
+        <v>15</v>
+      </c>
+      <c r="AD56" s="26">
+        <v>117.03437500000001</v>
+      </c>
+      <c r="AE56" s="26">
+        <v>0.90498754394407399</v>
+      </c>
+      <c r="AF56" s="31">
+        <v>353</v>
+      </c>
+      <c r="AG56" s="31">
+        <v>96.875</v>
+      </c>
+      <c r="AH56" s="30">
+        <v>7.8125</v>
+      </c>
+      <c r="AI56" s="26"/>
       <c r="AJ56" s="26">
-        <v>0</v>
-      </c>
-      <c r="AK56" s="20">
-        <v>0.4375</v>
+        <v>28.333333333333336</v>
+      </c>
+      <c r="AK56" s="26">
+        <v>8.4687999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">

--- a/Data/in/input.xlsx
+++ b/Data/in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F68FF4-3563-44C0-84E5-5EF7E550B7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5879F1CB-F806-4D61-900E-F88913E44758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2724" windowWidth="21228" windowHeight="13392" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21420" yWindow="2760" windowWidth="21225" windowHeight="13395" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -957,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C04A2-646C-44CE-A1DE-AE1439B22FF5}">
   <dimension ref="A1:AK228"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U135" sqref="U135:AB141"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92:N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,7 +975,8 @@
     <col min="10" max="10" width="7.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="14" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
     <col min="15" max="15" width="4.6640625" customWidth="1"/>
     <col min="16" max="17" width="8.109375" customWidth="1"/>
     <col min="18" max="18" width="6.6640625" customWidth="1"/>
@@ -1357,7 +1358,7 @@
         <v>590.19000000000005</v>
       </c>
       <c r="G4" s="16">
-        <v>468.06799999999998</v>
+        <v>368.06799999999998</v>
       </c>
       <c r="H4" s="16">
         <v>10.933</v>
@@ -1366,7 +1367,7 @@
         <v>58.731999999999999</v>
       </c>
       <c r="J4" s="16">
-        <v>227.221</v>
+        <v>127.221</v>
       </c>
       <c r="K4" s="16">
         <v>3.4119999999999999</v>
@@ -1375,7 +1376,7 @@
         <v>11.929</v>
       </c>
       <c r="M4" s="16">
-        <v>159.136</v>
+        <v>139.136</v>
       </c>
       <c r="N4" s="16">
         <v>121.02200000000001</v>
@@ -1478,10 +1479,10 @@
         <v>14.827</v>
       </c>
       <c r="I5" s="16">
-        <v>36.491</v>
+        <v>46.491</v>
       </c>
       <c r="J5" s="16">
-        <v>95.566999999999993</v>
+        <v>105.55670000000001</v>
       </c>
       <c r="K5" s="16">
         <v>2.415</v>
@@ -1493,7 +1494,7 @@
         <v>45.613999999999997</v>
       </c>
       <c r="N5" s="16">
-        <v>55.326000000000001</v>
+        <v>65.325999999999993</v>
       </c>
       <c r="O5" s="16">
         <v>2</v>
@@ -1604,11 +1605,11 @@
       <c r="L6" s="16">
         <v>10.648999999999999</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6">
         <v>133.82400000000001</v>
       </c>
-      <c r="N6" s="16">
-        <v>92.049000000000007</v>
+      <c r="N6">
+        <v>102.04900000000001</v>
       </c>
       <c r="O6" s="16">
         <v>3</v>
@@ -1702,7 +1703,7 @@
         <v>414.42200000000003</v>
       </c>
       <c r="G7" s="16">
-        <v>222.042</v>
+        <v>322.04199999999997</v>
       </c>
       <c r="H7" s="16">
         <v>9.49</v>
@@ -1719,11 +1720,11 @@
       <c r="L7" s="16">
         <v>15.068</v>
       </c>
-      <c r="M7" s="16">
-        <v>26.672000000000001</v>
-      </c>
-      <c r="N7" s="16">
-        <v>70.116</v>
+      <c r="M7">
+        <v>82.671999999999997</v>
+      </c>
+      <c r="N7">
+        <v>90.116</v>
       </c>
       <c r="O7" s="16">
         <v>2</v>
@@ -11106,10 +11107,10 @@
         <v>9.2070000000000007</v>
       </c>
       <c r="I90" s="16">
-        <v>37.747</v>
+        <v>47.747</v>
       </c>
       <c r="J90" s="16">
-        <v>73.575000000000003</v>
+        <v>93.575000000000003</v>
       </c>
       <c r="K90" s="16">
         <v>2.0329999999999999</v>
@@ -11117,10 +11118,10 @@
       <c r="L90" s="16">
         <v>10.987</v>
       </c>
-      <c r="M90" s="16">
-        <v>73.206000000000003</v>
-      </c>
-      <c r="N90" s="16">
+      <c r="M90">
+        <v>93.206000000000003</v>
+      </c>
+      <c r="N90">
         <v>63.298999999999999</v>
       </c>
       <c r="O90" s="16">
@@ -11342,7 +11343,7 @@
         <v>10.654</v>
       </c>
       <c r="M92" s="16">
-        <v>93.369</v>
+        <v>103.369</v>
       </c>
       <c r="N92" s="16">
         <v>56.061999999999998</v>
@@ -14360,7 +14361,7 @@
         <v>527.303</v>
       </c>
       <c r="G119" s="16">
-        <v>457.79899999999998</v>
+        <v>357.79899999999998</v>
       </c>
       <c r="H119" s="16">
         <v>10.83</v>
@@ -15825,7 +15826,7 @@
         <v>531.99300000000005</v>
       </c>
       <c r="G132" s="16">
-        <v>470.61599999999999</v>
+        <v>370.61599999999999</v>
       </c>
       <c r="H132" s="16">
         <v>11.298</v>
@@ -17169,10 +17170,10 @@
         <v>28</v>
       </c>
       <c r="F144" s="16">
-        <v>378.37099999999998</v>
+        <v>478.37099999999998</v>
       </c>
       <c r="G144" s="16">
-        <v>273.03199999999998</v>
+        <v>373.03199999999998</v>
       </c>
       <c r="H144" s="16">
         <v>-14.442</v>
@@ -18455,7 +18456,7 @@
         <v>10.306445203977349</v>
       </c>
       <c r="AA161" s="16">
-        <f>Z161/W161</f>
+        <f t="shared" ref="AA161:AA204" si="9">Z161/W161</f>
         <v>0.12213161420544061</v>
       </c>
       <c r="AB161" s="16">
@@ -18521,7 +18522,7 @@
         <v>15.380073630750227</v>
       </c>
       <c r="AA162" s="16">
-        <f>Z162/W162</f>
+        <f t="shared" si="9"/>
         <v>0.15910420997327823</v>
       </c>
       <c r="AB162" s="16">
@@ -18584,7 +18585,7 @@
         <v>11.949678140467112</v>
       </c>
       <c r="AA163" s="16">
-        <f>Z163/W163</f>
+        <f t="shared" si="9"/>
         <v>0.1275442139516185</v>
       </c>
       <c r="AB163" s="16">
@@ -18650,7 +18651,7 @@
         <v>8.2169020699456894</v>
       </c>
       <c r="AA164" s="16">
-        <f>Z164/W164</f>
+        <f t="shared" si="9"/>
         <v>0.11260850802495165</v>
       </c>
       <c r="AB164" s="16">
@@ -18713,7 +18714,7 @@
         <v>6.5641387259591442</v>
       </c>
       <c r="AA165" s="16">
-        <f>Z165/W165</f>
+        <f t="shared" si="9"/>
         <v>0.13767911682151587</v>
       </c>
       <c r="AC165" s="16">
@@ -18773,7 +18774,7 @@
         <v>12.924990996865244</v>
       </c>
       <c r="AA166" s="16">
-        <f>Z166/W166</f>
+        <f t="shared" si="9"/>
         <v>0.10315636433690427</v>
       </c>
       <c r="AB166" s="16">
@@ -18836,7 +18837,7 @@
         <v>8.1947857272540485</v>
       </c>
       <c r="AA167" s="16">
-        <f>Z167/W167</f>
+        <f t="shared" si="9"/>
         <v>0.12105137405278681</v>
       </c>
       <c r="AB167" s="16">
@@ -18899,7 +18900,7 @@
         <v>7.892685207247677</v>
       </c>
       <c r="AA168" s="16">
-        <f>Z168/W168</f>
+        <f t="shared" si="9"/>
         <v>0.16499588722627617</v>
       </c>
       <c r="AB168" s="16">
@@ -18962,7 +18963,7 @@
         <v>10.722536113548486</v>
       </c>
       <c r="AA169" s="16">
-        <f>Z169/W169</f>
+        <f t="shared" si="9"/>
         <v>0.1394093065042363</v>
       </c>
       <c r="AB169" s="16">
@@ -19025,7 +19026,7 @@
         <v>6.5936093090269194</v>
       </c>
       <c r="AA170" s="16">
-        <f>Z170/W170</f>
+        <f t="shared" si="9"/>
         <v>0.11270625304546349</v>
       </c>
       <c r="AC170" s="16">
@@ -19085,7 +19086,7 @@
         <v>8.3547762101444629</v>
       </c>
       <c r="AA171" s="16">
-        <f>Z171/W171</f>
+        <f t="shared" si="9"/>
         <v>8.7632725066797978E-2</v>
       </c>
       <c r="AB171" s="16">
@@ -19145,7 +19146,7 @@
         <v>9.6629931818529737</v>
       </c>
       <c r="AA172" s="16">
-        <f>Z172/W172</f>
+        <f t="shared" si="9"/>
         <v>0.17331104072076331</v>
       </c>
       <c r="AB172" s="16">
@@ -19208,7 +19209,7 @@
         <v>9.3568205165214291</v>
       </c>
       <c r="AA173" s="16">
-        <f>Z173/W173</f>
+        <f t="shared" si="9"/>
         <v>0.11832486614795633</v>
       </c>
       <c r="AB173" s="16">
@@ -19274,7 +19275,7 @@
         <v>9.005406573440256</v>
       </c>
       <c r="AA174" s="16">
-        <f>Z174/W174</f>
+        <f t="shared" si="9"/>
         <v>0.17646846928970494</v>
       </c>
       <c r="AB174" s="16">
@@ -19337,7 +19338,7 @@
         <v>6.9572946969389022</v>
       </c>
       <c r="AA175" s="16">
-        <f>Z175/W175</f>
+        <f t="shared" si="9"/>
         <v>0.12398371837871448</v>
       </c>
       <c r="AB175" s="16">
@@ -19400,7 +19401,7 @@
         <v>6.7800168756298449</v>
       </c>
       <c r="AA176" s="16">
-        <f>Z176/W176</f>
+        <f t="shared" si="9"/>
         <v>0.11925277025658945</v>
       </c>
       <c r="AB176" s="16">
@@ -19463,7 +19464,7 @@
         <v>16.782999770437268</v>
       </c>
       <c r="AA177" s="16">
-        <f>Z177/W177</f>
+        <f t="shared" si="9"/>
         <v>0.14685124799132609</v>
       </c>
       <c r="AB177" s="16">
@@ -19526,7 +19527,7 @@
         <v>11.110290975361922</v>
       </c>
       <c r="AA178" s="16">
-        <f>Z178/W178</f>
+        <f t="shared" si="9"/>
         <v>0.16683684242683314</v>
       </c>
       <c r="AB178" s="16">
@@ -19589,7 +19590,7 @@
         <v>11.090234750821104</v>
       </c>
       <c r="AA179" s="16">
-        <f>Z179/W179</f>
+        <f t="shared" si="9"/>
         <v>0.12811823538854705</v>
       </c>
       <c r="AB179" s="16">
@@ -19652,7 +19653,7 @@
         <v>10.471168457725412</v>
       </c>
       <c r="AA180" s="16">
-        <f>Z180/W180</f>
+        <f t="shared" si="9"/>
         <v>0.20599019916836878</v>
       </c>
       <c r="AB180" s="16">
@@ -19715,7 +19716,7 @@
         <v>9.6459316079312476</v>
       </c>
       <c r="AA181" s="16">
-        <f>Z181/W181</f>
+        <f t="shared" si="9"/>
         <v>0.16076552679885411</v>
       </c>
       <c r="AB181" s="16">
@@ -19778,7 +19779,7 @@
         <v>9.0453508423712261</v>
       </c>
       <c r="AA182" s="16">
-        <f>Z182/W182</f>
+        <f t="shared" si="9"/>
         <v>0.2015209284909811</v>
       </c>
       <c r="AB182" s="16">
@@ -19841,7 +19842,7 @@
         <v>13.578424366364709</v>
       </c>
       <c r="AA183" s="16">
-        <f>Z183/W183</f>
+        <f t="shared" si="9"/>
         <v>0.15737398758553811</v>
       </c>
       <c r="AB183" s="16">
@@ -19904,7 +19905,7 @@
         <v>9.4381944039676817</v>
       </c>
       <c r="AA184" s="16">
-        <f>Z184/W184</f>
+        <f t="shared" si="9"/>
         <v>0.19039013716766071</v>
       </c>
       <c r="AB184" s="16">
@@ -19967,7 +19968,7 @@
         <v>7.201986809831828</v>
       </c>
       <c r="AA185" s="16">
-        <f>Z185/W185</f>
+        <f t="shared" si="9"/>
         <v>0.17601597091238674</v>
       </c>
       <c r="AB185" s="16">
@@ -20030,7 +20031,7 @@
         <v>5.682562343151857</v>
       </c>
       <c r="AA186" s="16">
-        <f>Z186/W186</f>
+        <f t="shared" si="9"/>
         <v>0.14712135516250766</v>
       </c>
       <c r="AB186" s="16">
@@ -20093,7 +20094,7 @@
         <v>7.8786724466917182</v>
       </c>
       <c r="AA187" s="16">
-        <f>Z187/W187</f>
+        <f t="shared" si="9"/>
         <v>0.14225175002490226</v>
       </c>
       <c r="AB187" s="16">
@@ -20153,7 +20154,7 @@
         <v>16.032890632875443</v>
       </c>
       <c r="AA188" s="16">
-        <f>Z188/W188</f>
+        <f t="shared" si="9"/>
         <v>0.13093641010259829</v>
       </c>
       <c r="AB188" s="16">
@@ -20216,7 +20217,7 @@
         <v>7.4904016043402128</v>
       </c>
       <c r="AA189" s="16">
-        <f>Z189/W189</f>
+        <f t="shared" si="9"/>
         <v>0.13071778840513734</v>
       </c>
       <c r="AB189" s="16">
@@ -20279,7 +20280,7 @@
         <v>9.9020408099420383</v>
       </c>
       <c r="AA190" s="16">
-        <f>Z190/W190</f>
+        <f t="shared" si="9"/>
         <v>0.20589038721127054</v>
       </c>
       <c r="AB190" s="16">
@@ -20342,7 +20343,7 @@
         <v>19.537459151258705</v>
       </c>
       <c r="AA191" s="16">
-        <f>Z191/W191</f>
+        <f t="shared" si="9"/>
         <v>0.17470157214240276</v>
       </c>
       <c r="AB191" s="16">
@@ -20405,7 +20406,7 @@
         <v>17.202270779467021</v>
       </c>
       <c r="AA192" s="16">
-        <f>Z192/W192</f>
+        <f t="shared" si="9"/>
         <v>0.21286645976138618</v>
       </c>
       <c r="AC192" s="16">
@@ -20465,7 +20466,7 @@
         <v>7.4423440371645615</v>
       </c>
       <c r="AA193" s="16">
-        <f>Z193/W193</f>
+        <f t="shared" si="9"/>
         <v>0.15838284805315853</v>
       </c>
       <c r="AB193" s="16">
@@ -20528,7 +20529,7 @@
         <v>8.5624533138351264</v>
       </c>
       <c r="AA194" s="16">
-        <f>Z194/W194</f>
+        <f t="shared" si="9"/>
         <v>0.17142763673163131</v>
       </c>
       <c r="AB194" s="16">
@@ -20591,7 +20592,7 @@
         <v>7.4817495017277968</v>
       </c>
       <c r="AA195" s="16">
-        <f>Z195/W195</f>
+        <f t="shared" si="9"/>
         <v>0.13345372578332754</v>
       </c>
       <c r="AB195" s="16">
@@ -20654,7 +20655,7 @@
         <v>8.3779832250171093</v>
       </c>
       <c r="AA196" s="16">
-        <f>Z196/W196</f>
+        <f t="shared" si="9"/>
         <v>0.17405028989431784</v>
       </c>
       <c r="AB196" s="16">
@@ -20717,7 +20718,7 @@
         <v>7.3497746743994075</v>
       </c>
       <c r="AA197" s="16">
-        <f>Z197/W197</f>
+        <f t="shared" si="9"/>
         <v>0.16090726767214211</v>
       </c>
       <c r="AB197" s="16">
@@ -20780,7 +20781,7 @@
         <v>8.0591962834370054</v>
       </c>
       <c r="AA198" s="16">
-        <f>Z198/W198</f>
+        <f t="shared" si="9"/>
         <v>0.14308911470500324</v>
       </c>
       <c r="AB198" s="16">
@@ -20843,7 +20844,7 @@
         <v>11.621203424995075</v>
       </c>
       <c r="AA199" s="16">
-        <f>Z199/W199</f>
+        <f t="shared" si="9"/>
         <v>0.17624573914684477</v>
       </c>
       <c r="AB199" s="16">
@@ -20906,7 +20907,7 @@
         <v>11.627106884999215</v>
       </c>
       <c r="AA200" s="16">
-        <f>Z200/W200</f>
+        <f t="shared" si="9"/>
         <v>0.1448108797301407</v>
       </c>
       <c r="AB200" s="16">
@@ -20969,7 +20970,7 @@
         <v>26.092812738186797</v>
       </c>
       <c r="AA201" s="16">
-        <f>Z201/W201</f>
+        <f t="shared" si="9"/>
         <v>0.22056088957171197</v>
       </c>
       <c r="AB201" s="16">
@@ -21032,7 +21033,7 @@
         <v>22.62697657548394</v>
       </c>
       <c r="AA202" s="16">
-        <f>Z202/W202</f>
+        <f t="shared" si="9"/>
         <v>0.19668505534647396</v>
       </c>
       <c r="AB202" s="16">
@@ -21095,7 +21096,7 @@
         <v>12.141136969602851</v>
       </c>
       <c r="AA203" s="16">
-        <f>Z203/W203</f>
+        <f t="shared" si="9"/>
         <v>0.14093701923601859</v>
       </c>
       <c r="AB203" s="16">
@@ -21158,7 +21159,7 @@
         <v>9.8938988646984036</v>
       </c>
       <c r="AA204" s="16">
-        <f>Z204/W204</f>
+        <f t="shared" si="9"/>
         <v>0.13900399400132396</v>
       </c>
       <c r="AB204" s="16">
@@ -21656,7 +21657,7 @@
         <v>11.36736694489908</v>
       </c>
       <c r="AA212" s="16">
-        <f t="shared" ref="AA212:AA225" si="9">Z212/W212</f>
+        <f t="shared" ref="AA212:AA225" si="10">Z212/W212</f>
         <v>9.0938935559192649E-2</v>
       </c>
       <c r="AB212" s="16">
@@ -21722,7 +21723,7 @@
         <v>6.9028199575329037</v>
       </c>
       <c r="AA213" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10338076691468936</v>
       </c>
       <c r="AB213" s="16">
@@ -21782,7 +21783,7 @@
         <v>8.1452353057250182</v>
       </c>
       <c r="AA214" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.0274615690249118E-2</v>
       </c>
       <c r="AB214" s="16">
@@ -21848,7 +21849,7 @@
         <v>9.8046406524249363</v>
       </c>
       <c r="AA215" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1210760872951883</v>
       </c>
       <c r="AB215" s="16">
@@ -21914,7 +21915,7 @@
         <v>11.225912807855885</v>
       </c>
       <c r="AA216" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1783660426273031</v>
       </c>
       <c r="AB216" s="16">
@@ -21977,7 +21978,7 @@
         <v>12.489173345891528</v>
       </c>
       <c r="AA217" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.12624625052180552</v>
       </c>
       <c r="AB217" s="16">
@@ -22086,7 +22087,7 @@
         <v>8.9723014993320565</v>
       </c>
       <c r="AA219" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10871399014715098</v>
       </c>
       <c r="AB219" s="16">
@@ -22152,7 +22153,7 @@
         <v>11.033252284194534</v>
       </c>
       <c r="AA220" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.13626556275346391</v>
       </c>
       <c r="AB220" s="16">
@@ -22260,7 +22261,7 @@
         <v>5.6067012450175557</v>
       </c>
       <c r="AA221" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.1936873119452774E-2</v>
       </c>
       <c r="AB221" s="16">
@@ -22368,7 +22369,7 @@
         <v>7.765208762686715</v>
       </c>
       <c r="AA222" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10352173881654281</v>
       </c>
       <c r="AB222" s="16">
@@ -22477,7 +22478,7 @@
         <v>8.2537961768399359</v>
       </c>
       <c r="AA223" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.3706363086481522E-2</v>
       </c>
       <c r="AB223" s="16">
@@ -22585,7 +22586,7 @@
         <v>10.773662292714288</v>
       </c>
       <c r="AA224" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.11235975883765038</v>
       </c>
       <c r="AB224" s="16">
@@ -22648,7 +22649,7 @@
         <v>7.6938802023817994</v>
       </c>
       <c r="AA225" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1455751434293806E-2</v>
       </c>
       <c r="AB225" s="16">

--- a/Data/in/input.xlsx
+++ b/Data/in/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\documents\Repositories\gini\Data\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5879F1CB-F806-4D61-900E-F88913E44758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF16340A-5382-49DF-BF9B-E48A96916238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21420" yWindow="2760" windowWidth="21225" windowHeight="13395" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="133">
   <si>
     <t>Saline d1</t>
   </si>
@@ -342,9 +342,6 @@
     <t>ADP</t>
   </si>
   <si>
-    <t>210618</t>
-  </si>
-  <si>
     <t>t35</t>
   </si>
   <si>
@@ -486,7 +483,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,12 +493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -628,10 +619,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -957,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C04A2-646C-44CE-A1DE-AE1439B22FF5}">
   <dimension ref="A1:AK228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M92" sqref="M92:N92"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C229" sqref="C229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,31 +1014,31 @@
         <v>77</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>79</v>
       </c>
       <c r="M1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>116</v>
       </c>
       <c r="O1" s="18" t="s">
         <v>82</v>
       </c>
       <c r="P1" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>116</v>
       </c>
       <c r="R1" s="18" t="s">
         <v>85</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T1" s="18" t="s">
         <v>87</v>
@@ -1060,49 +1047,49 @@
         <v>88</v>
       </c>
       <c r="V1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="X1" s="18" t="s">
         <v>91</v>
       </c>
       <c r="Y1" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AD1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AE1" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AF1" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AG1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AH1" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="AH1" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="AI1" s="18" t="s">
         <v>97</v>
       </c>
       <c r="AJ1" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AK1" s="20" t="s">
         <v>100</v>
@@ -1113,7 +1100,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="16">
-        <v>30518</v>
+        <v>180503</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
@@ -1228,7 +1215,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="16">
-        <v>30518</v>
+        <v>180503</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>0</v>
@@ -1343,7 +1330,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="16">
-        <v>30518</v>
+        <v>180503</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>0</v>
@@ -1458,7 +1445,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="16">
-        <v>70518</v>
+        <v>180507</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>3</v>
@@ -1573,7 +1560,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="16">
-        <v>70518</v>
+        <v>180507</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>3</v>
@@ -1688,7 +1675,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="16">
-        <v>70518</v>
+        <v>180507</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>3</v>
@@ -1803,7 +1790,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="16">
-        <v>70518</v>
+        <v>180507</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>3</v>
@@ -1918,7 +1905,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="16">
-        <v>70518</v>
+        <v>180507</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>3</v>
@@ -2033,7 +2020,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="16">
-        <v>80518</v>
+        <v>180508</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>0</v>
@@ -2148,7 +2135,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="16">
-        <v>80518</v>
+        <v>180508</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>0</v>
@@ -2263,7 +2250,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="16">
-        <v>80518</v>
+        <v>180508</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>0</v>
@@ -2378,7 +2365,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="16">
-        <v>50618</v>
+        <v>180605</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>3</v>
@@ -2491,7 +2478,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="16">
-        <v>50618</v>
+        <v>180605</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>3</v>
@@ -2604,7 +2591,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="16">
-        <v>50618</v>
+        <v>180605</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>3</v>
@@ -2714,7 +2701,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="16">
-        <v>50618</v>
+        <v>180605</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>3</v>
@@ -2827,7 +2814,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="16">
-        <v>50618</v>
+        <v>180605</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>3</v>
@@ -2860,7 +2847,7 @@
         <v>14.239000000000001</v>
       </c>
       <c r="M17" s="16">
-        <v>78.88</v>
+        <v>98.88</v>
       </c>
       <c r="N17" s="16">
         <v>109.956</v>
@@ -2940,7 +2927,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="16">
-        <v>50618</v>
+        <v>180605</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>3</v>
@@ -2973,7 +2960,7 @@
         <v>14.43</v>
       </c>
       <c r="M18" s="16">
-        <v>73.94</v>
+        <v>83.94</v>
       </c>
       <c r="N18" s="16">
         <v>62.941000000000003</v>
@@ -3053,7 +3040,7 @@
         <v>30</v>
       </c>
       <c r="B19" s="16">
-        <v>50618</v>
+        <v>180605</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>3</v>
@@ -3166,7 +3153,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="16">
-        <v>50618</v>
+        <v>180605</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>3</v>
@@ -3175,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="16">
         <v>460.68299999999999</v>
@@ -3199,7 +3186,7 @@
         <v>12.138999999999999</v>
       </c>
       <c r="M20" s="16">
-        <v>82.656999999999996</v>
+        <v>92.656999999999996</v>
       </c>
       <c r="N20" s="16">
         <v>81.409000000000006</v>
@@ -3280,7 +3267,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>80818</v>
+        <v>180808</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>0</v>
@@ -3395,7 +3382,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="16">
-        <v>80818</v>
+        <v>180808</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>0</v>
@@ -3507,7 +3494,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="16">
-        <v>80818</v>
+        <v>180808</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>0</v>
@@ -3622,7 +3609,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="16">
-        <v>80818</v>
+        <v>180808</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>0</v>
@@ -3734,7 +3721,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="16">
-        <v>80818</v>
+        <v>180808</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>0</v>
@@ -3849,7 +3836,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="16">
-        <v>80818</v>
+        <v>180808</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>0</v>
@@ -3964,7 +3951,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="16">
-        <v>220918</v>
+        <v>180922</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>51</v>
@@ -4079,7 +4066,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="16">
-        <v>11018</v>
+        <v>181001</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>52</v>
@@ -4194,7 +4181,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="16">
-        <v>21018</v>
+        <v>181002</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>52</v>
@@ -4218,7 +4205,7 @@
         <v>52.555</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K29" s="16">
         <v>3.4119999999999999</v>
@@ -4309,7 +4296,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="16">
-        <v>21018</v>
+        <v>181002</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>52</v>
@@ -4424,7 +4411,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="16">
-        <v>311018</v>
+        <v>181031</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>3</v>
@@ -4539,7 +4526,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="16">
-        <v>311018</v>
+        <v>181031</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>3</v>
@@ -4654,7 +4641,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="16">
-        <v>311018</v>
+        <v>181031</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>3</v>
@@ -4764,118 +4751,118 @@
         <v>11.406000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="22">
-        <v>31218</v>
-      </c>
-      <c r="C34" s="22" t="s">
+      <c r="B34" s="16">
+        <v>181203</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="16">
         <v>2</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="16">
         <v>360.89699999999999</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="16">
         <v>140.221</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H34" s="16">
         <v>12.157999999999999</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="16">
         <v>58.722000000000001</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="16">
         <v>205.09399999999999</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="16">
         <v>3.2050000000000001</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="16">
         <v>12.551</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="16">
         <v>170.952</v>
       </c>
-      <c r="N34" s="22">
+      <c r="N34" s="16">
         <v>59.716999999999999</v>
       </c>
-      <c r="O34" s="22">
+      <c r="O34" s="16">
         <v>5</v>
       </c>
-      <c r="P34" s="22">
+      <c r="P34" s="16">
         <v>198.39400000000001</v>
       </c>
-      <c r="Q34" s="22">
+      <c r="Q34" s="16">
         <v>146.28</v>
       </c>
-      <c r="R34" s="22">
+      <c r="R34" s="16">
         <v>51.509</v>
       </c>
-      <c r="S34" s="22">
+      <c r="S34" s="16">
         <v>6</v>
       </c>
-      <c r="T34" s="22">
+      <c r="T34" s="16">
         <v>5</v>
       </c>
-      <c r="U34" s="22">
+      <c r="U34" s="16">
         <v>1.03545</v>
       </c>
-      <c r="V34" s="22">
+      <c r="V34" s="16">
         <v>0.53125</v>
       </c>
-      <c r="W34" s="22">
+      <c r="W34" s="16">
         <v>120.76</v>
       </c>
-      <c r="X34" s="22">
+      <c r="X34" s="16">
         <v>-62.364100000000001</v>
       </c>
-      <c r="Y34" s="22">
+      <c r="Y34" s="16">
         <v>119.07911579044206</v>
       </c>
-      <c r="Z34" s="22">
+      <c r="Z34" s="16">
         <v>9.2513802249795898</v>
       </c>
-      <c r="AA34" s="22">
+      <c r="AA34" s="16">
         <f t="shared" si="0"/>
         <v>7.6609640816326513E-2</v>
       </c>
-      <c r="AB34" s="22">
+      <c r="AB34" s="16">
         <v>0.46400000000000008</v>
       </c>
-      <c r="AC34" s="22">
+      <c r="AC34" s="16">
         <v>4</v>
       </c>
-      <c r="AD34" s="22">
+      <c r="AD34" s="16">
         <v>117.60312500000001</v>
       </c>
-      <c r="AE34" s="22">
+      <c r="AE34" s="16">
         <v>0.86506125442153348</v>
       </c>
-      <c r="AF34" s="22">
+      <c r="AF34" s="16">
         <v>288.375</v>
       </c>
-      <c r="AG34" s="22">
+      <c r="AG34" s="16">
         <v>93.625</v>
       </c>
-      <c r="AH34" s="23" t="s">
+      <c r="AH34" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="AI34" s="23" t="s">
+      <c r="AI34" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="AJ34" s="22">
+      <c r="AJ34" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="22">
+      <c r="AK34" s="16">
         <v>0.53125</v>
       </c>
     </row>
@@ -4884,7 +4871,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="16">
-        <v>31218</v>
+        <v>181203</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>53</v>
@@ -4999,7 +4986,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="16">
-        <v>31218</v>
+        <v>181203</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>53</v>
@@ -5114,7 +5101,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="16">
-        <v>171218</v>
+        <v>181217</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>53</v>
@@ -5229,7 +5216,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="16">
-        <v>171218</v>
+        <v>181217</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>53</v>
@@ -5344,7 +5331,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="16">
-        <v>171218</v>
+        <v>181217</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>53</v>
@@ -5459,7 +5446,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="16">
-        <v>171218</v>
+        <v>181217</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>53</v>
@@ -5574,7 +5561,7 @@
         <v>30</v>
       </c>
       <c r="B41" s="16">
-        <v>171218</v>
+        <v>181217</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>53</v>
@@ -5689,7 +5676,7 @@
         <v>29</v>
       </c>
       <c r="B42" s="16">
-        <v>171218</v>
+        <v>181217</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>53</v>
@@ -5804,7 +5791,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="16">
-        <v>70219</v>
+        <v>190207</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>53</v>
@@ -5919,7 +5906,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="16">
-        <v>70219</v>
+        <v>190207</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>53</v>
@@ -6034,7 +6021,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="16">
-        <v>80219</v>
+        <v>190208</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>53</v>
@@ -6146,7 +6133,7 @@
         <v>29</v>
       </c>
       <c r="B46" s="16">
-        <v>80219</v>
+        <v>190208</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>53</v>
@@ -6258,7 +6245,7 @@
         <v>30</v>
       </c>
       <c r="B47" s="16">
-        <v>80219</v>
+        <v>190208</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>53</v>
@@ -6370,7 +6357,7 @@
         <v>30</v>
       </c>
       <c r="B48" s="16">
-        <v>80219</v>
+        <v>190208</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>53</v>
@@ -6482,7 +6469,7 @@
         <v>29</v>
       </c>
       <c r="B49" s="16">
-        <v>80219</v>
+        <v>190208</v>
       </c>
       <c r="C49" s="16" t="s">
         <v>53</v>
@@ -6594,7 +6581,7 @@
         <v>30</v>
       </c>
       <c r="B50" s="16">
-        <v>80219</v>
+        <v>190208</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>53</v>
@@ -6706,7 +6693,7 @@
         <v>29</v>
       </c>
       <c r="B51" s="16">
-        <v>120219</v>
+        <v>190212</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>53</v>
@@ -6818,7 +6805,7 @@
         <v>29</v>
       </c>
       <c r="B52" s="16">
-        <v>120219</v>
+        <v>190212</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>53</v>
@@ -6930,7 +6917,7 @@
         <v>29</v>
       </c>
       <c r="B53" s="16">
-        <v>120219</v>
+        <v>190212</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>53</v>
@@ -7039,7 +7026,7 @@
         <v>29</v>
       </c>
       <c r="B54" s="17">
-        <v>150519</v>
+        <v>190515</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>52</v>
@@ -7110,14 +7097,14 @@
       <c r="Y54" s="17">
         <v>54.985067294450829</v>
       </c>
-      <c r="Z54" s="24">
+      <c r="Z54" s="22">
         <v>6.4490319013438535</v>
       </c>
       <c r="AA54" s="16">
         <f>Z54/W54</f>
         <v>7.3085475449062687E-2</v>
       </c>
-      <c r="AB54" s="24">
+      <c r="AB54" s="22">
         <v>0.21313868613138687</v>
       </c>
       <c r="AC54" s="17">
@@ -7129,13 +7116,13 @@
       <c r="AE54" s="17">
         <v>0.88212927615178671</v>
       </c>
-      <c r="AF54" s="24">
+      <c r="AF54" s="22">
         <v>303.375</v>
       </c>
-      <c r="AG54" s="24">
+      <c r="AG54" s="22">
         <v>83.5</v>
       </c>
-      <c r="AH54" s="25">
+      <c r="AH54" s="23">
         <v>3.28125</v>
       </c>
       <c r="AI54" s="17"/>
@@ -7151,7 +7138,7 @@
         <v>29</v>
       </c>
       <c r="B55" s="17">
-        <v>150519</v>
+        <v>190515</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>52</v>
@@ -7222,14 +7209,14 @@
       <c r="Y55" s="17">
         <v>8.0075291789899996</v>
       </c>
-      <c r="Z55" s="24">
+      <c r="Z55" s="22">
         <v>11.557776588541895</v>
       </c>
       <c r="AA55" s="16">
         <f>Z55/W55</f>
         <v>0.10974743348170345</v>
       </c>
-      <c r="AB55" s="24">
+      <c r="AB55" s="22">
         <v>0.21225710014947685</v>
       </c>
       <c r="AC55" s="17">
@@ -7241,13 +7228,13 @@
       <c r="AE55" s="17">
         <v>0.66650770914377055</v>
       </c>
-      <c r="AF55" s="24">
+      <c r="AF55" s="22">
         <v>349.75</v>
       </c>
-      <c r="AG55" s="24">
+      <c r="AG55" s="22">
         <v>126.875</v>
       </c>
-      <c r="AH55" s="25">
+      <c r="AH55" s="23">
         <v>9.0625</v>
       </c>
       <c r="AI55" s="17"/>
@@ -7263,7 +7250,7 @@
         <v>29</v>
       </c>
       <c r="B56" s="17">
-        <v>150519</v>
+        <v>190515</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>52</v>
@@ -7334,14 +7321,14 @@
       <c r="Y56" s="17">
         <v>31.440799751835623</v>
       </c>
-      <c r="Z56" s="24">
+      <c r="Z56" s="22">
         <v>7.204158964789797</v>
       </c>
       <c r="AA56" s="16">
         <f>Z56/W56</f>
         <v>6.4460738243994828E-2</v>
       </c>
-      <c r="AB56" s="24">
+      <c r="AB56" s="22">
         <v>0.76647398843930636</v>
       </c>
       <c r="AC56" s="17">
@@ -7353,13 +7340,13 @@
       <c r="AE56" s="17">
         <v>0.90498754394407399</v>
       </c>
-      <c r="AF56" s="24">
+      <c r="AF56" s="22">
         <v>353</v>
       </c>
-      <c r="AG56" s="24">
+      <c r="AG56" s="22">
         <v>96.875</v>
       </c>
-      <c r="AH56" s="25">
+      <c r="AH56" s="23">
         <v>7.8125</v>
       </c>
       <c r="AI56" s="17"/>
@@ -7375,7 +7362,7 @@
         <v>29</v>
       </c>
       <c r="B57" s="16">
-        <v>160519</v>
+        <v>190516</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>52</v>
@@ -7487,7 +7474,7 @@
         <v>29</v>
       </c>
       <c r="B58" s="16">
-        <v>160519</v>
+        <v>190516</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>52</v>
@@ -7599,7 +7586,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="16">
-        <v>160519</v>
+        <v>190516</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>52</v>
@@ -7711,7 +7698,7 @@
         <v>29</v>
       </c>
       <c r="B60" s="16">
-        <v>160519</v>
+        <v>190516</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>52</v>
@@ -7823,7 +7810,7 @@
         <v>29</v>
       </c>
       <c r="B61" s="16">
-        <v>170519</v>
+        <v>190517</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>52</v>
@@ -7935,7 +7922,7 @@
         <v>29</v>
       </c>
       <c r="B62" s="16">
-        <v>170519</v>
+        <v>190517</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>52</v>
@@ -8047,7 +8034,7 @@
         <v>29</v>
       </c>
       <c r="B63" s="16">
-        <v>220519</v>
+        <v>190522</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>42</v>
@@ -8162,7 +8149,7 @@
         <v>30</v>
       </c>
       <c r="B64" s="16">
-        <v>220519</v>
+        <v>190522</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>42</v>
@@ -8277,7 +8264,7 @@
         <v>29</v>
       </c>
       <c r="B65" s="16">
-        <v>220519</v>
+        <v>190522</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>42</v>
@@ -8392,7 +8379,7 @@
         <v>29</v>
       </c>
       <c r="B66" s="16">
-        <v>220519</v>
+        <v>190522</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>42</v>
@@ -8501,7 +8488,7 @@
         <v>29</v>
       </c>
       <c r="B67" s="16">
-        <v>290519</v>
+        <v>190529</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>42</v>
@@ -8616,7 +8603,7 @@
         <v>30</v>
       </c>
       <c r="B68" s="16">
-        <v>290519</v>
+        <v>190529</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>42</v>
@@ -8728,7 +8715,7 @@
         <v>29</v>
       </c>
       <c r="B69" s="16">
-        <v>290519</v>
+        <v>190529</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>42</v>
@@ -8840,7 +8827,7 @@
         <v>29</v>
       </c>
       <c r="B70" s="16">
-        <v>300519</v>
+        <v>190530</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>42</v>
@@ -8949,7 +8936,7 @@
         <v>29</v>
       </c>
       <c r="B71" s="16">
-        <v>300519</v>
+        <v>190530</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>42</v>
@@ -9061,7 +9048,7 @@
         <v>30</v>
       </c>
       <c r="B72" s="16">
-        <v>300519</v>
+        <v>190530</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>42</v>
@@ -9173,7 +9160,7 @@
         <v>30</v>
       </c>
       <c r="B73" s="16">
-        <v>300519</v>
+        <v>190530</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>42</v>
@@ -9285,7 +9272,7 @@
         <v>29</v>
       </c>
       <c r="B74" s="16">
-        <v>310120</v>
+        <v>200131</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>3</v>
@@ -9318,7 +9305,7 @@
         <v>14.329000000000001</v>
       </c>
       <c r="M74" s="16">
-        <v>61.456000000000003</v>
+        <v>71.456000000000003</v>
       </c>
       <c r="N74" s="16">
         <v>60.002000000000002</v>
@@ -9400,7 +9387,7 @@
         <v>30</v>
       </c>
       <c r="B75" s="16">
-        <v>250320</v>
+        <v>200325</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>51</v>
@@ -9512,7 +9499,7 @@
         <v>29</v>
       </c>
       <c r="B76" s="16">
-        <v>250320</v>
+        <v>200325</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>51</v>
@@ -9627,7 +9614,7 @@
         <v>29</v>
       </c>
       <c r="B77" s="16">
-        <v>260320</v>
+        <v>200326</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>51</v>
@@ -9739,7 +9726,7 @@
         <v>29</v>
       </c>
       <c r="B78" s="16">
-        <v>260320</v>
+        <v>200326</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>51</v>
@@ -9851,7 +9838,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="16">
-        <v>260320</v>
+        <v>200326</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>51</v>
@@ -9966,7 +9953,7 @@
         <v>29</v>
       </c>
       <c r="B80" s="16">
-        <v>260420</v>
+        <v>200426</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>3</v>
@@ -10078,7 +10065,7 @@
         <v>29</v>
       </c>
       <c r="B81" s="16">
-        <v>260420</v>
+        <v>200426</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>3</v>
@@ -10190,7 +10177,7 @@
         <v>29</v>
       </c>
       <c r="B82" s="16">
-        <v>280420</v>
+        <v>200428</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>3</v>
@@ -10302,7 +10289,7 @@
         <v>29</v>
       </c>
       <c r="B83" s="16">
-        <v>280420</v>
+        <v>200428</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>3</v>
@@ -10414,7 +10401,7 @@
         <v>30</v>
       </c>
       <c r="B84" s="16">
-        <v>280420</v>
+        <v>200428</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>3</v>
@@ -10526,7 +10513,7 @@
         <v>30</v>
       </c>
       <c r="B85" s="16">
-        <v>290420</v>
+        <v>200429</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>3</v>
@@ -10638,7 +10625,7 @@
         <v>29</v>
       </c>
       <c r="B86" s="16">
-        <v>290420</v>
+        <v>200429</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>3</v>
@@ -10750,7 +10737,7 @@
         <v>29</v>
       </c>
       <c r="B87" s="16">
-        <v>290420</v>
+        <v>200429</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>3</v>
@@ -10862,7 +10849,7 @@
         <v>29</v>
       </c>
       <c r="B88" s="16">
-        <v>290420</v>
+        <v>200429</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>3</v>
@@ -10974,7 +10961,7 @@
         <v>29</v>
       </c>
       <c r="B89" s="16">
-        <v>20520</v>
+        <v>200502</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>3</v>
@@ -11086,7 +11073,7 @@
         <v>30</v>
       </c>
       <c r="B90" s="16">
-        <v>20520</v>
+        <v>200502</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>3</v>
@@ -11198,7 +11185,7 @@
         <v>29</v>
       </c>
       <c r="B91" s="16">
-        <v>20520</v>
+        <v>200502</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>3</v>
@@ -11310,7 +11297,7 @@
         <v>29</v>
       </c>
       <c r="B92" s="16">
-        <v>20520</v>
+        <v>200502</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>3</v>
@@ -11422,7 +11409,7 @@
         <v>29</v>
       </c>
       <c r="B93" s="16">
-        <v>60520</v>
+        <v>200506</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>3</v>
@@ -11537,7 +11524,7 @@
         <v>29</v>
       </c>
       <c r="B94" s="16">
-        <v>60520</v>
+        <v>200506</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>3</v>
@@ -11649,7 +11636,7 @@
         <v>30</v>
       </c>
       <c r="B95" s="16">
-        <v>60520</v>
+        <v>200506</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>3</v>
@@ -11758,7 +11745,7 @@
         <v>30</v>
       </c>
       <c r="B96" s="16">
-        <v>140520</v>
+        <v>200514</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>51</v>
@@ -11870,7 +11857,7 @@
         <v>29</v>
       </c>
       <c r="B97" s="16">
-        <v>150520</v>
+        <v>200515</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>51</v>
@@ -11982,7 +11969,7 @@
         <v>30</v>
       </c>
       <c r="B98" s="16">
-        <v>150520</v>
+        <v>200515</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>51</v>
@@ -12094,7 +12081,7 @@
         <v>29</v>
       </c>
       <c r="B99" s="16">
-        <v>150520</v>
+        <v>200515</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>51</v>
@@ -12209,7 +12196,7 @@
         <v>29</v>
       </c>
       <c r="B100" s="16">
-        <v>180520</v>
+        <v>200518</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>51</v>
@@ -12321,7 +12308,7 @@
         <v>29</v>
       </c>
       <c r="B101" s="16">
-        <v>180520</v>
+        <v>200518</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>51</v>
@@ -12436,7 +12423,7 @@
         <v>29</v>
       </c>
       <c r="B102" s="16">
-        <v>190520</v>
+        <v>200519</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>51</v>
@@ -12548,7 +12535,7 @@
         <v>30</v>
       </c>
       <c r="B103" s="16">
-        <v>190520</v>
+        <v>200519</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>51</v>
@@ -12663,7 +12650,7 @@
         <v>29</v>
       </c>
       <c r="B104" s="16">
-        <v>190520</v>
+        <v>200519</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>51</v>
@@ -12775,7 +12762,7 @@
         <v>30</v>
       </c>
       <c r="B105" s="16">
-        <v>190520</v>
+        <v>200519</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>51</v>
@@ -13111,7 +13098,7 @@
         <v>30</v>
       </c>
       <c r="B108" s="16">
-        <v>210520</v>
+        <v>200521</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>51</v>
@@ -13223,7 +13210,7 @@
         <v>29</v>
       </c>
       <c r="B109" s="16">
-        <v>210520</v>
+        <v>200521</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>51</v>
@@ -13335,7 +13322,7 @@
         <v>29</v>
       </c>
       <c r="B110" s="16">
-        <v>210520</v>
+        <v>200521</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>51</v>
@@ -13447,7 +13434,7 @@
         <v>30</v>
       </c>
       <c r="B111" s="16">
-        <v>240520</v>
+        <v>200524</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>51</v>
@@ -13562,7 +13549,7 @@
         <v>30</v>
       </c>
       <c r="B112" s="16">
-        <v>240520</v>
+        <v>200524</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>51</v>
@@ -13677,7 +13664,7 @@
         <v>29</v>
       </c>
       <c r="B113" s="16">
-        <v>240520</v>
+        <v>200524</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>51</v>
@@ -13789,7 +13776,7 @@
         <v>29</v>
       </c>
       <c r="B114" s="16">
-        <v>240520</v>
+        <v>200524</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>51</v>
@@ -13901,7 +13888,7 @@
         <v>29</v>
       </c>
       <c r="B115" s="16">
-        <v>270520</v>
+        <v>200527</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>42</v>
@@ -14013,7 +14000,7 @@
         <v>30</v>
       </c>
       <c r="B116" s="16">
-        <v>270520</v>
+        <v>200527</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>42</v>
@@ -14122,7 +14109,7 @@
         <v>29</v>
       </c>
       <c r="B117" s="16">
-        <v>270520</v>
+        <v>200527</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>42</v>
@@ -14234,7 +14221,7 @@
         <v>29</v>
       </c>
       <c r="B118" s="17">
-        <v>41220</v>
+        <v>201204</v>
       </c>
       <c r="C118" s="17" t="s">
         <v>3</v>
@@ -14345,8 +14332,8 @@
       <c r="A119" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B119" s="16">
-        <v>41220</v>
+      <c r="B119" s="17">
+        <v>201204</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>0</v>
@@ -14457,8 +14444,8 @@
       <c r="A120" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B120" s="16">
-        <v>41220</v>
+      <c r="B120" s="17">
+        <v>201204</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>0</v>
@@ -14570,7 +14557,7 @@
         <v>29</v>
       </c>
       <c r="B121" s="16">
-        <v>81220</v>
+        <v>201208</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>0</v>
@@ -14682,7 +14669,7 @@
         <v>29</v>
       </c>
       <c r="B122" s="16">
-        <v>81220</v>
+        <v>201208</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>0</v>
@@ -14794,7 +14781,7 @@
         <v>29</v>
       </c>
       <c r="B123" s="16">
-        <v>91220</v>
+        <v>201209</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>0</v>
@@ -14906,7 +14893,7 @@
         <v>29</v>
       </c>
       <c r="B124" s="16">
-        <v>91220</v>
+        <v>201209</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>0</v>
@@ -15018,7 +15005,7 @@
         <v>29</v>
       </c>
       <c r="B125" s="16">
-        <v>130121</v>
+        <v>210113</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>0</v>
@@ -15130,7 +15117,7 @@
         <v>29</v>
       </c>
       <c r="B126" s="16">
-        <v>130121</v>
+        <v>210113</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>0</v>
@@ -15245,7 +15232,7 @@
         <v>29</v>
       </c>
       <c r="B127" s="16">
-        <v>130121</v>
+        <v>210113</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>0</v>
@@ -15357,7 +15344,7 @@
         <v>29</v>
       </c>
       <c r="B128" s="16">
-        <v>180121</v>
+        <v>210118</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>0</v>
@@ -15472,7 +15459,7 @@
         <v>29</v>
       </c>
       <c r="B129" s="16">
-        <v>180121</v>
+        <v>210118</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>0</v>
@@ -15587,7 +15574,7 @@
         <v>30</v>
       </c>
       <c r="B130" s="16">
-        <v>180121</v>
+        <v>210118</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>0</v>
@@ -15699,7 +15686,7 @@
         <v>29</v>
       </c>
       <c r="B131" s="16">
-        <v>180121</v>
+        <v>210118</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>0</v>
@@ -15811,7 +15798,7 @@
         <v>30</v>
       </c>
       <c r="B132" s="16">
-        <v>190121</v>
+        <v>210119</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>0</v>
@@ -15923,7 +15910,7 @@
         <v>29</v>
       </c>
       <c r="B133" s="16">
-        <v>190121</v>
+        <v>210119</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>0</v>
@@ -16038,7 +16025,7 @@
         <v>30</v>
       </c>
       <c r="B134" s="16">
-        <v>190121</v>
+        <v>210119</v>
       </c>
       <c r="C134" s="16" t="s">
         <v>0</v>
@@ -16150,7 +16137,7 @@
         <v>30</v>
       </c>
       <c r="B135" s="16">
-        <v>190121</v>
+        <v>210119</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>0</v>
@@ -16262,7 +16249,7 @@
         <v>29</v>
       </c>
       <c r="B136" s="16">
-        <v>250121</v>
+        <v>210125</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>0</v>
@@ -16358,7 +16345,7 @@
       <c r="AG136" s="16">
         <v>83.875</v>
       </c>
-      <c r="AH136" s="26">
+      <c r="AH136" s="24">
         <v>3.0625</v>
       </c>
       <c r="AJ136" s="16">
@@ -16374,7 +16361,7 @@
         <v>29</v>
       </c>
       <c r="B137" s="16">
-        <v>250121</v>
+        <v>210125</v>
       </c>
       <c r="C137" s="16" t="s">
         <v>0</v>
@@ -16489,7 +16476,7 @@
         <v>29</v>
       </c>
       <c r="B138" s="16">
-        <v>250121</v>
+        <v>210125</v>
       </c>
       <c r="C138" s="16" t="s">
         <v>0</v>
@@ -16601,7 +16588,7 @@
         <v>30</v>
       </c>
       <c r="B139" s="16">
-        <v>250121</v>
+        <v>210125</v>
       </c>
       <c r="C139" s="16" t="s">
         <v>0</v>
@@ -16716,7 +16703,7 @@
         <v>29</v>
       </c>
       <c r="B140" s="16">
-        <v>250121</v>
+        <v>210125</v>
       </c>
       <c r="C140" s="16" t="s">
         <v>0</v>
@@ -16828,7 +16815,7 @@
         <v>29</v>
       </c>
       <c r="B141" s="16">
-        <v>250121</v>
+        <v>210125</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>0</v>
@@ -16937,7 +16924,7 @@
         <v>29</v>
       </c>
       <c r="B142" s="16">
-        <v>250121</v>
+        <v>210125</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>0</v>
@@ -17046,7 +17033,7 @@
         <v>29</v>
       </c>
       <c r="B143" s="16">
-        <v>30221</v>
+        <v>210203</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>3</v>
@@ -17158,7 +17145,7 @@
         <v>30</v>
       </c>
       <c r="B144" s="16">
-        <v>30221</v>
+        <v>210203</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>3</v>
@@ -17264,7 +17251,7 @@
         <v>29</v>
       </c>
       <c r="B145" s="16">
-        <v>40221</v>
+        <v>210204</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>3</v>
@@ -17376,7 +17363,7 @@
         <v>29</v>
       </c>
       <c r="B146" s="16">
-        <v>40221</v>
+        <v>210204</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>3</v>
@@ -17560,13 +17547,13 @@
         <v>92</v>
       </c>
       <c r="Z147" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA147" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="AA147" s="18" t="s">
+      <c r="AB147" s="18" t="s">
         <v>122</v>
-      </c>
-      <c r="AB147" s="18" t="s">
-        <v>123</v>
       </c>
       <c r="AC147" s="18" t="s">
         <v>93</v>
@@ -17578,10 +17565,10 @@
         <v>95</v>
       </c>
       <c r="AF147" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG147" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH147" s="19" t="s">
         <v>96</v>
@@ -17600,8 +17587,8 @@
       <c r="A148" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B148" s="25" t="s">
-        <v>101</v>
+      <c r="B148" s="23">
+        <v>180621</v>
       </c>
       <c r="C148" s="17" t="s">
         <v>0</v>
@@ -17664,7 +17651,7 @@
     </row>
     <row r="149" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B149" s="16">
-        <v>30818</v>
+        <v>180803</v>
       </c>
       <c r="C149" s="16" t="s">
         <v>0</v>
@@ -17727,7 +17714,7 @@
     </row>
     <row r="150" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B150" s="16">
-        <v>30818</v>
+        <v>180803</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>0</v>
@@ -17736,7 +17723,7 @@
         <v>3</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U150" s="16">
         <v>1.2943632567849688</v>
@@ -17790,7 +17777,7 @@
     </row>
     <row r="151" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B151" s="16">
-        <v>30818</v>
+        <v>180803</v>
       </c>
       <c r="C151" s="16" t="s">
         <v>0</v>
@@ -17799,7 +17786,7 @@
         <v>3</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U151" s="16">
         <v>1.2173382173382172</v>
@@ -17853,7 +17840,7 @@
     </row>
     <row r="152" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B152" s="16">
-        <v>30818</v>
+        <v>180803</v>
       </c>
       <c r="C152" s="16" t="s">
         <v>0</v>
@@ -17862,7 +17849,7 @@
         <v>3</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U152" s="16">
         <v>1.1443298969072164</v>
@@ -17916,7 +17903,7 @@
     </row>
     <row r="153" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B153" s="16">
-        <v>30818</v>
+        <v>180803</v>
       </c>
       <c r="C153" s="16" t="s">
         <v>0</v>
@@ -17925,7 +17912,7 @@
         <v>3</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U153" s="16">
         <v>1.3362637362637362</v>
@@ -17979,7 +17966,7 @@
     </row>
     <row r="154" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B154" s="16">
-        <v>30818</v>
+        <v>180803</v>
       </c>
       <c r="C154" s="16" t="s">
         <v>0</v>
@@ -18042,7 +18029,7 @@
     </row>
     <row r="155" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B155" s="16">
-        <v>30818</v>
+        <v>180803</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>0</v>
@@ -18108,7 +18095,7 @@
     </row>
     <row r="156" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B156" s="16">
-        <v>30818</v>
+        <v>180803</v>
       </c>
       <c r="C156" s="16" t="s">
         <v>0</v>
@@ -18171,7 +18158,7 @@
     </row>
     <row r="157" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B157" s="16">
-        <v>30818</v>
+        <v>180803</v>
       </c>
       <c r="C157" s="16" t="s">
         <v>0</v>
@@ -18180,7 +18167,7 @@
         <v>2</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U157" s="16">
         <v>1.0874097834803529</v>
@@ -18234,7 +18221,7 @@
     </row>
     <row r="158" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B158" s="16">
-        <v>60818</v>
+        <v>180806</v>
       </c>
       <c r="C158" s="16" t="s">
         <v>0</v>
@@ -18297,7 +18284,7 @@
     </row>
     <row r="159" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B159" s="16">
-        <v>60818</v>
+        <v>180806</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>0</v>
@@ -18363,7 +18350,7 @@
     </row>
     <row r="160" spans="1:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B160" s="16">
-        <v>60818</v>
+        <v>180806</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>0</v>
@@ -18426,7 +18413,7 @@
     </row>
     <row r="161" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B161" s="16">
-        <v>60818</v>
+        <v>180806</v>
       </c>
       <c r="C161" s="16" t="s">
         <v>0</v>
@@ -18492,7 +18479,7 @@
     </row>
     <row r="162" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B162" s="16">
-        <v>60818</v>
+        <v>180806</v>
       </c>
       <c r="C162" s="16" t="s">
         <v>0</v>
@@ -18555,7 +18542,7 @@
     </row>
     <row r="163" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B163" s="16">
-        <v>60818</v>
+        <v>180806</v>
       </c>
       <c r="C163" s="16" t="s">
         <v>0</v>
@@ -18564,7 +18551,7 @@
         <v>3</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U163" s="16">
         <v>1.0781078107810782</v>
@@ -18621,7 +18608,7 @@
     </row>
     <row r="164" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B164" s="16">
-        <v>60818</v>
+        <v>180806</v>
       </c>
       <c r="C164" s="16" t="s">
         <v>0</v>
@@ -18684,7 +18671,7 @@
     </row>
     <row r="165" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B165" s="16">
-        <v>70818</v>
+        <v>180807</v>
       </c>
       <c r="C165" s="16" t="s">
         <v>0</v>
@@ -18744,7 +18731,7 @@
     </row>
     <row r="166" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B166" s="16">
-        <v>70818</v>
+        <v>180807</v>
       </c>
       <c r="C166" s="16" t="s">
         <v>0</v>
@@ -18807,7 +18794,7 @@
     </row>
     <row r="167" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B167" s="16">
-        <v>70818</v>
+        <v>180807</v>
       </c>
       <c r="C167" s="16" t="s">
         <v>0</v>
@@ -18870,7 +18857,7 @@
     </row>
     <row r="168" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B168" s="16">
-        <v>70818</v>
+        <v>180807</v>
       </c>
       <c r="C168" s="16" t="s">
         <v>0</v>
@@ -18933,7 +18920,7 @@
     </row>
     <row r="169" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B169" s="16">
-        <v>70818</v>
+        <v>180807</v>
       </c>
       <c r="C169" s="16" t="s">
         <v>0</v>
@@ -18996,7 +18983,7 @@
     </row>
     <row r="170" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B170" s="16">
-        <v>70818</v>
+        <v>180807</v>
       </c>
       <c r="C170" s="16" t="s">
         <v>0</v>
@@ -19056,7 +19043,7 @@
     </row>
     <row r="171" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B171" s="16">
-        <v>70818</v>
+        <v>180807</v>
       </c>
       <c r="C171" s="16" t="s">
         <v>0</v>
@@ -19116,7 +19103,7 @@
     </row>
     <row r="172" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B172" s="16">
-        <v>70818</v>
+        <v>180807</v>
       </c>
       <c r="C172" s="16" t="s">
         <v>0</v>
@@ -19179,7 +19166,7 @@
     </row>
     <row r="173" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B173" s="16">
-        <v>70818</v>
+        <v>180807</v>
       </c>
       <c r="C173" s="16" t="s">
         <v>0</v>
@@ -19245,7 +19232,7 @@
     </row>
     <row r="174" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B174" s="16">
-        <v>140818</v>
+        <v>180814</v>
       </c>
       <c r="C174" s="16" t="s">
         <v>0</v>
@@ -19308,7 +19295,7 @@
     </row>
     <row r="175" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B175" s="16">
-        <v>140818</v>
+        <v>180814</v>
       </c>
       <c r="C175" s="16" t="s">
         <v>0</v>
@@ -19371,7 +19358,7 @@
     </row>
     <row r="176" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B176" s="16">
-        <v>140818</v>
+        <v>180814</v>
       </c>
       <c r="C176" s="16" t="s">
         <v>0</v>
@@ -19434,7 +19421,7 @@
     </row>
     <row r="177" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B177" s="16">
-        <v>140818</v>
+        <v>180814</v>
       </c>
       <c r="C177" s="16" t="s">
         <v>0</v>
@@ -19497,7 +19484,7 @@
     </row>
     <row r="178" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B178" s="16">
-        <v>140818</v>
+        <v>180814</v>
       </c>
       <c r="C178" s="16" t="s">
         <v>0</v>
@@ -19560,7 +19547,7 @@
     </row>
     <row r="179" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B179" s="16">
-        <v>140818</v>
+        <v>180814</v>
       </c>
       <c r="C179" s="16" t="s">
         <v>0</v>
@@ -19569,7 +19556,7 @@
         <v>3</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U179" s="16">
         <v>1.072139303482587</v>
@@ -19623,7 +19610,7 @@
     </row>
     <row r="180" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B180" s="16">
-        <v>300518</v>
+        <v>180530</v>
       </c>
       <c r="C180" s="16" t="s">
         <v>3</v>
@@ -19686,7 +19673,7 @@
     </row>
     <row r="181" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B181" s="16">
-        <v>300518</v>
+        <v>180530</v>
       </c>
       <c r="C181" s="16" t="s">
         <v>3</v>
@@ -19749,7 +19736,7 @@
     </row>
     <row r="182" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B182" s="16">
-        <v>300518</v>
+        <v>180530</v>
       </c>
       <c r="C182" s="16" t="s">
         <v>3</v>
@@ -19812,7 +19799,7 @@
     </row>
     <row r="183" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B183" s="16">
-        <v>300518</v>
+        <v>180530</v>
       </c>
       <c r="C183" s="16" t="s">
         <v>3</v>
@@ -19875,7 +19862,7 @@
     </row>
     <row r="184" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B184" s="16">
-        <v>300518</v>
+        <v>180530</v>
       </c>
       <c r="C184" s="16" t="s">
         <v>3</v>
@@ -19938,7 +19925,7 @@
     </row>
     <row r="185" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B185" s="16">
-        <v>300518</v>
+        <v>180530</v>
       </c>
       <c r="C185" s="16" t="s">
         <v>3</v>
@@ -20001,7 +19988,7 @@
     </row>
     <row r="186" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B186" s="16">
-        <v>300518</v>
+        <v>180530</v>
       </c>
       <c r="C186" s="16" t="s">
         <v>3</v>
@@ -20064,7 +20051,7 @@
     </row>
     <row r="187" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B187" s="16">
-        <v>300518</v>
+        <v>180530</v>
       </c>
       <c r="C187" s="16" t="s">
         <v>3</v>
@@ -20073,7 +20060,7 @@
         <v>3</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U187" s="16">
         <v>1.2394636015325671</v>
@@ -20124,7 +20111,7 @@
     </row>
     <row r="188" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B188" s="16">
-        <v>70618</v>
+        <v>180607</v>
       </c>
       <c r="C188" s="16" t="s">
         <v>3</v>
@@ -20187,7 +20174,7 @@
     </row>
     <row r="189" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B189" s="16">
-        <v>70618</v>
+        <v>180607</v>
       </c>
       <c r="C189" s="16" t="s">
         <v>3</v>
@@ -20250,7 +20237,7 @@
     </row>
     <row r="190" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B190" s="16">
-        <v>70618</v>
+        <v>180607</v>
       </c>
       <c r="C190" s="16" t="s">
         <v>3</v>
@@ -20313,7 +20300,7 @@
     </row>
     <row r="191" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B191" s="16">
-        <v>70618</v>
+        <v>180607</v>
       </c>
       <c r="C191" s="16" t="s">
         <v>3</v>
@@ -20376,7 +20363,7 @@
     </row>
     <row r="192" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B192" s="16">
-        <v>70618</v>
+        <v>180607</v>
       </c>
       <c r="C192" s="16" t="s">
         <v>3</v>
@@ -20385,7 +20372,7 @@
         <v>2</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U192" s="16">
         <v>1.2317647058823529</v>
@@ -20436,7 +20423,7 @@
     </row>
     <row r="193" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B193" s="16">
-        <v>70618</v>
+        <v>180607</v>
       </c>
       <c r="C193" s="16" t="s">
         <v>3</v>
@@ -20445,7 +20432,7 @@
         <v>2</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U193" s="16">
         <v>1.1772428884026258</v>
@@ -20499,7 +20486,7 @@
     </row>
     <row r="194" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B194" s="16">
-        <v>70618</v>
+        <v>180607</v>
       </c>
       <c r="C194" s="16" t="s">
         <v>3</v>
@@ -20508,7 +20495,7 @@
         <v>2</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="U194" s="16">
         <v>1.242</v>
@@ -20562,7 +20549,7 @@
     </row>
     <row r="195" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B195" s="16">
-        <v>70618</v>
+        <v>180607</v>
       </c>
       <c r="C195" s="16" t="s">
         <v>3</v>
@@ -20571,7 +20558,7 @@
         <v>3</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U195" s="16">
         <v>1.1539855072463767</v>
@@ -20625,7 +20612,7 @@
     </row>
     <row r="196" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B196" s="16">
-        <v>70618</v>
+        <v>180607</v>
       </c>
       <c r="C196" s="16" t="s">
         <v>3</v>
@@ -20634,7 +20621,7 @@
         <v>3</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U196" s="16">
         <v>1.2086956521739129</v>
@@ -20688,7 +20675,7 @@
     </row>
     <row r="197" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B197" s="16">
-        <v>70618</v>
+        <v>180607</v>
       </c>
       <c r="C197" s="16" t="s">
         <v>3</v>
@@ -20751,7 +20738,7 @@
     </row>
     <row r="198" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B198" s="16">
-        <v>70618</v>
+        <v>180607</v>
       </c>
       <c r="C198" s="16" t="s">
         <v>3</v>
@@ -20760,7 +20747,7 @@
         <v>3</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U198" s="16">
         <v>1.1696113074204948</v>
@@ -20814,7 +20801,7 @@
     </row>
     <row r="199" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B199" s="16">
-        <v>80618</v>
+        <v>180608</v>
       </c>
       <c r="C199" s="16" t="s">
         <v>3</v>
@@ -20877,7 +20864,7 @@
     </row>
     <row r="200" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B200" s="16">
-        <v>80618</v>
+        <v>180608</v>
       </c>
       <c r="C200" s="16" t="s">
         <v>3</v>
@@ -20940,7 +20927,7 @@
     </row>
     <row r="201" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B201" s="16">
-        <v>80618</v>
+        <v>180608</v>
       </c>
       <c r="C201" s="16" t="s">
         <v>3</v>
@@ -21003,7 +20990,7 @@
     </row>
     <row r="202" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B202" s="16">
-        <v>80618</v>
+        <v>180608</v>
       </c>
       <c r="C202" s="16" t="s">
         <v>3</v>
@@ -21066,7 +21053,7 @@
     </row>
     <row r="203" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B203" s="16">
-        <v>80618</v>
+        <v>180608</v>
       </c>
       <c r="C203" s="16" t="s">
         <v>3</v>
@@ -21075,7 +21062,7 @@
         <v>3</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U203" s="16">
         <v>1.0529556650246306</v>
@@ -21129,7 +21116,7 @@
     </row>
     <row r="204" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B204" s="16">
-        <v>80618</v>
+        <v>180608</v>
       </c>
       <c r="C204" s="16" t="s">
         <v>3</v>
@@ -21138,7 +21125,7 @@
         <v>3</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U204" s="16">
         <v>1.0683139534883721</v>
@@ -21195,7 +21182,7 @@
     <row r="207" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="208" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B208" s="16">
-        <v>261018</v>
+        <v>181026</v>
       </c>
       <c r="C208" s="16" t="s">
         <v>42</v>
@@ -21303,7 +21290,7 @@
     </row>
     <row r="209" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B209" s="16">
-        <v>261018</v>
+        <v>181026</v>
       </c>
       <c r="C209" s="16" t="s">
         <v>42</v>
@@ -21411,7 +21398,7 @@
     </row>
     <row r="210" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B210" s="16">
-        <v>261018</v>
+        <v>181026</v>
       </c>
       <c r="C210" s="16" t="s">
         <v>42</v>
@@ -21519,7 +21506,7 @@
     </row>
     <row r="211" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B211" s="16">
-        <v>261018</v>
+        <v>181026</v>
       </c>
       <c r="C211" s="16" t="s">
         <v>42</v>
@@ -21627,7 +21614,7 @@
     </row>
     <row r="212" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B212" s="16">
-        <v>220519</v>
+        <v>190522</v>
       </c>
       <c r="C212" s="16" t="s">
         <v>42</v>
@@ -21693,7 +21680,7 @@
     </row>
     <row r="213" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B213" s="16">
-        <v>220519</v>
+        <v>190522</v>
       </c>
       <c r="C213" s="16" t="s">
         <v>42</v>
@@ -21753,7 +21740,7 @@
     </row>
     <row r="214" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B214" s="16">
-        <v>220519</v>
+        <v>190522</v>
       </c>
       <c r="C214" s="16" t="s">
         <v>42</v>
@@ -21819,7 +21806,7 @@
     </row>
     <row r="215" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B215" s="16">
-        <v>220519</v>
+        <v>190522</v>
       </c>
       <c r="C215" s="16" t="s">
         <v>42</v>
@@ -21885,7 +21872,7 @@
     </row>
     <row r="216" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B216" s="16">
-        <v>40918</v>
+        <v>180904</v>
       </c>
       <c r="C216" s="16" t="s">
         <v>51</v>
@@ -21948,7 +21935,7 @@
     </row>
     <row r="217" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B217" s="16">
-        <v>40918</v>
+        <v>180904</v>
       </c>
       <c r="C217" s="16" t="s">
         <v>51</v>
@@ -22012,7 +21999,7 @@
     <row r="218" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="219" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B219" s="16">
-        <v>11018</v>
+        <v>181001</v>
       </c>
       <c r="C219" s="16" t="s">
         <v>52</v>
@@ -22123,7 +22110,7 @@
     </row>
     <row r="220" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B220" s="16">
-        <v>21018</v>
+        <v>181002</v>
       </c>
       <c r="C220" s="16" t="s">
         <v>52</v>
@@ -22186,7 +22173,7 @@
     </row>
     <row r="221" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B221" s="16">
-        <v>21018</v>
+        <v>181002</v>
       </c>
       <c r="C221" s="16" t="s">
         <v>52</v>
@@ -22294,7 +22281,7 @@
     </row>
     <row r="222" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B222" s="16">
-        <v>270319</v>
+        <v>190327</v>
       </c>
       <c r="C222" s="16" t="s">
         <v>52</v>
@@ -22390,7 +22377,7 @@
       <c r="AG222" s="16">
         <v>123.25</v>
       </c>
-      <c r="AH222" s="27">
+      <c r="AH222" s="25">
         <v>10</v>
       </c>
       <c r="AI222" s="20"/>
@@ -22403,7 +22390,7 @@
     </row>
     <row r="223" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B223" s="16">
-        <v>270319</v>
+        <v>190327</v>
       </c>
       <c r="C223" s="16" t="s">
         <v>52</v>
@@ -22511,7 +22498,7 @@
     </row>
     <row r="224" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B224" s="16">
-        <v>270319</v>
+        <v>190327</v>
       </c>
       <c r="C224" s="16" t="s">
         <v>52</v>
@@ -22622,7 +22609,7 @@
     </row>
     <row r="225" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B225" s="16">
-        <v>270319</v>
+        <v>190327</v>
       </c>
       <c r="C225" s="16" t="s">
         <v>52</v>
@@ -22689,9 +22676,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B148" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
